--- a/03. Satprokar Work/01. Satprokar Primary Work/Summary-02.xlsx
+++ b/03. Satprokar Work/01. Satprokar Primary Work/Summary-02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. Official\03. সাত প্রকার\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. Official\03. Satprokar Work\01. Satprokar Primary Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="34">
   <si>
     <t xml:space="preserve">ক্রঃ নং </t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t xml:space="preserve">জুন -২০২৪ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">জুলাই -২০২৪ </t>
   </si>
 </sst>
 </file>
@@ -255,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -368,6 +371,78 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -377,73 +452,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -726,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N140"/>
+  <dimension ref="A1:N175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -746,40 +776,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="44"/>
+      <c r="N1" s="70"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
@@ -796,7 +826,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="42"/>
+      <c r="I4" s="68"/>
       <c r="J4" s="1" t="s">
         <v>5</v>
       </c>
@@ -814,26 +844,26 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="41">
+      <c r="A5" s="72">
         <v>1</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="72">
         <v>378</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="72">
         <v>8874</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="72">
         <f>SUM(C5:D7)</f>
         <v>9252</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="72">
         <v>8142</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="72">
         <f>SUM(E5-F5)</f>
         <v>1110</v>
       </c>
@@ -860,13 +890,13 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
       <c r="H6" s="1"/>
       <c r="I6" s="3" t="s">
         <v>11</v>
@@ -890,13 +920,13 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
       <c r="H7" s="1"/>
       <c r="I7" s="3" t="s">
         <v>12</v>
@@ -920,7 +950,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1116,17 +1146,17 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="41">
+      <c r="A14" s="72">
         <v>5</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
       <c r="H14" s="1"/>
       <c r="I14" s="3" t="s">
         <v>14</v>
@@ -1150,13 +1180,13 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
       <c r="H15" s="1"/>
       <c r="I15" s="3" t="s">
         <v>11</v>
@@ -1180,7 +1210,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
@@ -1231,17 +1261,17 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="41">
+      <c r="A18" s="72">
         <v>6</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
       <c r="H18" s="1"/>
       <c r="I18" s="3" t="s">
         <v>14</v>
@@ -1265,13 +1295,13 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
       <c r="H19" s="1"/>
       <c r="I19" s="3" t="s">
         <v>11</v>
@@ -1295,7 +1325,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="5" t="s">
         <v>13</v>
       </c>
@@ -1346,17 +1376,17 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="41">
+      <c r="A22" s="72">
         <v>7</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
       <c r="H22" s="1"/>
       <c r="I22" s="6" t="s">
         <v>14</v>
@@ -1380,13 +1410,13 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
       <c r="H23" s="1"/>
       <c r="I23" s="6" t="s">
         <v>15</v>
@@ -1410,13 +1440,13 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
       <c r="H24" s="1"/>
       <c r="I24" s="6" t="s">
         <v>11</v>
@@ -1440,7 +1470,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="7" t="s">
         <v>13</v>
       </c>
@@ -1609,13 +1639,13 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
       <c r="H31" s="1"/>
       <c r="I31" s="6" t="s">
         <v>15</v>
@@ -1642,13 +1672,13 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
       <c r="H32" s="1"/>
       <c r="I32" s="6" t="s">
         <v>11</v>
@@ -1675,13 +1705,13 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
       <c r="H33" s="1"/>
       <c r="I33" s="6" t="s">
         <v>14</v>
@@ -1708,13 +1738,13 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
       <c r="H34" s="1"/>
       <c r="I34" s="3" t="s">
         <v>12</v>
@@ -1741,7 +1771,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="5" t="s">
         <v>17</v>
       </c>
@@ -1791,40 +1821,40 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="M36" s="44" t="s">
+      <c r="M36" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="N36" s="44"/>
+      <c r="N36" s="70"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="45" t="s">
+      <c r="A38" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="45" t="s">
+      <c r="I38" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J38" s="45" t="s">
+      <c r="J38" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="K38" s="45"/>
-      <c r="L38" s="45"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="45"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
+      <c r="A39" s="48"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="15" t="s">
         <v>5</v>
       </c>
@@ -1841,7 +1871,7 @@
         <v>9</v>
       </c>
       <c r="H39" s="15"/>
-      <c r="I39" s="45"/>
+      <c r="I39" s="48"/>
       <c r="J39" s="15" t="s">
         <v>5</v>
       </c>
@@ -1859,27 +1889,27 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="46">
+      <c r="A40" s="47">
         <v>1</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="41">
+      <c r="C40" s="72">
         <f>G5</f>
         <v>1110</v>
       </c>
-      <c r="D40" s="46">
+      <c r="D40" s="47">
         <v>6314</v>
       </c>
-      <c r="E40" s="41">
+      <c r="E40" s="72">
         <f>SUM(C40:D42)</f>
         <v>7424</v>
       </c>
-      <c r="F40" s="46">
+      <c r="F40" s="47">
         <v>7265</v>
       </c>
-      <c r="G40" s="41">
+      <c r="G40" s="72">
         <f>SUM(E40-F40)</f>
         <v>159</v>
       </c>
@@ -1907,13 +1937,13 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="42"/>
+      <c r="A41" s="48"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="68"/>
       <c r="H41" s="1"/>
       <c r="I41" s="3" t="s">
         <v>11</v>
@@ -1938,13 +1968,13 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="42"/>
+      <c r="A42" s="48"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="68"/>
       <c r="H42" s="1"/>
       <c r="I42" s="3" t="s">
         <v>12</v>
@@ -1969,7 +1999,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="12" t="s">
         <v>13</v>
       </c>
@@ -2169,17 +2199,17 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="46">
+      <c r="A49" s="47">
         <v>5</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="42"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="42"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="68"/>
       <c r="H49" s="1"/>
       <c r="I49" s="3" t="s">
         <v>14</v>
@@ -2204,13 +2234,13 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="46"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="42"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="68"/>
       <c r="H50" s="1"/>
       <c r="I50" s="3" t="s">
         <v>11</v>
@@ -2235,7 +2265,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="46"/>
+      <c r="A51" s="47"/>
       <c r="B51" s="12" t="s">
         <v>13</v>
       </c>
@@ -2286,17 +2316,17 @@
       <c r="N52" s="23"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="46">
+      <c r="A53" s="47">
         <v>6</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="42"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="42"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="68"/>
       <c r="H53" s="1"/>
       <c r="I53" s="3" t="s">
         <v>14</v>
@@ -2321,13 +2351,13 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="45"/>
-      <c r="G54" s="42"/>
+      <c r="A54" s="48"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="68"/>
       <c r="H54" s="1"/>
       <c r="I54" s="3" t="s">
         <v>11</v>
@@ -2352,7 +2382,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
+      <c r="A55" s="48"/>
       <c r="B55" s="12" t="s">
         <v>13</v>
       </c>
@@ -2403,17 +2433,17 @@
       <c r="N56" s="23"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="46">
+      <c r="A57" s="47">
         <v>7</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B57" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="42"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="42"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="68"/>
       <c r="H57" s="1"/>
       <c r="I57" s="6" t="s">
         <v>14</v>
@@ -2438,13 +2468,13 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="42"/>
+      <c r="A58" s="48"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="68"/>
       <c r="H58" s="1"/>
       <c r="I58" s="6" t="s">
         <v>15</v>
@@ -2469,13 +2499,13 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="45"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="42"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="42"/>
+      <c r="A59" s="48"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="68"/>
       <c r="H59" s="1"/>
       <c r="I59" s="6" t="s">
         <v>11</v>
@@ -2500,7 +2530,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="45"/>
+      <c r="A60" s="48"/>
       <c r="B60" s="17" t="s">
         <v>13</v>
       </c>
@@ -2672,13 +2702,13 @@
       <c r="N65" s="23"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="47"/>
-      <c r="B66" s="38"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="38"/>
+      <c r="A66" s="59"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="62"/>
       <c r="H66" s="1"/>
       <c r="I66" s="6" t="s">
         <v>15</v>
@@ -2705,13 +2735,13 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="39"/>
+      <c r="A67" s="60"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="60"/>
+      <c r="G67" s="63"/>
       <c r="H67" s="1"/>
       <c r="I67" s="6" t="s">
         <v>11</v>
@@ -2738,13 +2768,13 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="48"/>
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="39"/>
+      <c r="A68" s="60"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="63"/>
       <c r="H68" s="1"/>
       <c r="I68" s="6" t="s">
         <v>14</v>
@@ -2771,13 +2801,13 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="48"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="40"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="40"/>
+      <c r="A69" s="60"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="61"/>
+      <c r="G69" s="64"/>
       <c r="H69" s="1"/>
       <c r="I69" s="3" t="s">
         <v>12</v>
@@ -2804,7 +2834,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
+      <c r="A70" s="61"/>
       <c r="B70" s="12" t="s">
         <v>17</v>
       </c>
@@ -2854,40 +2884,40 @@
       </c>
     </row>
     <row r="71" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="M71" s="44" t="s">
+      <c r="M71" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="N71" s="44"/>
+      <c r="N71" s="70"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="45" t="s">
+      <c r="A73" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="45" t="s">
+      <c r="C73" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="45"/>
-      <c r="E73" s="45"/>
-      <c r="F73" s="45"/>
-      <c r="G73" s="45"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
       <c r="H73" s="18"/>
-      <c r="I73" s="45" t="s">
+      <c r="I73" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J73" s="45" t="s">
+      <c r="J73" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="K73" s="45"/>
-      <c r="L73" s="45"/>
-      <c r="M73" s="45"/>
-      <c r="N73" s="45"/>
+      <c r="K73" s="48"/>
+      <c r="L73" s="48"/>
+      <c r="M73" s="48"/>
+      <c r="N73" s="48"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="45"/>
-      <c r="B74" s="45"/>
+      <c r="A74" s="48"/>
+      <c r="B74" s="48"/>
       <c r="C74" s="18" t="s">
         <v>5</v>
       </c>
@@ -2904,7 +2934,7 @@
         <v>9</v>
       </c>
       <c r="H74" s="18"/>
-      <c r="I74" s="45"/>
+      <c r="I74" s="48"/>
       <c r="J74" s="18" t="s">
         <v>5</v>
       </c>
@@ -2922,24 +2952,24 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="46">
+      <c r="A75" s="47">
         <v>1</v>
       </c>
-      <c r="B75" s="43" t="s">
+      <c r="B75" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="57">
+      <c r="C75" s="50">
         <f>G40</f>
         <v>159</v>
       </c>
       <c r="D75" s="53">
         <v>5109</v>
       </c>
-      <c r="E75" s="57">
+      <c r="E75" s="50">
         <f>SUM(C75:D77)</f>
         <v>5268</v>
       </c>
-      <c r="F75" s="50">
+      <c r="F75" s="56">
         <f>SUM(E75-G75)</f>
         <v>4746</v>
       </c>
@@ -2970,12 +3000,12 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="45"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="58"/>
+      <c r="A76" s="48"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="51"/>
       <c r="D76" s="54"/>
-      <c r="E76" s="58"/>
-      <c r="F76" s="51"/>
+      <c r="E76" s="51"/>
+      <c r="F76" s="57"/>
       <c r="G76" s="54"/>
       <c r="H76" s="9"/>
       <c r="I76" s="11" t="s">
@@ -3001,12 +3031,12 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="45"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="59"/>
+      <c r="A77" s="48"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="52"/>
       <c r="D77" s="55"/>
-      <c r="E77" s="59"/>
-      <c r="F77" s="52"/>
+      <c r="E77" s="52"/>
+      <c r="F77" s="58"/>
       <c r="G77" s="55"/>
       <c r="H77" s="9"/>
       <c r="I77" s="11" t="s">
@@ -3032,7 +3062,7 @@
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="45"/>
+      <c r="A78" s="48"/>
       <c r="B78" s="12" t="s">
         <v>13</v>
       </c>
@@ -3232,17 +3262,17 @@
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="46">
+      <c r="A84" s="47">
         <v>5</v>
       </c>
-      <c r="B84" s="43" t="s">
+      <c r="B84" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C84" s="42"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="42"/>
-      <c r="F84" s="56"/>
-      <c r="G84" s="45"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="68"/>
+      <c r="F84" s="69"/>
+      <c r="G84" s="48"/>
       <c r="H84" s="9"/>
       <c r="I84" s="11" t="s">
         <v>14</v>
@@ -3267,13 +3297,13 @@
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="46"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="56"/>
-      <c r="G85" s="45"/>
+      <c r="A85" s="47"/>
+      <c r="B85" s="49"/>
+      <c r="C85" s="68"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="68"/>
+      <c r="F85" s="69"/>
+      <c r="G85" s="48"/>
       <c r="H85" s="9"/>
       <c r="I85" s="11" t="s">
         <v>11</v>
@@ -3298,7 +3328,7 @@
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="46"/>
+      <c r="A86" s="47"/>
       <c r="B86" s="12" t="s">
         <v>13</v>
       </c>
@@ -3349,17 +3379,17 @@
       <c r="N87" s="23"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="46">
+      <c r="A88" s="47">
         <v>6</v>
       </c>
-      <c r="B88" s="43" t="s">
+      <c r="B88" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C88" s="42"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="42"/>
-      <c r="F88" s="56"/>
-      <c r="G88" s="45"/>
+      <c r="C88" s="68"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="68"/>
+      <c r="F88" s="69"/>
+      <c r="G88" s="48"/>
       <c r="H88" s="9"/>
       <c r="I88" s="11" t="s">
         <v>14</v>
@@ -3384,13 +3414,13 @@
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="45"/>
-      <c r="B89" s="43"/>
-      <c r="C89" s="42"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="42"/>
-      <c r="F89" s="56"/>
-      <c r="G89" s="45"/>
+      <c r="A89" s="48"/>
+      <c r="B89" s="49"/>
+      <c r="C89" s="68"/>
+      <c r="D89" s="48"/>
+      <c r="E89" s="68"/>
+      <c r="F89" s="69"/>
+      <c r="G89" s="48"/>
       <c r="H89" s="9"/>
       <c r="I89" s="11" t="s">
         <v>11</v>
@@ -3415,7 +3445,7 @@
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="45"/>
+      <c r="A90" s="48"/>
       <c r="B90" s="12" t="s">
         <v>13</v>
       </c>
@@ -3466,23 +3496,23 @@
       <c r="N91" s="23"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="46">
+      <c r="A92" s="47">
         <v>7</v>
       </c>
-      <c r="B92" s="43" t="s">
+      <c r="B92" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C92" s="63" t="s">
+      <c r="C92" s="71" t="s">
         <v>31</v>
       </c>
       <c r="D92" s="53">
         <v>930</v>
       </c>
-      <c r="E92" s="57">
+      <c r="E92" s="50">
         <f>SUM(C92:D94)</f>
         <v>930</v>
       </c>
-      <c r="F92" s="50">
+      <c r="F92" s="56">
         <f>SUM(E92-G92)</f>
         <v>0</v>
       </c>
@@ -3513,12 +3543,12 @@
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="45"/>
-      <c r="B93" s="43"/>
-      <c r="C93" s="63"/>
+      <c r="A93" s="48"/>
+      <c r="B93" s="49"/>
+      <c r="C93" s="71"/>
       <c r="D93" s="54"/>
-      <c r="E93" s="58"/>
-      <c r="F93" s="51"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="57"/>
       <c r="G93" s="54"/>
       <c r="H93" s="9"/>
       <c r="I93" s="6" t="s">
@@ -3544,12 +3574,12 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="45"/>
-      <c r="B94" s="43"/>
-      <c r="C94" s="63"/>
+      <c r="A94" s="48"/>
+      <c r="B94" s="49"/>
+      <c r="C94" s="71"/>
       <c r="D94" s="55"/>
-      <c r="E94" s="59"/>
-      <c r="F94" s="52"/>
+      <c r="E94" s="52"/>
+      <c r="F94" s="58"/>
       <c r="G94" s="55"/>
       <c r="H94" s="9"/>
       <c r="I94" s="6" t="s">
@@ -3575,7 +3605,7 @@
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="45"/>
+      <c r="A95" s="48"/>
       <c r="B95" s="17" t="s">
         <v>13</v>
       </c>
@@ -3759,13 +3789,13 @@
       <c r="N100" s="23"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="47"/>
-      <c r="B101" s="38"/>
-      <c r="C101" s="38"/>
-      <c r="D101" s="47"/>
-      <c r="E101" s="38"/>
-      <c r="F101" s="60"/>
-      <c r="G101" s="47"/>
+      <c r="A101" s="59"/>
+      <c r="B101" s="62"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="59"/>
+      <c r="E101" s="62"/>
+      <c r="F101" s="65"/>
+      <c r="G101" s="59"/>
       <c r="H101" s="9"/>
       <c r="I101" s="6" t="s">
         <v>15</v>
@@ -3792,13 +3822,13 @@
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="48"/>
-      <c r="B102" s="39"/>
-      <c r="C102" s="39"/>
-      <c r="D102" s="48"/>
-      <c r="E102" s="39"/>
-      <c r="F102" s="61"/>
-      <c r="G102" s="48"/>
+      <c r="A102" s="60"/>
+      <c r="B102" s="63"/>
+      <c r="C102" s="63"/>
+      <c r="D102" s="60"/>
+      <c r="E102" s="63"/>
+      <c r="F102" s="66"/>
+      <c r="G102" s="60"/>
       <c r="H102" s="9"/>
       <c r="I102" s="6" t="s">
         <v>11</v>
@@ -3825,13 +3855,13 @@
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="48"/>
-      <c r="B103" s="39"/>
-      <c r="C103" s="39"/>
-      <c r="D103" s="48"/>
-      <c r="E103" s="39"/>
-      <c r="F103" s="61"/>
-      <c r="G103" s="48"/>
+      <c r="A103" s="60"/>
+      <c r="B103" s="63"/>
+      <c r="C103" s="63"/>
+      <c r="D103" s="60"/>
+      <c r="E103" s="63"/>
+      <c r="F103" s="66"/>
+      <c r="G103" s="60"/>
       <c r="H103" s="9"/>
       <c r="I103" s="6" t="s">
         <v>14</v>
@@ -3858,13 +3888,13 @@
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="48"/>
-      <c r="B104" s="40"/>
-      <c r="C104" s="40"/>
-      <c r="D104" s="49"/>
-      <c r="E104" s="40"/>
-      <c r="F104" s="62"/>
-      <c r="G104" s="49"/>
+      <c r="A104" s="60"/>
+      <c r="B104" s="64"/>
+      <c r="C104" s="64"/>
+      <c r="D104" s="61"/>
+      <c r="E104" s="64"/>
+      <c r="F104" s="67"/>
+      <c r="G104" s="61"/>
       <c r="H104" s="9"/>
       <c r="I104" s="11" t="s">
         <v>12</v>
@@ -3891,7 +3921,7 @@
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="49"/>
+      <c r="A105" s="61"/>
       <c r="B105" s="12" t="s">
         <v>17</v>
       </c>
@@ -3941,40 +3971,40 @@
       </c>
     </row>
     <row r="106" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="M106" s="44" t="s">
+      <c r="M106" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="N106" s="44"/>
+      <c r="N106" s="70"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" s="45" t="s">
+      <c r="A108" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C108" s="45" t="s">
+      <c r="C108" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D108" s="45"/>
-      <c r="E108" s="45"/>
-      <c r="F108" s="45"/>
-      <c r="G108" s="45"/>
+      <c r="D108" s="48"/>
+      <c r="E108" s="48"/>
+      <c r="F108" s="48"/>
+      <c r="G108" s="48"/>
       <c r="H108" s="28"/>
-      <c r="I108" s="45" t="s">
+      <c r="I108" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="J108" s="45" t="s">
+      <c r="J108" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="K108" s="45"/>
-      <c r="L108" s="45"/>
-      <c r="M108" s="45"/>
-      <c r="N108" s="45"/>
+      <c r="K108" s="48"/>
+      <c r="L108" s="48"/>
+      <c r="M108" s="48"/>
+      <c r="N108" s="48"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="45"/>
-      <c r="B109" s="45"/>
+      <c r="A109" s="48"/>
+      <c r="B109" s="48"/>
       <c r="C109" s="28" t="s">
         <v>5</v>
       </c>
@@ -3991,7 +4021,7 @@
         <v>9</v>
       </c>
       <c r="H109" s="28"/>
-      <c r="I109" s="45"/>
+      <c r="I109" s="48"/>
       <c r="J109" s="28" t="s">
         <v>5</v>
       </c>
@@ -4009,24 +4039,24 @@
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="46">
+      <c r="A110" s="47">
         <v>1</v>
       </c>
-      <c r="B110" s="43" t="s">
+      <c r="B110" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C110" s="57">
+      <c r="C110" s="50">
         <f>G75</f>
         <v>522</v>
       </c>
       <c r="D110" s="53">
         <v>7514</v>
       </c>
-      <c r="E110" s="57">
+      <c r="E110" s="50">
         <f>SUM(C110:D112)</f>
         <v>8036</v>
       </c>
-      <c r="F110" s="50">
+      <c r="F110" s="56">
         <f>SUM(E110-G110)</f>
         <v>7771</v>
       </c>
@@ -4057,12 +4087,12 @@
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="45"/>
-      <c r="B111" s="43"/>
-      <c r="C111" s="58"/>
+      <c r="A111" s="48"/>
+      <c r="B111" s="49"/>
+      <c r="C111" s="51"/>
       <c r="D111" s="54"/>
-      <c r="E111" s="58"/>
-      <c r="F111" s="51"/>
+      <c r="E111" s="51"/>
+      <c r="F111" s="57"/>
       <c r="G111" s="54"/>
       <c r="H111" s="31"/>
       <c r="I111" s="30" t="s">
@@ -4088,12 +4118,12 @@
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="45"/>
-      <c r="B112" s="43"/>
-      <c r="C112" s="59"/>
+      <c r="A112" s="48"/>
+      <c r="B112" s="49"/>
+      <c r="C112" s="52"/>
       <c r="D112" s="55"/>
-      <c r="E112" s="59"/>
-      <c r="F112" s="52"/>
+      <c r="E112" s="52"/>
+      <c r="F112" s="58"/>
       <c r="G112" s="55"/>
       <c r="H112" s="31"/>
       <c r="I112" s="30" t="s">
@@ -4119,7 +4149,7 @@
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="45"/>
+      <c r="A113" s="48"/>
       <c r="B113" s="12" t="s">
         <v>13</v>
       </c>
@@ -4319,17 +4349,17 @@
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="46">
+      <c r="A119" s="47">
         <v>5</v>
       </c>
-      <c r="B119" s="43" t="s">
+      <c r="B119" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="C119" s="42"/>
-      <c r="D119" s="45"/>
-      <c r="E119" s="42"/>
-      <c r="F119" s="56"/>
-      <c r="G119" s="45"/>
+      <c r="C119" s="68"/>
+      <c r="D119" s="48"/>
+      <c r="E119" s="68"/>
+      <c r="F119" s="69"/>
+      <c r="G119" s="48"/>
       <c r="H119" s="31"/>
       <c r="I119" s="30" t="s">
         <v>14</v>
@@ -4354,13 +4384,13 @@
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="46"/>
-      <c r="B120" s="43"/>
-      <c r="C120" s="42"/>
-      <c r="D120" s="45"/>
-      <c r="E120" s="42"/>
-      <c r="F120" s="56"/>
-      <c r="G120" s="45"/>
+      <c r="A120" s="47"/>
+      <c r="B120" s="49"/>
+      <c r="C120" s="68"/>
+      <c r="D120" s="48"/>
+      <c r="E120" s="68"/>
+      <c r="F120" s="69"/>
+      <c r="G120" s="48"/>
       <c r="H120" s="31"/>
       <c r="I120" s="30" t="s">
         <v>11</v>
@@ -4385,7 +4415,7 @@
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="46"/>
+      <c r="A121" s="47"/>
       <c r="B121" s="12" t="s">
         <v>13</v>
       </c>
@@ -4436,17 +4466,17 @@
       <c r="N122" s="28"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="46">
+      <c r="A123" s="47">
         <v>6</v>
       </c>
-      <c r="B123" s="43" t="s">
+      <c r="B123" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C123" s="42"/>
-      <c r="D123" s="45"/>
-      <c r="E123" s="42"/>
-      <c r="F123" s="56"/>
-      <c r="G123" s="45"/>
+      <c r="C123" s="68"/>
+      <c r="D123" s="48"/>
+      <c r="E123" s="68"/>
+      <c r="F123" s="69"/>
+      <c r="G123" s="48"/>
       <c r="H123" s="31"/>
       <c r="I123" s="30" t="s">
         <v>14</v>
@@ -4471,13 +4501,13 @@
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="45"/>
-      <c r="B124" s="43"/>
-      <c r="C124" s="42"/>
-      <c r="D124" s="45"/>
-      <c r="E124" s="42"/>
-      <c r="F124" s="56"/>
-      <c r="G124" s="45"/>
+      <c r="A124" s="48"/>
+      <c r="B124" s="49"/>
+      <c r="C124" s="68"/>
+      <c r="D124" s="48"/>
+      <c r="E124" s="68"/>
+      <c r="F124" s="69"/>
+      <c r="G124" s="48"/>
       <c r="H124" s="31"/>
       <c r="I124" s="30" t="s">
         <v>11</v>
@@ -4502,7 +4532,7 @@
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="45"/>
+      <c r="A125" s="48"/>
       <c r="B125" s="12" t="s">
         <v>13</v>
       </c>
@@ -4553,24 +4583,24 @@
       <c r="N126" s="28"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127" s="46">
+      <c r="A127" s="47">
         <v>7</v>
       </c>
-      <c r="B127" s="43" t="s">
+      <c r="B127" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C127" s="57">
+      <c r="C127" s="50">
         <f t="shared" ref="C127" si="89">G92</f>
         <v>930</v>
       </c>
       <c r="D127" s="53">
         <v>297</v>
       </c>
-      <c r="E127" s="57">
+      <c r="E127" s="50">
         <f t="shared" ref="E127" si="90">SUM(C127:D127)</f>
         <v>1227</v>
       </c>
-      <c r="F127" s="50">
+      <c r="F127" s="56">
         <f t="shared" ref="F127" si="91">SUM(E127-G127)</f>
         <v>293</v>
       </c>
@@ -4601,12 +4631,12 @@
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="45"/>
-      <c r="B128" s="43"/>
-      <c r="C128" s="58"/>
+      <c r="A128" s="48"/>
+      <c r="B128" s="49"/>
+      <c r="C128" s="51"/>
       <c r="D128" s="54"/>
-      <c r="E128" s="58"/>
-      <c r="F128" s="51"/>
+      <c r="E128" s="51"/>
+      <c r="F128" s="57"/>
       <c r="G128" s="54"/>
       <c r="H128" s="31"/>
       <c r="I128" s="6" t="s">
@@ -4632,12 +4662,12 @@
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A129" s="45"/>
-      <c r="B129" s="43"/>
-      <c r="C129" s="59"/>
+      <c r="A129" s="48"/>
+      <c r="B129" s="49"/>
+      <c r="C129" s="52"/>
       <c r="D129" s="55"/>
-      <c r="E129" s="59"/>
-      <c r="F129" s="52"/>
+      <c r="E129" s="52"/>
+      <c r="F129" s="58"/>
       <c r="G129" s="55"/>
       <c r="H129" s="31"/>
       <c r="I129" s="6" t="s">
@@ -4663,7 +4693,7 @@
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A130" s="45"/>
+      <c r="A130" s="48"/>
       <c r="B130" s="17" t="s">
         <v>13</v>
       </c>
@@ -4850,13 +4880,13 @@
       <c r="N135" s="28"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A136" s="47"/>
-      <c r="B136" s="38"/>
-      <c r="C136" s="38"/>
-      <c r="D136" s="47"/>
-      <c r="E136" s="38"/>
-      <c r="F136" s="60"/>
-      <c r="G136" s="47"/>
+      <c r="A136" s="59"/>
+      <c r="B136" s="62"/>
+      <c r="C136" s="62"/>
+      <c r="D136" s="59"/>
+      <c r="E136" s="62"/>
+      <c r="F136" s="65"/>
+      <c r="G136" s="59"/>
       <c r="H136" s="31"/>
       <c r="I136" s="33" t="s">
         <v>15</v>
@@ -4883,13 +4913,13 @@
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A137" s="48"/>
-      <c r="B137" s="39"/>
-      <c r="C137" s="39"/>
-      <c r="D137" s="48"/>
-      <c r="E137" s="39"/>
-      <c r="F137" s="61"/>
-      <c r="G137" s="48"/>
+      <c r="A137" s="60"/>
+      <c r="B137" s="63"/>
+      <c r="C137" s="63"/>
+      <c r="D137" s="60"/>
+      <c r="E137" s="63"/>
+      <c r="F137" s="66"/>
+      <c r="G137" s="60"/>
       <c r="H137" s="31"/>
       <c r="I137" s="33" t="s">
         <v>11</v>
@@ -4916,13 +4946,13 @@
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A138" s="48"/>
-      <c r="B138" s="39"/>
-      <c r="C138" s="39"/>
-      <c r="D138" s="48"/>
-      <c r="E138" s="39"/>
-      <c r="F138" s="61"/>
-      <c r="G138" s="48"/>
+      <c r="A138" s="60"/>
+      <c r="B138" s="63"/>
+      <c r="C138" s="63"/>
+      <c r="D138" s="60"/>
+      <c r="E138" s="63"/>
+      <c r="F138" s="66"/>
+      <c r="G138" s="60"/>
       <c r="H138" s="31"/>
       <c r="I138" s="33" t="s">
         <v>14</v>
@@ -4949,13 +4979,13 @@
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A139" s="48"/>
-      <c r="B139" s="40"/>
-      <c r="C139" s="40"/>
-      <c r="D139" s="49"/>
-      <c r="E139" s="40"/>
-      <c r="F139" s="62"/>
-      <c r="G139" s="49"/>
+      <c r="A139" s="60"/>
+      <c r="B139" s="64"/>
+      <c r="C139" s="64"/>
+      <c r="D139" s="61"/>
+      <c r="E139" s="64"/>
+      <c r="F139" s="67"/>
+      <c r="G139" s="61"/>
       <c r="H139" s="31"/>
       <c r="I139" s="37" t="s">
         <v>12</v>
@@ -4982,7 +5012,7 @@
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A140" s="49"/>
+      <c r="A140" s="61"/>
       <c r="B140" s="12" t="s">
         <v>17</v>
       </c>
@@ -5031,125 +5061,1163 @@
         <v>9574</v>
       </c>
     </row>
+    <row r="141" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="M141" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="N141" s="70"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" s="48"/>
+      <c r="E143" s="48"/>
+      <c r="F143" s="48"/>
+      <c r="G143" s="48"/>
+      <c r="H143" s="41"/>
+      <c r="I143" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="J143" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="K143" s="48"/>
+      <c r="L143" s="48"/>
+      <c r="M143" s="48"/>
+      <c r="N143" s="48"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" s="48"/>
+      <c r="B144" s="48"/>
+      <c r="C144" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F144" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="G144" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H144" s="41"/>
+      <c r="I144" s="48"/>
+      <c r="J144" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="K144" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L144" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="M144" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="N144" s="41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" s="47">
+        <v>1</v>
+      </c>
+      <c r="B145" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145" s="50">
+        <f>G110</f>
+        <v>265</v>
+      </c>
+      <c r="D145" s="53">
+        <v>5254</v>
+      </c>
+      <c r="E145" s="50">
+        <f>SUM(C145:D147)</f>
+        <v>5519</v>
+      </c>
+      <c r="F145" s="56">
+        <f>SUM(E145-G145)</f>
+        <v>4881</v>
+      </c>
+      <c r="G145" s="53">
+        <v>638</v>
+      </c>
+      <c r="H145" s="39"/>
+      <c r="I145" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="J145" s="38">
+        <f>N110</f>
+        <v>6068</v>
+      </c>
+      <c r="K145" s="42">
+        <v>4847</v>
+      </c>
+      <c r="L145" s="38">
+        <f>SUM(J145:K145)</f>
+        <v>10915</v>
+      </c>
+      <c r="M145" s="26">
+        <f>SUM(L145-N145)</f>
+        <v>6962</v>
+      </c>
+      <c r="N145" s="42">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" s="48"/>
+      <c r="B146" s="49"/>
+      <c r="C146" s="51"/>
+      <c r="D146" s="54"/>
+      <c r="E146" s="51"/>
+      <c r="F146" s="57"/>
+      <c r="G146" s="54"/>
+      <c r="H146" s="39"/>
+      <c r="I146" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="J146" s="38">
+        <f t="shared" ref="J146:J147" si="103">N111</f>
+        <v>311</v>
+      </c>
+      <c r="K146" s="42">
+        <v>0</v>
+      </c>
+      <c r="L146" s="38">
+        <f t="shared" ref="L146:L147" si="104">SUM(J146:K146)</f>
+        <v>311</v>
+      </c>
+      <c r="M146" s="26">
+        <f t="shared" ref="M146:M147" si="105">SUM(L146-N146)</f>
+        <v>57</v>
+      </c>
+      <c r="N146" s="42">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" s="48"/>
+      <c r="B147" s="49"/>
+      <c r="C147" s="52"/>
+      <c r="D147" s="55"/>
+      <c r="E147" s="52"/>
+      <c r="F147" s="58"/>
+      <c r="G147" s="55"/>
+      <c r="H147" s="39"/>
+      <c r="I147" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J147" s="38">
+        <f t="shared" si="103"/>
+        <v>483</v>
+      </c>
+      <c r="K147" s="42">
+        <v>83</v>
+      </c>
+      <c r="L147" s="38">
+        <f t="shared" si="104"/>
+        <v>566</v>
+      </c>
+      <c r="M147" s="26">
+        <f t="shared" si="105"/>
+        <v>17</v>
+      </c>
+      <c r="N147" s="42">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" s="48"/>
+      <c r="B148" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" s="35">
+        <f>SUM(C145)</f>
+        <v>265</v>
+      </c>
+      <c r="D148" s="35">
+        <f t="shared" ref="D148:G148" si="106">SUM(D145)</f>
+        <v>5254</v>
+      </c>
+      <c r="E148" s="35">
+        <f t="shared" si="106"/>
+        <v>5519</v>
+      </c>
+      <c r="F148" s="35">
+        <f t="shared" si="106"/>
+        <v>4881</v>
+      </c>
+      <c r="G148" s="35">
+        <f t="shared" si="106"/>
+        <v>638</v>
+      </c>
+      <c r="H148" s="45"/>
+      <c r="I148" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J148" s="35">
+        <f>SUM(J145:J147)</f>
+        <v>6862</v>
+      </c>
+      <c r="K148" s="35">
+        <f t="shared" ref="K148:N148" si="107">SUM(K145:K147)</f>
+        <v>4930</v>
+      </c>
+      <c r="L148" s="35">
+        <f t="shared" si="107"/>
+        <v>11792</v>
+      </c>
+      <c r="M148" s="35">
+        <f t="shared" si="107"/>
+        <v>7036</v>
+      </c>
+      <c r="N148" s="35">
+        <f t="shared" si="107"/>
+        <v>4756</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="41"/>
+      <c r="B149" s="39"/>
+      <c r="C149" s="39"/>
+      <c r="D149" s="41"/>
+      <c r="E149" s="39"/>
+      <c r="F149" s="43"/>
+      <c r="G149" s="41"/>
+      <c r="H149" s="39"/>
+      <c r="I149" s="39"/>
+      <c r="J149" s="39"/>
+      <c r="K149" s="41"/>
+      <c r="L149" s="39"/>
+      <c r="M149" s="43"/>
+      <c r="N149" s="41"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150" s="42">
+        <v>2</v>
+      </c>
+      <c r="B150" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" s="39"/>
+      <c r="D150" s="41"/>
+      <c r="E150" s="39"/>
+      <c r="F150" s="43"/>
+      <c r="G150" s="41"/>
+      <c r="H150" s="39"/>
+      <c r="I150" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J150" s="38">
+        <f t="shared" ref="J150:J155" si="108">N115</f>
+        <v>681</v>
+      </c>
+      <c r="K150" s="42">
+        <v>171</v>
+      </c>
+      <c r="L150" s="38">
+        <f t="shared" ref="L150:L155" si="109">SUM(J150:K150)</f>
+        <v>852</v>
+      </c>
+      <c r="M150" s="26">
+        <f t="shared" ref="M150:M152" si="110">SUM(L150-N150)</f>
+        <v>186</v>
+      </c>
+      <c r="N150" s="42">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151" s="42">
+        <v>3</v>
+      </c>
+      <c r="B151" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C151" s="39"/>
+      <c r="D151" s="41"/>
+      <c r="E151" s="39"/>
+      <c r="F151" s="43"/>
+      <c r="G151" s="41"/>
+      <c r="H151" s="39"/>
+      <c r="I151" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J151" s="38">
+        <f t="shared" si="108"/>
+        <v>195</v>
+      </c>
+      <c r="K151" s="42">
+        <v>137</v>
+      </c>
+      <c r="L151" s="38">
+        <f t="shared" si="109"/>
+        <v>332</v>
+      </c>
+      <c r="M151" s="26">
+        <f t="shared" si="110"/>
+        <v>108</v>
+      </c>
+      <c r="N151" s="42">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" s="42">
+        <v>4</v>
+      </c>
+      <c r="B152" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C152" s="39"/>
+      <c r="D152" s="41"/>
+      <c r="E152" s="39"/>
+      <c r="F152" s="43"/>
+      <c r="G152" s="41"/>
+      <c r="H152" s="39"/>
+      <c r="I152" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J152" s="38">
+        <f t="shared" si="108"/>
+        <v>191</v>
+      </c>
+      <c r="K152" s="42">
+        <v>312</v>
+      </c>
+      <c r="L152" s="38">
+        <f t="shared" si="109"/>
+        <v>503</v>
+      </c>
+      <c r="M152" s="26">
+        <f t="shared" si="110"/>
+        <v>250</v>
+      </c>
+      <c r="N152" s="42">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="42"/>
+      <c r="B153" s="40"/>
+      <c r="C153" s="39"/>
+      <c r="D153" s="41"/>
+      <c r="E153" s="39"/>
+      <c r="F153" s="43"/>
+      <c r="G153" s="41"/>
+      <c r="H153" s="39"/>
+      <c r="I153" s="40"/>
+      <c r="J153" s="38">
+        <f t="shared" si="108"/>
+        <v>4053</v>
+      </c>
+      <c r="K153" s="42">
+        <v>10637</v>
+      </c>
+      <c r="L153" s="38">
+        <f t="shared" si="109"/>
+        <v>14690</v>
+      </c>
+      <c r="M153" s="26">
+        <v>10271</v>
+      </c>
+      <c r="N153" s="42">
+        <f t="shared" ref="N153" si="111">SUM(L153-M153)</f>
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" s="47">
+        <v>5</v>
+      </c>
+      <c r="B154" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C154" s="68"/>
+      <c r="D154" s="48"/>
+      <c r="E154" s="68"/>
+      <c r="F154" s="69"/>
+      <c r="G154" s="48"/>
+      <c r="H154" s="39"/>
+      <c r="I154" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J154" s="38">
+        <f t="shared" si="108"/>
+        <v>169</v>
+      </c>
+      <c r="K154" s="42">
+        <v>300</v>
+      </c>
+      <c r="L154" s="38">
+        <f t="shared" si="109"/>
+        <v>469</v>
+      </c>
+      <c r="M154" s="26">
+        <f t="shared" ref="M154:M155" si="112">SUM(L154-N154)</f>
+        <v>216</v>
+      </c>
+      <c r="N154" s="42">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" s="47"/>
+      <c r="B155" s="49"/>
+      <c r="C155" s="68"/>
+      <c r="D155" s="48"/>
+      <c r="E155" s="68"/>
+      <c r="F155" s="69"/>
+      <c r="G155" s="48"/>
+      <c r="H155" s="39"/>
+      <c r="I155" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="J155" s="38">
+        <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="K155" s="42">
+        <v>0</v>
+      </c>
+      <c r="L155" s="38">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
+      <c r="M155" s="26">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="N155" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" s="47"/>
+      <c r="B156" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" s="45"/>
+      <c r="D156" s="45"/>
+      <c r="E156" s="45"/>
+      <c r="F156" s="45"/>
+      <c r="G156" s="45"/>
+      <c r="H156" s="45"/>
+      <c r="I156" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J156" s="35">
+        <f>SUM(J154:J155)</f>
+        <v>170</v>
+      </c>
+      <c r="K156" s="35">
+        <f t="shared" ref="K156:N156" si="113">SUM(K154:K155)</f>
+        <v>300</v>
+      </c>
+      <c r="L156" s="35">
+        <f t="shared" si="113"/>
+        <v>470</v>
+      </c>
+      <c r="M156" s="35">
+        <f t="shared" si="113"/>
+        <v>216</v>
+      </c>
+      <c r="N156" s="35">
+        <f t="shared" si="113"/>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="41"/>
+      <c r="B157" s="39"/>
+      <c r="C157" s="39"/>
+      <c r="D157" s="41"/>
+      <c r="E157" s="39"/>
+      <c r="F157" s="43"/>
+      <c r="G157" s="41"/>
+      <c r="H157" s="39"/>
+      <c r="I157" s="39"/>
+      <c r="J157" s="39"/>
+      <c r="K157" s="41"/>
+      <c r="L157" s="39"/>
+      <c r="M157" s="43"/>
+      <c r="N157" s="41"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" s="47">
+        <v>6</v>
+      </c>
+      <c r="B158" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C158" s="68"/>
+      <c r="D158" s="48"/>
+      <c r="E158" s="68"/>
+      <c r="F158" s="69"/>
+      <c r="G158" s="48"/>
+      <c r="H158" s="39"/>
+      <c r="I158" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J158" s="38">
+        <f t="shared" ref="J158:J159" si="114">N123</f>
+        <v>20</v>
+      </c>
+      <c r="K158" s="42">
+        <v>0</v>
+      </c>
+      <c r="L158" s="38">
+        <f t="shared" ref="L158:L159" si="115">SUM(J158:K158)</f>
+        <v>20</v>
+      </c>
+      <c r="M158" s="26">
+        <f t="shared" ref="M158:M159" si="116">SUM(L158-N158)</f>
+        <v>1</v>
+      </c>
+      <c r="N158" s="42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" s="48"/>
+      <c r="B159" s="49"/>
+      <c r="C159" s="68"/>
+      <c r="D159" s="48"/>
+      <c r="E159" s="68"/>
+      <c r="F159" s="69"/>
+      <c r="G159" s="48"/>
+      <c r="H159" s="39"/>
+      <c r="I159" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="J159" s="38">
+        <f t="shared" si="114"/>
+        <v>105</v>
+      </c>
+      <c r="K159" s="42">
+        <v>519</v>
+      </c>
+      <c r="L159" s="38">
+        <f t="shared" si="115"/>
+        <v>624</v>
+      </c>
+      <c r="M159" s="26">
+        <f t="shared" si="116"/>
+        <v>441</v>
+      </c>
+      <c r="N159" s="42">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" s="48"/>
+      <c r="B160" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" s="45"/>
+      <c r="D160" s="45"/>
+      <c r="E160" s="45"/>
+      <c r="F160" s="45"/>
+      <c r="G160" s="45"/>
+      <c r="H160" s="45"/>
+      <c r="I160" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J160" s="35">
+        <f>SUM(J158:J159)</f>
+        <v>125</v>
+      </c>
+      <c r="K160" s="35">
+        <f t="shared" ref="K160:N160" si="117">SUM(K158:K159)</f>
+        <v>519</v>
+      </c>
+      <c r="L160" s="35">
+        <f t="shared" si="117"/>
+        <v>644</v>
+      </c>
+      <c r="M160" s="35">
+        <f t="shared" si="117"/>
+        <v>442</v>
+      </c>
+      <c r="N160" s="35">
+        <f t="shared" si="117"/>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="41"/>
+      <c r="B161" s="39"/>
+      <c r="C161" s="39"/>
+      <c r="D161" s="41"/>
+      <c r="E161" s="39"/>
+      <c r="F161" s="43"/>
+      <c r="G161" s="41"/>
+      <c r="H161" s="39"/>
+      <c r="I161" s="39"/>
+      <c r="J161" s="39"/>
+      <c r="K161" s="41"/>
+      <c r="L161" s="39"/>
+      <c r="M161" s="43"/>
+      <c r="N161" s="41"/>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A162" s="47">
+        <v>7</v>
+      </c>
+      <c r="B162" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C162" s="50">
+        <f t="shared" ref="C162" si="118">G127</f>
+        <v>934</v>
+      </c>
+      <c r="D162" s="53">
+        <v>229</v>
+      </c>
+      <c r="E162" s="50">
+        <f t="shared" ref="E162" si="119">SUM(C162:D162)</f>
+        <v>1163</v>
+      </c>
+      <c r="F162" s="56">
+        <f t="shared" ref="F162" si="120">SUM(E162-G162)</f>
+        <v>637</v>
+      </c>
+      <c r="G162" s="53">
+        <v>526</v>
+      </c>
+      <c r="H162" s="39"/>
+      <c r="I162" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J162" s="38">
+        <f t="shared" ref="J162:J164" si="121">N127</f>
+        <v>1</v>
+      </c>
+      <c r="K162" s="42">
+        <v>0</v>
+      </c>
+      <c r="L162" s="38">
+        <f t="shared" ref="L162:L164" si="122">SUM(J162:K162)</f>
+        <v>1</v>
+      </c>
+      <c r="M162" s="26">
+        <f t="shared" ref="M162:M164" si="123">SUM(L162-N162)</f>
+        <v>0</v>
+      </c>
+      <c r="N162" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A163" s="48"/>
+      <c r="B163" s="49"/>
+      <c r="C163" s="51"/>
+      <c r="D163" s="54"/>
+      <c r="E163" s="51"/>
+      <c r="F163" s="57"/>
+      <c r="G163" s="54"/>
+      <c r="H163" s="39"/>
+      <c r="I163" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J163" s="38">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="K163" s="42">
+        <v>0</v>
+      </c>
+      <c r="L163" s="38">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="M163" s="26">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="N163" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A164" s="48"/>
+      <c r="B164" s="49"/>
+      <c r="C164" s="52"/>
+      <c r="D164" s="55"/>
+      <c r="E164" s="52"/>
+      <c r="F164" s="58"/>
+      <c r="G164" s="55"/>
+      <c r="H164" s="39"/>
+      <c r="I164" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J164" s="38">
+        <f t="shared" si="121"/>
+        <v>775</v>
+      </c>
+      <c r="K164" s="42">
+        <v>3046</v>
+      </c>
+      <c r="L164" s="38">
+        <f t="shared" si="122"/>
+        <v>3821</v>
+      </c>
+      <c r="M164" s="26">
+        <f t="shared" si="123"/>
+        <v>1529</v>
+      </c>
+      <c r="N164" s="42">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A165" s="48"/>
+      <c r="B165" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" s="35">
+        <f>SUM(C162)</f>
+        <v>934</v>
+      </c>
+      <c r="D165" s="35">
+        <f>SUM(D162)</f>
+        <v>229</v>
+      </c>
+      <c r="E165" s="35">
+        <f>SUM(E162)</f>
+        <v>1163</v>
+      </c>
+      <c r="F165" s="35">
+        <f>SUM(F162)</f>
+        <v>637</v>
+      </c>
+      <c r="G165" s="35">
+        <f>SUM(G162)</f>
+        <v>526</v>
+      </c>
+      <c r="H165" s="45"/>
+      <c r="I165" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="J165" s="35">
+        <f>SUM(J162:J164)</f>
+        <v>776</v>
+      </c>
+      <c r="K165" s="35">
+        <f t="shared" ref="K165:N165" si="124">SUM(K162:K164)</f>
+        <v>3046</v>
+      </c>
+      <c r="L165" s="35">
+        <f t="shared" si="124"/>
+        <v>3822</v>
+      </c>
+      <c r="M165" s="35">
+        <f t="shared" si="124"/>
+        <v>1529</v>
+      </c>
+      <c r="N165" s="35">
+        <f t="shared" si="124"/>
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="41"/>
+      <c r="B166" s="39"/>
+      <c r="C166" s="39"/>
+      <c r="D166" s="41"/>
+      <c r="E166" s="39"/>
+      <c r="F166" s="43"/>
+      <c r="G166" s="41"/>
+      <c r="H166" s="39"/>
+      <c r="I166" s="39"/>
+      <c r="J166" s="39"/>
+      <c r="K166" s="41"/>
+      <c r="L166" s="39"/>
+      <c r="M166" s="43"/>
+      <c r="N166" s="41"/>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A167" s="42">
+        <v>8</v>
+      </c>
+      <c r="B167" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C167" s="39"/>
+      <c r="D167" s="41"/>
+      <c r="E167" s="39"/>
+      <c r="F167" s="43"/>
+      <c r="G167" s="41"/>
+      <c r="H167" s="39"/>
+      <c r="I167" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J167" s="38">
+        <f t="shared" ref="J167:J169" si="125">N132</f>
+        <v>308</v>
+      </c>
+      <c r="K167" s="42">
+        <v>488</v>
+      </c>
+      <c r="L167" s="38">
+        <f t="shared" ref="L167:L169" si="126">SUM(J167:K167)</f>
+        <v>796</v>
+      </c>
+      <c r="M167" s="26">
+        <f t="shared" ref="M167:M169" si="127">SUM(L167-N167)</f>
+        <v>335</v>
+      </c>
+      <c r="N167" s="42">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A168" s="42">
+        <v>9</v>
+      </c>
+      <c r="B168" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C168" s="39"/>
+      <c r="D168" s="41"/>
+      <c r="E168" s="39"/>
+      <c r="F168" s="43"/>
+      <c r="G168" s="41"/>
+      <c r="H168" s="39"/>
+      <c r="I168" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J168" s="38">
+        <f t="shared" si="125"/>
+        <v>266</v>
+      </c>
+      <c r="K168" s="42">
+        <v>485</v>
+      </c>
+      <c r="L168" s="38">
+        <f t="shared" si="126"/>
+        <v>751</v>
+      </c>
+      <c r="M168" s="26">
+        <f t="shared" si="127"/>
+        <v>319</v>
+      </c>
+      <c r="N168" s="42">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A169" s="42">
+        <v>10</v>
+      </c>
+      <c r="B169" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C169" s="39"/>
+      <c r="D169" s="41"/>
+      <c r="E169" s="39"/>
+      <c r="F169" s="43"/>
+      <c r="G169" s="41"/>
+      <c r="H169" s="39"/>
+      <c r="I169" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J169" s="38">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="K169" s="42">
+        <v>753</v>
+      </c>
+      <c r="L169" s="38">
+        <f t="shared" si="126"/>
+        <v>753</v>
+      </c>
+      <c r="M169" s="26">
+        <f t="shared" si="127"/>
+        <v>753</v>
+      </c>
+      <c r="N169" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="42"/>
+      <c r="B170" s="40"/>
+      <c r="C170" s="39"/>
+      <c r="D170" s="41"/>
+      <c r="E170" s="39"/>
+      <c r="F170" s="43"/>
+      <c r="G170" s="41"/>
+      <c r="H170" s="39"/>
+      <c r="I170" s="8"/>
+      <c r="J170" s="39"/>
+      <c r="K170" s="41"/>
+      <c r="L170" s="39"/>
+      <c r="M170" s="43"/>
+      <c r="N170" s="41"/>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A171" s="59"/>
+      <c r="B171" s="62"/>
+      <c r="C171" s="62"/>
+      <c r="D171" s="59"/>
+      <c r="E171" s="62"/>
+      <c r="F171" s="65"/>
+      <c r="G171" s="59"/>
+      <c r="H171" s="39"/>
+      <c r="I171" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J171" s="34">
+        <f>SUM(J145+J163+J169)</f>
+        <v>6068</v>
+      </c>
+      <c r="K171" s="35">
+        <f>SUM(K145+K163+K169)</f>
+        <v>5600</v>
+      </c>
+      <c r="L171" s="34">
+        <f>SUM(L145+L163+L169)</f>
+        <v>11668</v>
+      </c>
+      <c r="M171" s="36">
+        <f>SUM(M145+M163+M169)</f>
+        <v>7715</v>
+      </c>
+      <c r="N171" s="35">
+        <f>SUM(N145+N163+N169)</f>
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A172" s="60"/>
+      <c r="B172" s="63"/>
+      <c r="C172" s="63"/>
+      <c r="D172" s="60"/>
+      <c r="E172" s="63"/>
+      <c r="F172" s="66"/>
+      <c r="G172" s="60"/>
+      <c r="H172" s="39"/>
+      <c r="I172" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J172" s="34">
+        <f>SUM(J146+J155+J159+J164)</f>
+        <v>1192</v>
+      </c>
+      <c r="K172" s="35">
+        <f t="shared" ref="K172:N172" si="128">SUM(K146+K155+K159+K164)</f>
+        <v>3565</v>
+      </c>
+      <c r="L172" s="34">
+        <f t="shared" si="128"/>
+        <v>4757</v>
+      </c>
+      <c r="M172" s="36">
+        <f t="shared" si="128"/>
+        <v>2027</v>
+      </c>
+      <c r="N172" s="35">
+        <f t="shared" si="128"/>
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A173" s="60"/>
+      <c r="B173" s="63"/>
+      <c r="C173" s="63"/>
+      <c r="D173" s="60"/>
+      <c r="E173" s="63"/>
+      <c r="F173" s="66"/>
+      <c r="G173" s="60"/>
+      <c r="H173" s="39"/>
+      <c r="I173" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J173" s="34">
+        <f>SUM(J150+J151+J152+J154+J158+J162+J167+J168)</f>
+        <v>1831</v>
+      </c>
+      <c r="K173" s="35">
+        <f t="shared" ref="K173:N173" si="129">SUM(K150+K151+K152+K154+K158+K162+K167+K168)</f>
+        <v>1893</v>
+      </c>
+      <c r="L173" s="34">
+        <f t="shared" si="129"/>
+        <v>3724</v>
+      </c>
+      <c r="M173" s="36">
+        <f t="shared" si="129"/>
+        <v>1415</v>
+      </c>
+      <c r="N173" s="35">
+        <f t="shared" si="129"/>
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A174" s="60"/>
+      <c r="B174" s="64"/>
+      <c r="C174" s="64"/>
+      <c r="D174" s="61"/>
+      <c r="E174" s="64"/>
+      <c r="F174" s="67"/>
+      <c r="G174" s="61"/>
+      <c r="H174" s="39"/>
+      <c r="I174" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J174" s="34">
+        <f>SUM(J147)</f>
+        <v>483</v>
+      </c>
+      <c r="K174" s="35">
+        <f t="shared" ref="K174:N174" si="130">SUM(K147)</f>
+        <v>83</v>
+      </c>
+      <c r="L174" s="34">
+        <f t="shared" si="130"/>
+        <v>566</v>
+      </c>
+      <c r="M174" s="36">
+        <f t="shared" si="130"/>
+        <v>17</v>
+      </c>
+      <c r="N174" s="35">
+        <f t="shared" si="130"/>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A175" s="61"/>
+      <c r="B175" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C175" s="35">
+        <f>SUM(C148+C165)</f>
+        <v>1199</v>
+      </c>
+      <c r="D175" s="35">
+        <f>SUM(D165+D148)</f>
+        <v>5483</v>
+      </c>
+      <c r="E175" s="35">
+        <f>SUM(E165+E148)</f>
+        <v>6682</v>
+      </c>
+      <c r="F175" s="35">
+        <f>SUM(F165+F148)</f>
+        <v>5518</v>
+      </c>
+      <c r="G175" s="35">
+        <f>SUM(G165+G148)</f>
+        <v>1164</v>
+      </c>
+      <c r="H175" s="45"/>
+      <c r="I175" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J175" s="35">
+        <f>SUM(J171:J174)</f>
+        <v>9574</v>
+      </c>
+      <c r="K175" s="35">
+        <f t="shared" ref="K175:N175" si="131">SUM(K171:K174)</f>
+        <v>11141</v>
+      </c>
+      <c r="L175" s="35">
+        <f t="shared" si="131"/>
+        <v>20715</v>
+      </c>
+      <c r="M175" s="35">
+        <f t="shared" si="131"/>
+        <v>11174</v>
+      </c>
+      <c r="N175" s="35">
+        <f t="shared" si="131"/>
+        <v>9541</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="164">
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="D127:D129"/>
-    <mergeCell ref="E127:E129"/>
-    <mergeCell ref="F127:F129"/>
-    <mergeCell ref="G127:G129"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="B136:B139"/>
-    <mergeCell ref="C136:C139"/>
-    <mergeCell ref="D136:D139"/>
-    <mergeCell ref="E136:E139"/>
-    <mergeCell ref="F136:F139"/>
-    <mergeCell ref="G136:G139"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="J108:N108"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="F110:F112"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="F101:F104"/>
-    <mergeCell ref="G101:G104"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="E101:E104"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:N73"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
+  <mergeCells count="205">
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="D162:D164"/>
+    <mergeCell ref="E162:E164"/>
+    <mergeCell ref="F162:F164"/>
+    <mergeCell ref="G162:G164"/>
+    <mergeCell ref="A171:A175"/>
+    <mergeCell ref="B171:B174"/>
+    <mergeCell ref="C171:C174"/>
+    <mergeCell ref="D171:D174"/>
+    <mergeCell ref="E171:E174"/>
+    <mergeCell ref="F171:F174"/>
+    <mergeCell ref="G171:G174"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="F154:F155"/>
+    <mergeCell ref="G154:G155"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="F158:F159"/>
+    <mergeCell ref="G158:G159"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="J143:N143"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="C145:C147"/>
+    <mergeCell ref="D145:D147"/>
+    <mergeCell ref="E145:E147"/>
+    <mergeCell ref="F145:F147"/>
+    <mergeCell ref="G145:G147"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="A38:A39"/>
@@ -5174,29 +6242,123 @@
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:N73"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="F101:F104"/>
+    <mergeCell ref="G101:G104"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="E101:E104"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="J108:N108"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="F110:F112"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="D127:D129"/>
+    <mergeCell ref="E127:E129"/>
+    <mergeCell ref="F127:F129"/>
+    <mergeCell ref="G127:G129"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="B136:B139"/>
+    <mergeCell ref="C136:C139"/>
+    <mergeCell ref="D136:D139"/>
+    <mergeCell ref="E136:E139"/>
+    <mergeCell ref="F136:F139"/>
+    <mergeCell ref="G136:G139"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>

--- a/03. Satprokar Work/01. Satprokar Primary Work/Summary-02.xlsx
+++ b/03. Satprokar Work/01. Satprokar Primary Work/Summary-02.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="35">
   <si>
     <t xml:space="preserve">ক্রঃ নং </t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t xml:space="preserve">জুলাই -২০২৪ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">আগস্ট -২০২৪ </t>
   </si>
 </sst>
 </file>
@@ -258,7 +261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -407,6 +410,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -470,10 +491,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -756,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N175"/>
+  <dimension ref="A1:N210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E168" sqref="E168"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H180" sqref="H180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -776,40 +797,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="M1" s="70" t="s">
+      <c r="M1" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="70"/>
+      <c r="N1" s="76"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="68" t="s">
+      <c r="A3" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="68" t="s">
+      <c r="I3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
@@ -826,7 +847,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="68"/>
+      <c r="I4" s="74"/>
       <c r="J4" s="1" t="s">
         <v>5</v>
       </c>
@@ -844,26 +865,26 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="72">
+      <c r="A5" s="77">
         <v>1</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="72">
+      <c r="C5" s="77">
         <v>378</v>
       </c>
-      <c r="D5" s="72">
+      <c r="D5" s="77">
         <v>8874</v>
       </c>
-      <c r="E5" s="72">
+      <c r="E5" s="77">
         <f>SUM(C5:D7)</f>
         <v>9252</v>
       </c>
-      <c r="F5" s="72">
+      <c r="F5" s="77">
         <v>8142</v>
       </c>
-      <c r="G5" s="72">
+      <c r="G5" s="77">
         <f>SUM(E5-F5)</f>
         <v>1110</v>
       </c>
@@ -890,13 +911,13 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="68"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="1"/>
       <c r="I6" s="3" t="s">
         <v>11</v>
@@ -920,13 +941,13 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
       <c r="H7" s="1"/>
       <c r="I7" s="3" t="s">
         <v>12</v>
@@ -950,7 +971,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1146,17 +1167,17 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="72">
+      <c r="A14" s="77">
         <v>5</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
       <c r="H14" s="1"/>
       <c r="I14" s="3" t="s">
         <v>14</v>
@@ -1180,13 +1201,13 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
       <c r="H15" s="1"/>
       <c r="I15" s="3" t="s">
         <v>11</v>
@@ -1210,7 +1231,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="72"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
@@ -1261,17 +1282,17 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="72">
+      <c r="A18" s="77">
         <v>6</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
       <c r="H18" s="1"/>
       <c r="I18" s="3" t="s">
         <v>14</v>
@@ -1295,13 +1316,13 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
       <c r="H19" s="1"/>
       <c r="I19" s="3" t="s">
         <v>11</v>
@@ -1325,7 +1346,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="5" t="s">
         <v>13</v>
       </c>
@@ -1376,17 +1397,17 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="72">
+      <c r="A22" s="77">
         <v>7</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
       <c r="H22" s="1"/>
       <c r="I22" s="6" t="s">
         <v>14</v>
@@ -1410,13 +1431,13 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="68"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
       <c r="H23" s="1"/>
       <c r="I23" s="6" t="s">
         <v>15</v>
@@ -1440,13 +1461,13 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="68"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
       <c r="H24" s="1"/>
       <c r="I24" s="6" t="s">
         <v>11</v>
@@ -1470,7 +1491,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="68"/>
+      <c r="A25" s="74"/>
       <c r="B25" s="7" t="s">
         <v>13</v>
       </c>
@@ -1639,13 +1660,13 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
       <c r="H31" s="1"/>
       <c r="I31" s="6" t="s">
         <v>15</v>
@@ -1672,13 +1693,13 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="63"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
       <c r="H32" s="1"/>
       <c r="I32" s="6" t="s">
         <v>11</v>
@@ -1705,13 +1726,13 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
+      <c r="A33" s="69"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
       <c r="H33" s="1"/>
       <c r="I33" s="6" t="s">
         <v>14</v>
@@ -1738,13 +1759,13 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="63"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
       <c r="H34" s="1"/>
       <c r="I34" s="3" t="s">
         <v>12</v>
@@ -1771,7 +1792,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
+      <c r="A35" s="70"/>
       <c r="B35" s="5" t="s">
         <v>17</v>
       </c>
@@ -1821,40 +1842,40 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="M36" s="70" t="s">
+      <c r="M36" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="N36" s="70"/>
+      <c r="N36" s="76"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="48" t="s">
+      <c r="A38" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="48"/>
-      <c r="G38" s="48"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="48" t="s">
+      <c r="I38" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="J38" s="48" t="s">
+      <c r="J38" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
-      <c r="B39" s="48"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="15" t="s">
         <v>5</v>
       </c>
@@ -1871,7 +1892,7 @@
         <v>9</v>
       </c>
       <c r="H39" s="15"/>
-      <c r="I39" s="48"/>
+      <c r="I39" s="54"/>
       <c r="J39" s="15" t="s">
         <v>5</v>
       </c>
@@ -1889,27 +1910,27 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="47">
+      <c r="A40" s="53">
         <v>1</v>
       </c>
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="72">
+      <c r="C40" s="77">
         <f>G5</f>
         <v>1110</v>
       </c>
-      <c r="D40" s="47">
+      <c r="D40" s="53">
         <v>6314</v>
       </c>
-      <c r="E40" s="72">
+      <c r="E40" s="77">
         <f>SUM(C40:D42)</f>
         <v>7424</v>
       </c>
-      <c r="F40" s="47">
+      <c r="F40" s="53">
         <v>7265</v>
       </c>
-      <c r="G40" s="72">
+      <c r="G40" s="77">
         <f>SUM(E40-F40)</f>
         <v>159</v>
       </c>
@@ -1937,13 +1958,13 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="68"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="74"/>
       <c r="H41" s="1"/>
       <c r="I41" s="3" t="s">
         <v>11</v>
@@ -1968,13 +1989,13 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="68"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="74"/>
       <c r="H42" s="1"/>
       <c r="I42" s="3" t="s">
         <v>12</v>
@@ -1999,7 +2020,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
+      <c r="A43" s="54"/>
       <c r="B43" s="12" t="s">
         <v>13</v>
       </c>
@@ -2199,17 +2220,17 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="47">
+      <c r="A49" s="53">
         <v>5</v>
       </c>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="68"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="74"/>
       <c r="H49" s="1"/>
       <c r="I49" s="3" t="s">
         <v>14</v>
@@ -2234,13 +2255,13 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="68"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="55"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="74"/>
       <c r="H50" s="1"/>
       <c r="I50" s="3" t="s">
         <v>11</v>
@@ -2265,7 +2286,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
+      <c r="A51" s="53"/>
       <c r="B51" s="12" t="s">
         <v>13</v>
       </c>
@@ -2316,17 +2337,17 @@
       <c r="N52" s="23"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="47">
+      <c r="A53" s="53">
         <v>6</v>
       </c>
-      <c r="B53" s="49" t="s">
+      <c r="B53" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="68"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="68"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="74"/>
       <c r="H53" s="1"/>
       <c r="I53" s="3" t="s">
         <v>14</v>
@@ -2351,13 +2372,13 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
-      <c r="B54" s="49"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="68"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="68"/>
+      <c r="A54" s="54"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="74"/>
       <c r="H54" s="1"/>
       <c r="I54" s="3" t="s">
         <v>11</v>
@@ -2382,7 +2403,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
+      <c r="A55" s="54"/>
       <c r="B55" s="12" t="s">
         <v>13</v>
       </c>
@@ -2433,17 +2454,17 @@
       <c r="N56" s="23"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="47">
+      <c r="A57" s="53">
         <v>7</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="68"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="68"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="74"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="74"/>
       <c r="H57" s="1"/>
       <c r="I57" s="6" t="s">
         <v>14</v>
@@ -2468,13 +2489,13 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="68"/>
-      <c r="D58" s="48"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="68"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="74"/>
       <c r="H58" s="1"/>
       <c r="I58" s="6" t="s">
         <v>15</v>
@@ -2499,13 +2520,13 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="68"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="74"/>
       <c r="H59" s="1"/>
       <c r="I59" s="6" t="s">
         <v>11</v>
@@ -2530,7 +2551,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="48"/>
+      <c r="A60" s="54"/>
       <c r="B60" s="17" t="s">
         <v>13</v>
       </c>
@@ -2702,13 +2723,13 @@
       <c r="N65" s="23"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="59"/>
-      <c r="B66" s="62"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="62"/>
+      <c r="A66" s="65"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="68"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="68"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="68"/>
       <c r="H66" s="1"/>
       <c r="I66" s="6" t="s">
         <v>15</v>
@@ -2735,13 +2756,13 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="60"/>
-      <c r="B67" s="63"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="63"/>
+      <c r="A67" s="66"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="69"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="69"/>
       <c r="H67" s="1"/>
       <c r="I67" s="6" t="s">
         <v>11</v>
@@ -2768,13 +2789,13 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="60"/>
-      <c r="B68" s="63"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="63"/>
+      <c r="A68" s="66"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="69"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="69"/>
       <c r="H68" s="1"/>
       <c r="I68" s="6" t="s">
         <v>14</v>
@@ -2801,13 +2822,13 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="60"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="64"/>
+      <c r="A69" s="66"/>
+      <c r="B69" s="70"/>
+      <c r="C69" s="70"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="70"/>
       <c r="H69" s="1"/>
       <c r="I69" s="3" t="s">
         <v>12</v>
@@ -2834,7 +2855,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="61"/>
+      <c r="A70" s="67"/>
       <c r="B70" s="12" t="s">
         <v>17</v>
       </c>
@@ -2884,40 +2905,40 @@
       </c>
     </row>
     <row r="71" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="M71" s="70" t="s">
+      <c r="M71" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="N71" s="70"/>
+      <c r="N71" s="76"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="48" t="s">
+      <c r="A73" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="48" t="s">
+      <c r="C73" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="48"/>
-      <c r="E73" s="48"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="48"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="54"/>
       <c r="H73" s="18"/>
-      <c r="I73" s="48" t="s">
+      <c r="I73" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="J73" s="48" t="s">
+      <c r="J73" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="K73" s="48"/>
-      <c r="L73" s="48"/>
-      <c r="M73" s="48"/>
-      <c r="N73" s="48"/>
+      <c r="K73" s="54"/>
+      <c r="L73" s="54"/>
+      <c r="M73" s="54"/>
+      <c r="N73" s="54"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="48"/>
-      <c r="B74" s="48"/>
+      <c r="A74" s="54"/>
+      <c r="B74" s="54"/>
       <c r="C74" s="18" t="s">
         <v>5</v>
       </c>
@@ -2934,7 +2955,7 @@
         <v>9</v>
       </c>
       <c r="H74" s="18"/>
-      <c r="I74" s="48"/>
+      <c r="I74" s="54"/>
       <c r="J74" s="18" t="s">
         <v>5</v>
       </c>
@@ -2952,28 +2973,28 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="47">
+      <c r="A75" s="53">
         <v>1</v>
       </c>
-      <c r="B75" s="49" t="s">
+      <c r="B75" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="50">
+      <c r="C75" s="56">
         <f>G40</f>
         <v>159</v>
       </c>
-      <c r="D75" s="53">
+      <c r="D75" s="59">
         <v>5109</v>
       </c>
-      <c r="E75" s="50">
+      <c r="E75" s="56">
         <f>SUM(C75:D77)</f>
         <v>5268</v>
       </c>
-      <c r="F75" s="56">
+      <c r="F75" s="62">
         <f>SUM(E75-G75)</f>
         <v>4746</v>
       </c>
-      <c r="G75" s="53">
+      <c r="G75" s="59">
         <v>522</v>
       </c>
       <c r="H75" s="9"/>
@@ -3000,13 +3021,13 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="48"/>
-      <c r="B76" s="49"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="51"/>
-      <c r="F76" s="57"/>
-      <c r="G76" s="54"/>
+      <c r="A76" s="54"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="63"/>
+      <c r="G76" s="60"/>
       <c r="H76" s="9"/>
       <c r="I76" s="11" t="s">
         <v>11</v>
@@ -3031,13 +3052,13 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="48"/>
-      <c r="B77" s="49"/>
-      <c r="C77" s="52"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="52"/>
-      <c r="F77" s="58"/>
-      <c r="G77" s="55"/>
+      <c r="A77" s="54"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="61"/>
       <c r="H77" s="9"/>
       <c r="I77" s="11" t="s">
         <v>12</v>
@@ -3062,7 +3083,7 @@
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="48"/>
+      <c r="A78" s="54"/>
       <c r="B78" s="12" t="s">
         <v>13</v>
       </c>
@@ -3262,17 +3283,17 @@
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="47">
+      <c r="A84" s="53">
         <v>5</v>
       </c>
-      <c r="B84" s="49" t="s">
+      <c r="B84" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C84" s="68"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="68"/>
-      <c r="F84" s="69"/>
-      <c r="G84" s="48"/>
+      <c r="C84" s="74"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="74"/>
+      <c r="F84" s="75"/>
+      <c r="G84" s="54"/>
       <c r="H84" s="9"/>
       <c r="I84" s="11" t="s">
         <v>14</v>
@@ -3297,13 +3318,13 @@
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="47"/>
-      <c r="B85" s="49"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="48"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="69"/>
-      <c r="G85" s="48"/>
+      <c r="A85" s="53"/>
+      <c r="B85" s="55"/>
+      <c r="C85" s="74"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="74"/>
+      <c r="F85" s="75"/>
+      <c r="G85" s="54"/>
       <c r="H85" s="9"/>
       <c r="I85" s="11" t="s">
         <v>11</v>
@@ -3328,7 +3349,7 @@
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="47"/>
+      <c r="A86" s="53"/>
       <c r="B86" s="12" t="s">
         <v>13</v>
       </c>
@@ -3379,17 +3400,17 @@
       <c r="N87" s="23"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="47">
+      <c r="A88" s="53">
         <v>6</v>
       </c>
-      <c r="B88" s="49" t="s">
+      <c r="B88" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C88" s="68"/>
-      <c r="D88" s="48"/>
-      <c r="E88" s="68"/>
-      <c r="F88" s="69"/>
-      <c r="G88" s="48"/>
+      <c r="C88" s="74"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="75"/>
+      <c r="G88" s="54"/>
       <c r="H88" s="9"/>
       <c r="I88" s="11" t="s">
         <v>14</v>
@@ -3414,13 +3435,13 @@
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="48"/>
-      <c r="B89" s="49"/>
-      <c r="C89" s="68"/>
-      <c r="D89" s="48"/>
-      <c r="E89" s="68"/>
-      <c r="F89" s="69"/>
-      <c r="G89" s="48"/>
+      <c r="A89" s="54"/>
+      <c r="B89" s="55"/>
+      <c r="C89" s="74"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="74"/>
+      <c r="F89" s="75"/>
+      <c r="G89" s="54"/>
       <c r="H89" s="9"/>
       <c r="I89" s="11" t="s">
         <v>11</v>
@@ -3445,7 +3466,7 @@
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="48"/>
+      <c r="A90" s="54"/>
       <c r="B90" s="12" t="s">
         <v>13</v>
       </c>
@@ -3496,27 +3517,27 @@
       <c r="N91" s="23"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="47">
+      <c r="A92" s="53">
         <v>7</v>
       </c>
-      <c r="B92" s="49" t="s">
+      <c r="B92" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C92" s="71" t="s">
+      <c r="C92" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="D92" s="53">
+      <c r="D92" s="59">
         <v>930</v>
       </c>
-      <c r="E92" s="50">
+      <c r="E92" s="56">
         <f>SUM(C92:D94)</f>
         <v>930</v>
       </c>
-      <c r="F92" s="56">
+      <c r="F92" s="62">
         <f>SUM(E92-G92)</f>
         <v>0</v>
       </c>
-      <c r="G92" s="53">
+      <c r="G92" s="59">
         <v>930</v>
       </c>
       <c r="H92" s="9"/>
@@ -3543,13 +3564,13 @@
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="48"/>
-      <c r="B93" s="49"/>
-      <c r="C93" s="71"/>
-      <c r="D93" s="54"/>
-      <c r="E93" s="51"/>
-      <c r="F93" s="57"/>
-      <c r="G93" s="54"/>
+      <c r="A93" s="54"/>
+      <c r="B93" s="55"/>
+      <c r="C93" s="78"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="63"/>
+      <c r="G93" s="60"/>
       <c r="H93" s="9"/>
       <c r="I93" s="6" t="s">
         <v>15</v>
@@ -3574,13 +3595,13 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="48"/>
-      <c r="B94" s="49"/>
-      <c r="C94" s="71"/>
-      <c r="D94" s="55"/>
-      <c r="E94" s="52"/>
-      <c r="F94" s="58"/>
-      <c r="G94" s="55"/>
+      <c r="A94" s="54"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="78"/>
+      <c r="D94" s="61"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="64"/>
+      <c r="G94" s="61"/>
       <c r="H94" s="9"/>
       <c r="I94" s="6" t="s">
         <v>11</v>
@@ -3605,7 +3626,7 @@
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="48"/>
+      <c r="A95" s="54"/>
       <c r="B95" s="17" t="s">
         <v>13</v>
       </c>
@@ -3789,13 +3810,13 @@
       <c r="N100" s="23"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="59"/>
-      <c r="B101" s="62"/>
-      <c r="C101" s="62"/>
-      <c r="D101" s="59"/>
-      <c r="E101" s="62"/>
-      <c r="F101" s="65"/>
-      <c r="G101" s="59"/>
+      <c r="A101" s="65"/>
+      <c r="B101" s="68"/>
+      <c r="C101" s="68"/>
+      <c r="D101" s="65"/>
+      <c r="E101" s="68"/>
+      <c r="F101" s="71"/>
+      <c r="G101" s="65"/>
       <c r="H101" s="9"/>
       <c r="I101" s="6" t="s">
         <v>15</v>
@@ -3822,13 +3843,13 @@
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="60"/>
-      <c r="B102" s="63"/>
-      <c r="C102" s="63"/>
-      <c r="D102" s="60"/>
-      <c r="E102" s="63"/>
-      <c r="F102" s="66"/>
-      <c r="G102" s="60"/>
+      <c r="A102" s="66"/>
+      <c r="B102" s="69"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="66"/>
+      <c r="E102" s="69"/>
+      <c r="F102" s="72"/>
+      <c r="G102" s="66"/>
       <c r="H102" s="9"/>
       <c r="I102" s="6" t="s">
         <v>11</v>
@@ -3855,13 +3876,13 @@
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="60"/>
-      <c r="B103" s="63"/>
-      <c r="C103" s="63"/>
-      <c r="D103" s="60"/>
-      <c r="E103" s="63"/>
-      <c r="F103" s="66"/>
-      <c r="G103" s="60"/>
+      <c r="A103" s="66"/>
+      <c r="B103" s="69"/>
+      <c r="C103" s="69"/>
+      <c r="D103" s="66"/>
+      <c r="E103" s="69"/>
+      <c r="F103" s="72"/>
+      <c r="G103" s="66"/>
       <c r="H103" s="9"/>
       <c r="I103" s="6" t="s">
         <v>14</v>
@@ -3888,13 +3909,13 @@
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="60"/>
-      <c r="B104" s="64"/>
-      <c r="C104" s="64"/>
-      <c r="D104" s="61"/>
-      <c r="E104" s="64"/>
-      <c r="F104" s="67"/>
-      <c r="G104" s="61"/>
+      <c r="A104" s="66"/>
+      <c r="B104" s="70"/>
+      <c r="C104" s="70"/>
+      <c r="D104" s="67"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="73"/>
+      <c r="G104" s="67"/>
       <c r="H104" s="9"/>
       <c r="I104" s="11" t="s">
         <v>12</v>
@@ -3921,7 +3942,7 @@
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="61"/>
+      <c r="A105" s="67"/>
       <c r="B105" s="12" t="s">
         <v>17</v>
       </c>
@@ -3971,40 +3992,40 @@
       </c>
     </row>
     <row r="106" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="M106" s="70" t="s">
+      <c r="M106" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="N106" s="70"/>
+      <c r="N106" s="76"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" s="48" t="s">
+      <c r="A108" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C108" s="48" t="s">
+      <c r="C108" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D108" s="48"/>
-      <c r="E108" s="48"/>
-      <c r="F108" s="48"/>
-      <c r="G108" s="48"/>
+      <c r="D108" s="54"/>
+      <c r="E108" s="54"/>
+      <c r="F108" s="54"/>
+      <c r="G108" s="54"/>
       <c r="H108" s="28"/>
-      <c r="I108" s="48" t="s">
+      <c r="I108" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="J108" s="48" t="s">
+      <c r="J108" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="K108" s="48"/>
-      <c r="L108" s="48"/>
-      <c r="M108" s="48"/>
-      <c r="N108" s="48"/>
+      <c r="K108" s="54"/>
+      <c r="L108" s="54"/>
+      <c r="M108" s="54"/>
+      <c r="N108" s="54"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="48"/>
-      <c r="B109" s="48"/>
+      <c r="A109" s="54"/>
+      <c r="B109" s="54"/>
       <c r="C109" s="28" t="s">
         <v>5</v>
       </c>
@@ -4021,7 +4042,7 @@
         <v>9</v>
       </c>
       <c r="H109" s="28"/>
-      <c r="I109" s="48"/>
+      <c r="I109" s="54"/>
       <c r="J109" s="28" t="s">
         <v>5</v>
       </c>
@@ -4039,28 +4060,28 @@
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="47">
+      <c r="A110" s="53">
         <v>1</v>
       </c>
-      <c r="B110" s="49" t="s">
+      <c r="B110" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C110" s="50">
+      <c r="C110" s="56">
         <f>G75</f>
         <v>522</v>
       </c>
-      <c r="D110" s="53">
+      <c r="D110" s="59">
         <v>7514</v>
       </c>
-      <c r="E110" s="50">
+      <c r="E110" s="56">
         <f>SUM(C110:D112)</f>
         <v>8036</v>
       </c>
-      <c r="F110" s="56">
+      <c r="F110" s="62">
         <f>SUM(E110-G110)</f>
         <v>7771</v>
       </c>
-      <c r="G110" s="53">
+      <c r="G110" s="59">
         <v>265</v>
       </c>
       <c r="H110" s="31"/>
@@ -4087,13 +4108,13 @@
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="48"/>
-      <c r="B111" s="49"/>
-      <c r="C111" s="51"/>
-      <c r="D111" s="54"/>
-      <c r="E111" s="51"/>
-      <c r="F111" s="57"/>
-      <c r="G111" s="54"/>
+      <c r="A111" s="54"/>
+      <c r="B111" s="55"/>
+      <c r="C111" s="57"/>
+      <c r="D111" s="60"/>
+      <c r="E111" s="57"/>
+      <c r="F111" s="63"/>
+      <c r="G111" s="60"/>
       <c r="H111" s="31"/>
       <c r="I111" s="30" t="s">
         <v>11</v>
@@ -4118,13 +4139,13 @@
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="48"/>
-      <c r="B112" s="49"/>
-      <c r="C112" s="52"/>
-      <c r="D112" s="55"/>
-      <c r="E112" s="52"/>
-      <c r="F112" s="58"/>
-      <c r="G112" s="55"/>
+      <c r="A112" s="54"/>
+      <c r="B112" s="55"/>
+      <c r="C112" s="58"/>
+      <c r="D112" s="61"/>
+      <c r="E112" s="58"/>
+      <c r="F112" s="64"/>
+      <c r="G112" s="61"/>
       <c r="H112" s="31"/>
       <c r="I112" s="30" t="s">
         <v>12</v>
@@ -4149,7 +4170,7 @@
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="48"/>
+      <c r="A113" s="54"/>
       <c r="B113" s="12" t="s">
         <v>13</v>
       </c>
@@ -4349,17 +4370,17 @@
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="47">
+      <c r="A119" s="53">
         <v>5</v>
       </c>
-      <c r="B119" s="49" t="s">
+      <c r="B119" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C119" s="68"/>
-      <c r="D119" s="48"/>
-      <c r="E119" s="68"/>
-      <c r="F119" s="69"/>
-      <c r="G119" s="48"/>
+      <c r="C119" s="74"/>
+      <c r="D119" s="54"/>
+      <c r="E119" s="74"/>
+      <c r="F119" s="75"/>
+      <c r="G119" s="54"/>
       <c r="H119" s="31"/>
       <c r="I119" s="30" t="s">
         <v>14</v>
@@ -4384,13 +4405,13 @@
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="47"/>
-      <c r="B120" s="49"/>
-      <c r="C120" s="68"/>
-      <c r="D120" s="48"/>
-      <c r="E120" s="68"/>
-      <c r="F120" s="69"/>
-      <c r="G120" s="48"/>
+      <c r="A120" s="53"/>
+      <c r="B120" s="55"/>
+      <c r="C120" s="74"/>
+      <c r="D120" s="54"/>
+      <c r="E120" s="74"/>
+      <c r="F120" s="75"/>
+      <c r="G120" s="54"/>
       <c r="H120" s="31"/>
       <c r="I120" s="30" t="s">
         <v>11</v>
@@ -4415,7 +4436,7 @@
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="47"/>
+      <c r="A121" s="53"/>
       <c r="B121" s="12" t="s">
         <v>13</v>
       </c>
@@ -4466,17 +4487,17 @@
       <c r="N122" s="28"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="47">
+      <c r="A123" s="53">
         <v>6</v>
       </c>
-      <c r="B123" s="49" t="s">
+      <c r="B123" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C123" s="68"/>
-      <c r="D123" s="48"/>
-      <c r="E123" s="68"/>
-      <c r="F123" s="69"/>
-      <c r="G123" s="48"/>
+      <c r="C123" s="74"/>
+      <c r="D123" s="54"/>
+      <c r="E123" s="74"/>
+      <c r="F123" s="75"/>
+      <c r="G123" s="54"/>
       <c r="H123" s="31"/>
       <c r="I123" s="30" t="s">
         <v>14</v>
@@ -4501,13 +4522,13 @@
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="48"/>
-      <c r="B124" s="49"/>
-      <c r="C124" s="68"/>
-      <c r="D124" s="48"/>
-      <c r="E124" s="68"/>
-      <c r="F124" s="69"/>
-      <c r="G124" s="48"/>
+      <c r="A124" s="54"/>
+      <c r="B124" s="55"/>
+      <c r="C124" s="74"/>
+      <c r="D124" s="54"/>
+      <c r="E124" s="74"/>
+      <c r="F124" s="75"/>
+      <c r="G124" s="54"/>
       <c r="H124" s="31"/>
       <c r="I124" s="30" t="s">
         <v>11</v>
@@ -4532,7 +4553,7 @@
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="48"/>
+      <c r="A125" s="54"/>
       <c r="B125" s="12" t="s">
         <v>13</v>
       </c>
@@ -4583,28 +4604,28 @@
       <c r="N126" s="28"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127" s="47">
+      <c r="A127" s="53">
         <v>7</v>
       </c>
-      <c r="B127" s="49" t="s">
+      <c r="B127" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C127" s="50">
+      <c r="C127" s="56">
         <f t="shared" ref="C127" si="89">G92</f>
         <v>930</v>
       </c>
-      <c r="D127" s="53">
+      <c r="D127" s="59">
         <v>297</v>
       </c>
-      <c r="E127" s="50">
+      <c r="E127" s="56">
         <f t="shared" ref="E127" si="90">SUM(C127:D127)</f>
         <v>1227</v>
       </c>
-      <c r="F127" s="56">
+      <c r="F127" s="62">
         <f t="shared" ref="F127" si="91">SUM(E127-G127)</f>
         <v>293</v>
       </c>
-      <c r="G127" s="53">
+      <c r="G127" s="59">
         <v>934</v>
       </c>
       <c r="H127" s="31"/>
@@ -4631,13 +4652,13 @@
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="48"/>
-      <c r="B128" s="49"/>
-      <c r="C128" s="51"/>
-      <c r="D128" s="54"/>
-      <c r="E128" s="51"/>
-      <c r="F128" s="57"/>
-      <c r="G128" s="54"/>
+      <c r="A128" s="54"/>
+      <c r="B128" s="55"/>
+      <c r="C128" s="57"/>
+      <c r="D128" s="60"/>
+      <c r="E128" s="57"/>
+      <c r="F128" s="63"/>
+      <c r="G128" s="60"/>
       <c r="H128" s="31"/>
       <c r="I128" s="6" t="s">
         <v>15</v>
@@ -4662,13 +4683,13 @@
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A129" s="48"/>
-      <c r="B129" s="49"/>
-      <c r="C129" s="52"/>
-      <c r="D129" s="55"/>
-      <c r="E129" s="52"/>
-      <c r="F129" s="58"/>
-      <c r="G129" s="55"/>
+      <c r="A129" s="54"/>
+      <c r="B129" s="55"/>
+      <c r="C129" s="58"/>
+      <c r="D129" s="61"/>
+      <c r="E129" s="58"/>
+      <c r="F129" s="64"/>
+      <c r="G129" s="61"/>
       <c r="H129" s="31"/>
       <c r="I129" s="6" t="s">
         <v>11</v>
@@ -4693,7 +4714,7 @@
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A130" s="48"/>
+      <c r="A130" s="54"/>
       <c r="B130" s="17" t="s">
         <v>13</v>
       </c>
@@ -4880,13 +4901,13 @@
       <c r="N135" s="28"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A136" s="59"/>
-      <c r="B136" s="62"/>
-      <c r="C136" s="62"/>
-      <c r="D136" s="59"/>
-      <c r="E136" s="62"/>
-      <c r="F136" s="65"/>
-      <c r="G136" s="59"/>
+      <c r="A136" s="65"/>
+      <c r="B136" s="68"/>
+      <c r="C136" s="68"/>
+      <c r="D136" s="65"/>
+      <c r="E136" s="68"/>
+      <c r="F136" s="71"/>
+      <c r="G136" s="65"/>
       <c r="H136" s="31"/>
       <c r="I136" s="33" t="s">
         <v>15</v>
@@ -4913,13 +4934,13 @@
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A137" s="60"/>
-      <c r="B137" s="63"/>
-      <c r="C137" s="63"/>
-      <c r="D137" s="60"/>
-      <c r="E137" s="63"/>
-      <c r="F137" s="66"/>
-      <c r="G137" s="60"/>
+      <c r="A137" s="66"/>
+      <c r="B137" s="69"/>
+      <c r="C137" s="69"/>
+      <c r="D137" s="66"/>
+      <c r="E137" s="69"/>
+      <c r="F137" s="72"/>
+      <c r="G137" s="66"/>
       <c r="H137" s="31"/>
       <c r="I137" s="33" t="s">
         <v>11</v>
@@ -4946,13 +4967,13 @@
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A138" s="60"/>
-      <c r="B138" s="63"/>
-      <c r="C138" s="63"/>
-      <c r="D138" s="60"/>
-      <c r="E138" s="63"/>
-      <c r="F138" s="66"/>
-      <c r="G138" s="60"/>
+      <c r="A138" s="66"/>
+      <c r="B138" s="69"/>
+      <c r="C138" s="69"/>
+      <c r="D138" s="66"/>
+      <c r="E138" s="69"/>
+      <c r="F138" s="72"/>
+      <c r="G138" s="66"/>
       <c r="H138" s="31"/>
       <c r="I138" s="33" t="s">
         <v>14</v>
@@ -4979,13 +5000,13 @@
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A139" s="60"/>
-      <c r="B139" s="64"/>
-      <c r="C139" s="64"/>
-      <c r="D139" s="61"/>
-      <c r="E139" s="64"/>
-      <c r="F139" s="67"/>
-      <c r="G139" s="61"/>
+      <c r="A139" s="66"/>
+      <c r="B139" s="70"/>
+      <c r="C139" s="70"/>
+      <c r="D139" s="67"/>
+      <c r="E139" s="70"/>
+      <c r="F139" s="73"/>
+      <c r="G139" s="67"/>
       <c r="H139" s="31"/>
       <c r="I139" s="37" t="s">
         <v>12</v>
@@ -5012,7 +5033,7 @@
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A140" s="61"/>
+      <c r="A140" s="67"/>
       <c r="B140" s="12" t="s">
         <v>17</v>
       </c>
@@ -5062,40 +5083,40 @@
       </c>
     </row>
     <row r="141" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="M141" s="70" t="s">
+      <c r="M141" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="N141" s="70"/>
+      <c r="N141" s="76"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A143" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B143" s="48" t="s">
+      <c r="A143" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C143" s="48" t="s">
+      <c r="C143" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D143" s="48"/>
-      <c r="E143" s="48"/>
-      <c r="F143" s="48"/>
-      <c r="G143" s="48"/>
+      <c r="D143" s="54"/>
+      <c r="E143" s="54"/>
+      <c r="F143" s="54"/>
+      <c r="G143" s="54"/>
       <c r="H143" s="41"/>
-      <c r="I143" s="48" t="s">
+      <c r="I143" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="J143" s="48" t="s">
+      <c r="J143" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="K143" s="48"/>
-      <c r="L143" s="48"/>
-      <c r="M143" s="48"/>
-      <c r="N143" s="48"/>
+      <c r="K143" s="54"/>
+      <c r="L143" s="54"/>
+      <c r="M143" s="54"/>
+      <c r="N143" s="54"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A144" s="48"/>
-      <c r="B144" s="48"/>
+      <c r="A144" s="54"/>
+      <c r="B144" s="54"/>
       <c r="C144" s="41" t="s">
         <v>5</v>
       </c>
@@ -5112,7 +5133,7 @@
         <v>9</v>
       </c>
       <c r="H144" s="41"/>
-      <c r="I144" s="48"/>
+      <c r="I144" s="54"/>
       <c r="J144" s="41" t="s">
         <v>5</v>
       </c>
@@ -5130,28 +5151,28 @@
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A145" s="47">
+      <c r="A145" s="53">
         <v>1</v>
       </c>
-      <c r="B145" s="49" t="s">
+      <c r="B145" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C145" s="50">
+      <c r="C145" s="56">
         <f>G110</f>
         <v>265</v>
       </c>
-      <c r="D145" s="53">
+      <c r="D145" s="59">
         <v>5254</v>
       </c>
-      <c r="E145" s="50">
+      <c r="E145" s="56">
         <f>SUM(C145:D147)</f>
         <v>5519</v>
       </c>
-      <c r="F145" s="56">
+      <c r="F145" s="62">
         <f>SUM(E145-G145)</f>
         <v>4881</v>
       </c>
-      <c r="G145" s="53">
+      <c r="G145" s="59">
         <v>638</v>
       </c>
       <c r="H145" s="39"/>
@@ -5178,13 +5199,13 @@
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A146" s="48"/>
-      <c r="B146" s="49"/>
-      <c r="C146" s="51"/>
-      <c r="D146" s="54"/>
-      <c r="E146" s="51"/>
-      <c r="F146" s="57"/>
-      <c r="G146" s="54"/>
+      <c r="A146" s="54"/>
+      <c r="B146" s="55"/>
+      <c r="C146" s="57"/>
+      <c r="D146" s="60"/>
+      <c r="E146" s="57"/>
+      <c r="F146" s="63"/>
+      <c r="G146" s="60"/>
       <c r="H146" s="39"/>
       <c r="I146" s="40" t="s">
         <v>11</v>
@@ -5209,13 +5230,13 @@
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A147" s="48"/>
-      <c r="B147" s="49"/>
-      <c r="C147" s="52"/>
-      <c r="D147" s="55"/>
-      <c r="E147" s="52"/>
-      <c r="F147" s="58"/>
-      <c r="G147" s="55"/>
+      <c r="A147" s="54"/>
+      <c r="B147" s="55"/>
+      <c r="C147" s="58"/>
+      <c r="D147" s="61"/>
+      <c r="E147" s="58"/>
+      <c r="F147" s="64"/>
+      <c r="G147" s="61"/>
       <c r="H147" s="39"/>
       <c r="I147" s="40" t="s">
         <v>12</v>
@@ -5240,7 +5261,7 @@
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A148" s="48"/>
+      <c r="A148" s="54"/>
       <c r="B148" s="44" t="s">
         <v>13</v>
       </c>
@@ -5440,17 +5461,17 @@
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" s="47">
+      <c r="A154" s="53">
         <v>5</v>
       </c>
-      <c r="B154" s="49" t="s">
+      <c r="B154" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C154" s="68"/>
-      <c r="D154" s="48"/>
-      <c r="E154" s="68"/>
-      <c r="F154" s="69"/>
-      <c r="G154" s="48"/>
+      <c r="C154" s="74"/>
+      <c r="D154" s="54"/>
+      <c r="E154" s="74"/>
+      <c r="F154" s="75"/>
+      <c r="G154" s="54"/>
       <c r="H154" s="39"/>
       <c r="I154" s="40" t="s">
         <v>14</v>
@@ -5475,13 +5496,13 @@
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155" s="47"/>
-      <c r="B155" s="49"/>
-      <c r="C155" s="68"/>
-      <c r="D155" s="48"/>
-      <c r="E155" s="68"/>
-      <c r="F155" s="69"/>
-      <c r="G155" s="48"/>
+      <c r="A155" s="53"/>
+      <c r="B155" s="55"/>
+      <c r="C155" s="74"/>
+      <c r="D155" s="54"/>
+      <c r="E155" s="74"/>
+      <c r="F155" s="75"/>
+      <c r="G155" s="54"/>
       <c r="H155" s="39"/>
       <c r="I155" s="40" t="s">
         <v>11</v>
@@ -5506,7 +5527,7 @@
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A156" s="47"/>
+      <c r="A156" s="53"/>
       <c r="B156" s="44" t="s">
         <v>13</v>
       </c>
@@ -5557,17 +5578,17 @@
       <c r="N157" s="41"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" s="47">
+      <c r="A158" s="53">
         <v>6</v>
       </c>
-      <c r="B158" s="49" t="s">
+      <c r="B158" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C158" s="68"/>
-      <c r="D158" s="48"/>
-      <c r="E158" s="68"/>
-      <c r="F158" s="69"/>
-      <c r="G158" s="48"/>
+      <c r="C158" s="74"/>
+      <c r="D158" s="54"/>
+      <c r="E158" s="74"/>
+      <c r="F158" s="75"/>
+      <c r="G158" s="54"/>
       <c r="H158" s="39"/>
       <c r="I158" s="40" t="s">
         <v>14</v>
@@ -5592,13 +5613,13 @@
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159" s="48"/>
-      <c r="B159" s="49"/>
-      <c r="C159" s="68"/>
-      <c r="D159" s="48"/>
-      <c r="E159" s="68"/>
-      <c r="F159" s="69"/>
-      <c r="G159" s="48"/>
+      <c r="A159" s="54"/>
+      <c r="B159" s="55"/>
+      <c r="C159" s="74"/>
+      <c r="D159" s="54"/>
+      <c r="E159" s="74"/>
+      <c r="F159" s="75"/>
+      <c r="G159" s="54"/>
       <c r="H159" s="39"/>
       <c r="I159" s="40" t="s">
         <v>11</v>
@@ -5623,7 +5644,7 @@
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A160" s="48"/>
+      <c r="A160" s="54"/>
       <c r="B160" s="44" t="s">
         <v>13</v>
       </c>
@@ -5674,28 +5695,28 @@
       <c r="N161" s="41"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A162" s="47">
+      <c r="A162" s="53">
         <v>7</v>
       </c>
-      <c r="B162" s="49" t="s">
+      <c r="B162" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C162" s="50">
+      <c r="C162" s="56">
         <f t="shared" ref="C162" si="118">G127</f>
         <v>934</v>
       </c>
-      <c r="D162" s="53">
+      <c r="D162" s="59">
         <v>229</v>
       </c>
-      <c r="E162" s="50">
+      <c r="E162" s="56">
         <f t="shared" ref="E162" si="119">SUM(C162:D162)</f>
         <v>1163</v>
       </c>
-      <c r="F162" s="56">
+      <c r="F162" s="62">
         <f t="shared" ref="F162" si="120">SUM(E162-G162)</f>
         <v>637</v>
       </c>
-      <c r="G162" s="53">
+      <c r="G162" s="59">
         <v>526</v>
       </c>
       <c r="H162" s="39"/>
@@ -5722,13 +5743,13 @@
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A163" s="48"/>
-      <c r="B163" s="49"/>
-      <c r="C163" s="51"/>
-      <c r="D163" s="54"/>
-      <c r="E163" s="51"/>
-      <c r="F163" s="57"/>
-      <c r="G163" s="54"/>
+      <c r="A163" s="54"/>
+      <c r="B163" s="55"/>
+      <c r="C163" s="57"/>
+      <c r="D163" s="60"/>
+      <c r="E163" s="57"/>
+      <c r="F163" s="63"/>
+      <c r="G163" s="60"/>
       <c r="H163" s="39"/>
       <c r="I163" s="6" t="s">
         <v>15</v>
@@ -5753,13 +5774,13 @@
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A164" s="48"/>
-      <c r="B164" s="49"/>
-      <c r="C164" s="52"/>
-      <c r="D164" s="55"/>
-      <c r="E164" s="52"/>
-      <c r="F164" s="58"/>
-      <c r="G164" s="55"/>
+      <c r="A164" s="54"/>
+      <c r="B164" s="55"/>
+      <c r="C164" s="58"/>
+      <c r="D164" s="61"/>
+      <c r="E164" s="58"/>
+      <c r="F164" s="64"/>
+      <c r="G164" s="61"/>
       <c r="H164" s="39"/>
       <c r="I164" s="6" t="s">
         <v>11</v>
@@ -5784,7 +5805,7 @@
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A165" s="48"/>
+      <c r="A165" s="54"/>
       <c r="B165" s="46" t="s">
         <v>13</v>
       </c>
@@ -5971,13 +5992,13 @@
       <c r="N170" s="41"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A171" s="59"/>
-      <c r="B171" s="62"/>
-      <c r="C171" s="62"/>
-      <c r="D171" s="59"/>
-      <c r="E171" s="62"/>
-      <c r="F171" s="65"/>
-      <c r="G171" s="59"/>
+      <c r="A171" s="65"/>
+      <c r="B171" s="68"/>
+      <c r="C171" s="68"/>
+      <c r="D171" s="65"/>
+      <c r="E171" s="68"/>
+      <c r="F171" s="71"/>
+      <c r="G171" s="65"/>
       <c r="H171" s="39"/>
       <c r="I171" s="33" t="s">
         <v>15</v>
@@ -6004,13 +6025,13 @@
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A172" s="60"/>
-      <c r="B172" s="63"/>
-      <c r="C172" s="63"/>
-      <c r="D172" s="60"/>
-      <c r="E172" s="63"/>
-      <c r="F172" s="66"/>
-      <c r="G172" s="60"/>
+      <c r="A172" s="66"/>
+      <c r="B172" s="69"/>
+      <c r="C172" s="69"/>
+      <c r="D172" s="66"/>
+      <c r="E172" s="69"/>
+      <c r="F172" s="72"/>
+      <c r="G172" s="66"/>
       <c r="H172" s="39"/>
       <c r="I172" s="33" t="s">
         <v>11</v>
@@ -6037,13 +6058,13 @@
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A173" s="60"/>
-      <c r="B173" s="63"/>
-      <c r="C173" s="63"/>
-      <c r="D173" s="60"/>
-      <c r="E173" s="63"/>
-      <c r="F173" s="66"/>
-      <c r="G173" s="60"/>
+      <c r="A173" s="66"/>
+      <c r="B173" s="69"/>
+      <c r="C173" s="69"/>
+      <c r="D173" s="66"/>
+      <c r="E173" s="69"/>
+      <c r="F173" s="72"/>
+      <c r="G173" s="66"/>
       <c r="H173" s="39"/>
       <c r="I173" s="33" t="s">
         <v>14</v>
@@ -6070,13 +6091,13 @@
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A174" s="60"/>
-      <c r="B174" s="64"/>
-      <c r="C174" s="64"/>
-      <c r="D174" s="61"/>
-      <c r="E174" s="64"/>
-      <c r="F174" s="67"/>
-      <c r="G174" s="61"/>
+      <c r="A174" s="66"/>
+      <c r="B174" s="70"/>
+      <c r="C174" s="70"/>
+      <c r="D174" s="67"/>
+      <c r="E174" s="70"/>
+      <c r="F174" s="73"/>
+      <c r="G174" s="67"/>
       <c r="H174" s="39"/>
       <c r="I174" s="37" t="s">
         <v>12</v>
@@ -6103,7 +6124,7 @@
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A175" s="61"/>
+      <c r="A175" s="67"/>
       <c r="B175" s="44" t="s">
         <v>17</v>
       </c>
@@ -6152,72 +6173,1216 @@
         <v>9541</v>
       </c>
     </row>
+    <row r="176" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="M176" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="N176" s="76"/>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A178" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B178" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C178" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="D178" s="54"/>
+      <c r="E178" s="54"/>
+      <c r="F178" s="54"/>
+      <c r="G178" s="54"/>
+      <c r="H178" s="48"/>
+      <c r="I178" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="J178" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="K178" s="54"/>
+      <c r="L178" s="54"/>
+      <c r="M178" s="54"/>
+      <c r="N178" s="54"/>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A179" s="54"/>
+      <c r="B179" s="54"/>
+      <c r="C179" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D179" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F179" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="G179" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H179" s="48"/>
+      <c r="I179" s="54"/>
+      <c r="J179" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="K179" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="L179" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="M179" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="N179" s="48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A180" s="53">
+        <v>1</v>
+      </c>
+      <c r="B180" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C180" s="56">
+        <f>G145</f>
+        <v>638</v>
+      </c>
+      <c r="D180" s="59">
+        <v>6757</v>
+      </c>
+      <c r="E180" s="56">
+        <f>SUM(C180:D182)</f>
+        <v>7395</v>
+      </c>
+      <c r="F180" s="62">
+        <f>SUM(E180-G180)</f>
+        <v>7167</v>
+      </c>
+      <c r="G180" s="59">
+        <v>228</v>
+      </c>
+      <c r="H180" s="50"/>
+      <c r="I180" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="J180" s="52">
+        <f>N145</f>
+        <v>3953</v>
+      </c>
+      <c r="K180" s="47">
+        <v>8026</v>
+      </c>
+      <c r="L180" s="52">
+        <f>SUM(J180:K180)</f>
+        <v>11979</v>
+      </c>
+      <c r="M180" s="26">
+        <f>SUM(L180-N180)</f>
+        <v>7127</v>
+      </c>
+      <c r="N180" s="47">
+        <v>4852</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A181" s="54"/>
+      <c r="B181" s="55"/>
+      <c r="C181" s="57"/>
+      <c r="D181" s="60"/>
+      <c r="E181" s="57"/>
+      <c r="F181" s="63"/>
+      <c r="G181" s="60"/>
+      <c r="H181" s="50"/>
+      <c r="I181" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="J181" s="52">
+        <f t="shared" ref="J181:J182" si="132">N146</f>
+        <v>254</v>
+      </c>
+      <c r="K181" s="47">
+        <v>0</v>
+      </c>
+      <c r="L181" s="52">
+        <f t="shared" ref="L181:L182" si="133">SUM(J181:K181)</f>
+        <v>254</v>
+      </c>
+      <c r="M181" s="26">
+        <f t="shared" ref="M181:M182" si="134">SUM(L181-N181)</f>
+        <v>83</v>
+      </c>
+      <c r="N181" s="47">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A182" s="54"/>
+      <c r="B182" s="55"/>
+      <c r="C182" s="58"/>
+      <c r="D182" s="61"/>
+      <c r="E182" s="58"/>
+      <c r="F182" s="64"/>
+      <c r="G182" s="61"/>
+      <c r="H182" s="50"/>
+      <c r="I182" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J182" s="52">
+        <f t="shared" si="132"/>
+        <v>549</v>
+      </c>
+      <c r="K182" s="47">
+        <v>55</v>
+      </c>
+      <c r="L182" s="52">
+        <f t="shared" si="133"/>
+        <v>604</v>
+      </c>
+      <c r="M182" s="26">
+        <f t="shared" si="134"/>
+        <v>138</v>
+      </c>
+      <c r="N182" s="47">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A183" s="54"/>
+      <c r="B183" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" s="35">
+        <f>SUM(C180)</f>
+        <v>638</v>
+      </c>
+      <c r="D183" s="35">
+        <f t="shared" ref="D183:G183" si="135">SUM(D180)</f>
+        <v>6757</v>
+      </c>
+      <c r="E183" s="35">
+        <f t="shared" si="135"/>
+        <v>7395</v>
+      </c>
+      <c r="F183" s="35">
+        <f t="shared" si="135"/>
+        <v>7167</v>
+      </c>
+      <c r="G183" s="35">
+        <f t="shared" si="135"/>
+        <v>228</v>
+      </c>
+      <c r="H183" s="45"/>
+      <c r="I183" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J183" s="35">
+        <f>SUM(J180:J182)</f>
+        <v>4756</v>
+      </c>
+      <c r="K183" s="35">
+        <f t="shared" ref="K183:N183" si="136">SUM(K180:K182)</f>
+        <v>8081</v>
+      </c>
+      <c r="L183" s="35">
+        <f t="shared" si="136"/>
+        <v>12837</v>
+      </c>
+      <c r="M183" s="35">
+        <f t="shared" si="136"/>
+        <v>7348</v>
+      </c>
+      <c r="N183" s="35">
+        <f t="shared" si="136"/>
+        <v>5489</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="48"/>
+      <c r="B184" s="50"/>
+      <c r="C184" s="50"/>
+      <c r="D184" s="48"/>
+      <c r="E184" s="50"/>
+      <c r="F184" s="51"/>
+      <c r="G184" s="48"/>
+      <c r="H184" s="50"/>
+      <c r="I184" s="50"/>
+      <c r="J184" s="50"/>
+      <c r="K184" s="48"/>
+      <c r="L184" s="50"/>
+      <c r="M184" s="51"/>
+      <c r="N184" s="48"/>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A185" s="47">
+        <v>2</v>
+      </c>
+      <c r="B185" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C185" s="50"/>
+      <c r="D185" s="48"/>
+      <c r="E185" s="50"/>
+      <c r="F185" s="51"/>
+      <c r="G185" s="48"/>
+      <c r="H185" s="50"/>
+      <c r="I185" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J185" s="52">
+        <f t="shared" ref="J185:J190" si="137">N150</f>
+        <v>666</v>
+      </c>
+      <c r="K185" s="47">
+        <v>165</v>
+      </c>
+      <c r="L185" s="52">
+        <f t="shared" ref="L185:L190" si="138">SUM(J185:K185)</f>
+        <v>831</v>
+      </c>
+      <c r="M185" s="26">
+        <f t="shared" ref="M185:M187" si="139">SUM(L185-N185)</f>
+        <v>192</v>
+      </c>
+      <c r="N185" s="47">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A186" s="47">
+        <v>3</v>
+      </c>
+      <c r="B186" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C186" s="50"/>
+      <c r="D186" s="48"/>
+      <c r="E186" s="50"/>
+      <c r="F186" s="51"/>
+      <c r="G186" s="48"/>
+      <c r="H186" s="50"/>
+      <c r="I186" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J186" s="52">
+        <f t="shared" si="137"/>
+        <v>224</v>
+      </c>
+      <c r="K186" s="47">
+        <v>139</v>
+      </c>
+      <c r="L186" s="52">
+        <f t="shared" si="138"/>
+        <v>363</v>
+      </c>
+      <c r="M186" s="26">
+        <f t="shared" si="139"/>
+        <v>148</v>
+      </c>
+      <c r="N186" s="47">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A187" s="47">
+        <v>4</v>
+      </c>
+      <c r="B187" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C187" s="50"/>
+      <c r="D187" s="48"/>
+      <c r="E187" s="50"/>
+      <c r="F187" s="51"/>
+      <c r="G187" s="48"/>
+      <c r="H187" s="50"/>
+      <c r="I187" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J187" s="52">
+        <f t="shared" si="137"/>
+        <v>253</v>
+      </c>
+      <c r="K187" s="47">
+        <v>196</v>
+      </c>
+      <c r="L187" s="52">
+        <f t="shared" si="138"/>
+        <v>449</v>
+      </c>
+      <c r="M187" s="26">
+        <f t="shared" si="139"/>
+        <v>278</v>
+      </c>
+      <c r="N187" s="47">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="47"/>
+      <c r="B188" s="49"/>
+      <c r="C188" s="50"/>
+      <c r="D188" s="48"/>
+      <c r="E188" s="50"/>
+      <c r="F188" s="51"/>
+      <c r="G188" s="48"/>
+      <c r="H188" s="50"/>
+      <c r="I188" s="49"/>
+      <c r="J188" s="52">
+        <f t="shared" si="137"/>
+        <v>4419</v>
+      </c>
+      <c r="K188" s="47">
+        <v>10637</v>
+      </c>
+      <c r="L188" s="52">
+        <f t="shared" si="138"/>
+        <v>15056</v>
+      </c>
+      <c r="M188" s="26">
+        <v>10271</v>
+      </c>
+      <c r="N188" s="47">
+        <f t="shared" ref="N188" si="140">SUM(L188-M188)</f>
+        <v>4785</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A189" s="53">
+        <v>5</v>
+      </c>
+      <c r="B189" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C189" s="74"/>
+      <c r="D189" s="54"/>
+      <c r="E189" s="74"/>
+      <c r="F189" s="75"/>
+      <c r="G189" s="54"/>
+      <c r="H189" s="50"/>
+      <c r="I189" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J189" s="52">
+        <f t="shared" si="137"/>
+        <v>253</v>
+      </c>
+      <c r="K189" s="47">
+        <v>157</v>
+      </c>
+      <c r="L189" s="52">
+        <f t="shared" si="138"/>
+        <v>410</v>
+      </c>
+      <c r="M189" s="26">
+        <f t="shared" ref="M189:M190" si="141">SUM(L189-N189)</f>
+        <v>242</v>
+      </c>
+      <c r="N189" s="47">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A190" s="53"/>
+      <c r="B190" s="55"/>
+      <c r="C190" s="74"/>
+      <c r="D190" s="54"/>
+      <c r="E190" s="74"/>
+      <c r="F190" s="75"/>
+      <c r="G190" s="54"/>
+      <c r="H190" s="50"/>
+      <c r="I190" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="J190" s="52">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
+      <c r="K190" s="47">
+        <v>0</v>
+      </c>
+      <c r="L190" s="52">
+        <f t="shared" si="138"/>
+        <v>1</v>
+      </c>
+      <c r="M190" s="26">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="N190" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A191" s="53"/>
+      <c r="B191" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" s="45"/>
+      <c r="D191" s="45"/>
+      <c r="E191" s="45"/>
+      <c r="F191" s="45"/>
+      <c r="G191" s="45"/>
+      <c r="H191" s="45"/>
+      <c r="I191" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J191" s="35">
+        <f>SUM(J189:J190)</f>
+        <v>254</v>
+      </c>
+      <c r="K191" s="35">
+        <f t="shared" ref="K191:N191" si="142">SUM(K189:K190)</f>
+        <v>157</v>
+      </c>
+      <c r="L191" s="35">
+        <f t="shared" si="142"/>
+        <v>411</v>
+      </c>
+      <c r="M191" s="35">
+        <f t="shared" si="142"/>
+        <v>242</v>
+      </c>
+      <c r="N191" s="35">
+        <f t="shared" si="142"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="48"/>
+      <c r="B192" s="50"/>
+      <c r="C192" s="50"/>
+      <c r="D192" s="48"/>
+      <c r="E192" s="50"/>
+      <c r="F192" s="51"/>
+      <c r="G192" s="48"/>
+      <c r="H192" s="50"/>
+      <c r="I192" s="50"/>
+      <c r="J192" s="50"/>
+      <c r="K192" s="48"/>
+      <c r="L192" s="50"/>
+      <c r="M192" s="51"/>
+      <c r="N192" s="48"/>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A193" s="53">
+        <v>6</v>
+      </c>
+      <c r="B193" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C193" s="74"/>
+      <c r="D193" s="54"/>
+      <c r="E193" s="74"/>
+      <c r="F193" s="75"/>
+      <c r="G193" s="54"/>
+      <c r="H193" s="50"/>
+      <c r="I193" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J193" s="52">
+        <f t="shared" ref="J193:J194" si="143">N158</f>
+        <v>19</v>
+      </c>
+      <c r="K193" s="47">
+        <v>0</v>
+      </c>
+      <c r="L193" s="52">
+        <f t="shared" ref="L193:L194" si="144">SUM(J193:K193)</f>
+        <v>19</v>
+      </c>
+      <c r="M193" s="26">
+        <f t="shared" ref="M193:M194" si="145">SUM(L193-N193)</f>
+        <v>0</v>
+      </c>
+      <c r="N193" s="47">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A194" s="54"/>
+      <c r="B194" s="55"/>
+      <c r="C194" s="74"/>
+      <c r="D194" s="54"/>
+      <c r="E194" s="74"/>
+      <c r="F194" s="75"/>
+      <c r="G194" s="54"/>
+      <c r="H194" s="50"/>
+      <c r="I194" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="J194" s="52">
+        <f t="shared" si="143"/>
+        <v>183</v>
+      </c>
+      <c r="K194" s="47">
+        <v>162</v>
+      </c>
+      <c r="L194" s="52">
+        <f t="shared" si="144"/>
+        <v>345</v>
+      </c>
+      <c r="M194" s="26">
+        <f t="shared" si="145"/>
+        <v>314</v>
+      </c>
+      <c r="N194" s="47">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A195" s="54"/>
+      <c r="B195" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C195" s="45"/>
+      <c r="D195" s="45"/>
+      <c r="E195" s="45"/>
+      <c r="F195" s="45"/>
+      <c r="G195" s="45"/>
+      <c r="H195" s="45"/>
+      <c r="I195" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J195" s="35">
+        <f>SUM(J193:J194)</f>
+        <v>202</v>
+      </c>
+      <c r="K195" s="35">
+        <f t="shared" ref="K195:N195" si="146">SUM(K193:K194)</f>
+        <v>162</v>
+      </c>
+      <c r="L195" s="35">
+        <f t="shared" si="146"/>
+        <v>364</v>
+      </c>
+      <c r="M195" s="35">
+        <f t="shared" si="146"/>
+        <v>314</v>
+      </c>
+      <c r="N195" s="35">
+        <f t="shared" si="146"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="48"/>
+      <c r="B196" s="50"/>
+      <c r="C196" s="50"/>
+      <c r="D196" s="48"/>
+      <c r="E196" s="50"/>
+      <c r="F196" s="51"/>
+      <c r="G196" s="48"/>
+      <c r="H196" s="50"/>
+      <c r="I196" s="50"/>
+      <c r="J196" s="50"/>
+      <c r="K196" s="48"/>
+      <c r="L196" s="50"/>
+      <c r="M196" s="51"/>
+      <c r="N196" s="48"/>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A197" s="53">
+        <v>7</v>
+      </c>
+      <c r="B197" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C197" s="56">
+        <f t="shared" ref="C197" si="147">G162</f>
+        <v>526</v>
+      </c>
+      <c r="D197" s="59">
+        <v>0</v>
+      </c>
+      <c r="E197" s="56">
+        <f t="shared" ref="E197" si="148">SUM(C197:D197)</f>
+        <v>526</v>
+      </c>
+      <c r="F197" s="62">
+        <f t="shared" ref="F197" si="149">SUM(E197-G197)</f>
+        <v>526</v>
+      </c>
+      <c r="G197" s="59">
+        <v>0</v>
+      </c>
+      <c r="H197" s="50"/>
+      <c r="I197" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J197" s="52">
+        <f t="shared" ref="J197:J199" si="150">N162</f>
+        <v>1</v>
+      </c>
+      <c r="K197" s="47">
+        <v>0</v>
+      </c>
+      <c r="L197" s="52">
+        <f t="shared" ref="L197:L199" si="151">SUM(J197:K197)</f>
+        <v>1</v>
+      </c>
+      <c r="M197" s="26">
+        <f t="shared" ref="M197:M199" si="152">SUM(L197-N197)</f>
+        <v>0</v>
+      </c>
+      <c r="N197" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A198" s="54"/>
+      <c r="B198" s="55"/>
+      <c r="C198" s="57"/>
+      <c r="D198" s="60"/>
+      <c r="E198" s="57"/>
+      <c r="F198" s="63"/>
+      <c r="G198" s="60"/>
+      <c r="H198" s="50"/>
+      <c r="I198" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J198" s="52">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="K198" s="47">
+        <v>0</v>
+      </c>
+      <c r="L198" s="52">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+      <c r="M198" s="26">
+        <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+      <c r="N198" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A199" s="54"/>
+      <c r="B199" s="55"/>
+      <c r="C199" s="58"/>
+      <c r="D199" s="61"/>
+      <c r="E199" s="58"/>
+      <c r="F199" s="64"/>
+      <c r="G199" s="61"/>
+      <c r="H199" s="50"/>
+      <c r="I199" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J199" s="52">
+        <f t="shared" si="150"/>
+        <v>2292</v>
+      </c>
+      <c r="K199" s="47">
+        <v>1883</v>
+      </c>
+      <c r="L199" s="52">
+        <f t="shared" si="151"/>
+        <v>4175</v>
+      </c>
+      <c r="M199" s="26">
+        <f t="shared" si="152"/>
+        <v>821</v>
+      </c>
+      <c r="N199" s="47">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A200" s="54"/>
+      <c r="B200" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200" s="35">
+        <f>SUM(C197)</f>
+        <v>526</v>
+      </c>
+      <c r="D200" s="35">
+        <f>SUM(D197)</f>
+        <v>0</v>
+      </c>
+      <c r="E200" s="35">
+        <f>SUM(E197)</f>
+        <v>526</v>
+      </c>
+      <c r="F200" s="35">
+        <f>SUM(F197)</f>
+        <v>526</v>
+      </c>
+      <c r="G200" s="35">
+        <f>SUM(G197)</f>
+        <v>0</v>
+      </c>
+      <c r="H200" s="45"/>
+      <c r="I200" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="J200" s="35">
+        <f>SUM(J197:J199)</f>
+        <v>2293</v>
+      </c>
+      <c r="K200" s="35">
+        <f t="shared" ref="K200:N200" si="153">SUM(K197:K199)</f>
+        <v>1883</v>
+      </c>
+      <c r="L200" s="35">
+        <f t="shared" si="153"/>
+        <v>4176</v>
+      </c>
+      <c r="M200" s="35">
+        <f t="shared" si="153"/>
+        <v>821</v>
+      </c>
+      <c r="N200" s="35">
+        <f t="shared" si="153"/>
+        <v>3355</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="48"/>
+      <c r="B201" s="50"/>
+      <c r="C201" s="50"/>
+      <c r="D201" s="48"/>
+      <c r="E201" s="50"/>
+      <c r="F201" s="51"/>
+      <c r="G201" s="48"/>
+      <c r="H201" s="50"/>
+      <c r="I201" s="50"/>
+      <c r="J201" s="50"/>
+      <c r="K201" s="48"/>
+      <c r="L201" s="50"/>
+      <c r="M201" s="51"/>
+      <c r="N201" s="48"/>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A202" s="47">
+        <v>8</v>
+      </c>
+      <c r="B202" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C202" s="50"/>
+      <c r="D202" s="48"/>
+      <c r="E202" s="50"/>
+      <c r="F202" s="51"/>
+      <c r="G202" s="48"/>
+      <c r="H202" s="50"/>
+      <c r="I202" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J202" s="52">
+        <f t="shared" ref="J202:J204" si="154">N167</f>
+        <v>461</v>
+      </c>
+      <c r="K202" s="47">
+        <v>250</v>
+      </c>
+      <c r="L202" s="52">
+        <f t="shared" ref="L202:L204" si="155">SUM(J202:K202)</f>
+        <v>711</v>
+      </c>
+      <c r="M202" s="26">
+        <f t="shared" ref="M202:M204" si="156">SUM(L202-N202)</f>
+        <v>398</v>
+      </c>
+      <c r="N202" s="47">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A203" s="47">
+        <v>9</v>
+      </c>
+      <c r="B203" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C203" s="50"/>
+      <c r="D203" s="48"/>
+      <c r="E203" s="50"/>
+      <c r="F203" s="51"/>
+      <c r="G203" s="48"/>
+      <c r="H203" s="50"/>
+      <c r="I203" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J203" s="52">
+        <f t="shared" si="154"/>
+        <v>432</v>
+      </c>
+      <c r="K203" s="47">
+        <v>177</v>
+      </c>
+      <c r="L203" s="52">
+        <f t="shared" si="155"/>
+        <v>609</v>
+      </c>
+      <c r="M203" s="26">
+        <f t="shared" si="156"/>
+        <v>386</v>
+      </c>
+      <c r="N203" s="47">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A204" s="47">
+        <v>10</v>
+      </c>
+      <c r="B204" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C204" s="50"/>
+      <c r="D204" s="48"/>
+      <c r="E204" s="50"/>
+      <c r="F204" s="51"/>
+      <c r="G204" s="48"/>
+      <c r="H204" s="50"/>
+      <c r="I204" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J204" s="52">
+        <f t="shared" si="154"/>
+        <v>0</v>
+      </c>
+      <c r="K204" s="47">
+        <v>0</v>
+      </c>
+      <c r="L204" s="52">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+      <c r="M204" s="26">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
+      <c r="N204" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="47"/>
+      <c r="B205" s="49"/>
+      <c r="C205" s="50"/>
+      <c r="D205" s="48"/>
+      <c r="E205" s="50"/>
+      <c r="F205" s="51"/>
+      <c r="G205" s="48"/>
+      <c r="H205" s="50"/>
+      <c r="I205" s="8"/>
+      <c r="J205" s="50"/>
+      <c r="K205" s="48"/>
+      <c r="L205" s="50"/>
+      <c r="M205" s="51"/>
+      <c r="N205" s="48"/>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A206" s="65"/>
+      <c r="B206" s="68"/>
+      <c r="C206" s="68"/>
+      <c r="D206" s="65"/>
+      <c r="E206" s="68"/>
+      <c r="F206" s="71"/>
+      <c r="G206" s="65"/>
+      <c r="H206" s="50"/>
+      <c r="I206" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J206" s="34">
+        <f>SUM(J180+J198+J204)</f>
+        <v>3953</v>
+      </c>
+      <c r="K206" s="35">
+        <f>SUM(K180+K198+K204)</f>
+        <v>8026</v>
+      </c>
+      <c r="L206" s="34">
+        <f>SUM(L180+L198+L204)</f>
+        <v>11979</v>
+      </c>
+      <c r="M206" s="36">
+        <f>SUM(M180+M198+M204)</f>
+        <v>7127</v>
+      </c>
+      <c r="N206" s="35">
+        <f>SUM(N180+N198+N204)</f>
+        <v>4852</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A207" s="66"/>
+      <c r="B207" s="69"/>
+      <c r="C207" s="69"/>
+      <c r="D207" s="66"/>
+      <c r="E207" s="69"/>
+      <c r="F207" s="72"/>
+      <c r="G207" s="66"/>
+      <c r="H207" s="50"/>
+      <c r="I207" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J207" s="34">
+        <f>SUM(J181+J190+J194+J199)</f>
+        <v>2730</v>
+      </c>
+      <c r="K207" s="35">
+        <f t="shared" ref="K207:N207" si="157">SUM(K181+K190+K194+K199)</f>
+        <v>2045</v>
+      </c>
+      <c r="L207" s="34">
+        <f t="shared" si="157"/>
+        <v>4775</v>
+      </c>
+      <c r="M207" s="36">
+        <f t="shared" si="157"/>
+        <v>1218</v>
+      </c>
+      <c r="N207" s="35">
+        <f t="shared" si="157"/>
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A208" s="66"/>
+      <c r="B208" s="69"/>
+      <c r="C208" s="69"/>
+      <c r="D208" s="66"/>
+      <c r="E208" s="69"/>
+      <c r="F208" s="72"/>
+      <c r="G208" s="66"/>
+      <c r="H208" s="50"/>
+      <c r="I208" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J208" s="34">
+        <f>SUM(J185+J186+J187+J189+J193+J197+J202+J203)</f>
+        <v>2309</v>
+      </c>
+      <c r="K208" s="35">
+        <f t="shared" ref="K208:N208" si="158">SUM(K185+K186+K187+K189+K193+K197+K202+K203)</f>
+        <v>1084</v>
+      </c>
+      <c r="L208" s="34">
+        <f t="shared" si="158"/>
+        <v>3393</v>
+      </c>
+      <c r="M208" s="36">
+        <f t="shared" si="158"/>
+        <v>1644</v>
+      </c>
+      <c r="N208" s="35">
+        <f t="shared" si="158"/>
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A209" s="66"/>
+      <c r="B209" s="70"/>
+      <c r="C209" s="70"/>
+      <c r="D209" s="67"/>
+      <c r="E209" s="70"/>
+      <c r="F209" s="73"/>
+      <c r="G209" s="67"/>
+      <c r="H209" s="50"/>
+      <c r="I209" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J209" s="34">
+        <f>SUM(J182)</f>
+        <v>549</v>
+      </c>
+      <c r="K209" s="35">
+        <f t="shared" ref="K209:N209" si="159">SUM(K182)</f>
+        <v>55</v>
+      </c>
+      <c r="L209" s="34">
+        <f t="shared" si="159"/>
+        <v>604</v>
+      </c>
+      <c r="M209" s="36">
+        <f t="shared" si="159"/>
+        <v>138</v>
+      </c>
+      <c r="N209" s="35">
+        <f t="shared" si="159"/>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A210" s="67"/>
+      <c r="B210" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C210" s="35">
+        <f>SUM(C183+C200)</f>
+        <v>1164</v>
+      </c>
+      <c r="D210" s="35">
+        <f>SUM(D200+D183)</f>
+        <v>6757</v>
+      </c>
+      <c r="E210" s="35">
+        <f>SUM(E200+E183)</f>
+        <v>7921</v>
+      </c>
+      <c r="F210" s="35">
+        <f>SUM(F200+F183)</f>
+        <v>7693</v>
+      </c>
+      <c r="G210" s="35">
+        <f>SUM(G200+G183)</f>
+        <v>228</v>
+      </c>
+      <c r="H210" s="45"/>
+      <c r="I210" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J210" s="35">
+        <f>SUM(J206:J209)</f>
+        <v>9541</v>
+      </c>
+      <c r="K210" s="35">
+        <f t="shared" ref="K210:N210" si="160">SUM(K206:K209)</f>
+        <v>11210</v>
+      </c>
+      <c r="L210" s="35">
+        <f t="shared" si="160"/>
+        <v>20751</v>
+      </c>
+      <c r="M210" s="35">
+        <f t="shared" si="160"/>
+        <v>10127</v>
+      </c>
+      <c r="N210" s="35">
+        <f t="shared" si="160"/>
+        <v>10624</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="205">
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="D162:D164"/>
-    <mergeCell ref="E162:E164"/>
-    <mergeCell ref="F162:F164"/>
-    <mergeCell ref="G162:G164"/>
-    <mergeCell ref="A171:A175"/>
-    <mergeCell ref="B171:B174"/>
-    <mergeCell ref="C171:C174"/>
-    <mergeCell ref="D171:D174"/>
-    <mergeCell ref="E171:E174"/>
-    <mergeCell ref="F171:F174"/>
-    <mergeCell ref="G171:G174"/>
-    <mergeCell ref="A154:A156"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="F154:F155"/>
-    <mergeCell ref="G154:G155"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="F158:F159"/>
-    <mergeCell ref="G158:G159"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:G143"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="J143:N143"/>
-    <mergeCell ref="A145:A148"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="C145:C147"/>
-    <mergeCell ref="D145:D147"/>
-    <mergeCell ref="E145:E147"/>
-    <mergeCell ref="F145:F147"/>
-    <mergeCell ref="G145:G147"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
+  <mergeCells count="246">
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="D127:D129"/>
+    <mergeCell ref="E127:E129"/>
+    <mergeCell ref="F127:F129"/>
+    <mergeCell ref="G127:G129"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="B136:B139"/>
+    <mergeCell ref="C136:C139"/>
+    <mergeCell ref="D136:D139"/>
+    <mergeCell ref="E136:E139"/>
+    <mergeCell ref="F136:F139"/>
+    <mergeCell ref="G136:G139"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="J108:N108"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="F110:F112"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="F101:F104"/>
+    <mergeCell ref="G101:G104"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="E101:E104"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:N73"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="A38:A39"/>
@@ -6242,123 +7407,111 @@
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:N73"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="F101:F104"/>
-    <mergeCell ref="G101:G104"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="E101:E104"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="J108:N108"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="F110:F112"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="D127:D129"/>
-    <mergeCell ref="E127:E129"/>
-    <mergeCell ref="F127:F129"/>
-    <mergeCell ref="G127:G129"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="B136:B139"/>
-    <mergeCell ref="C136:C139"/>
-    <mergeCell ref="D136:D139"/>
-    <mergeCell ref="E136:E139"/>
-    <mergeCell ref="F136:F139"/>
-    <mergeCell ref="G136:G139"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="J143:N143"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="C145:C147"/>
+    <mergeCell ref="D145:D147"/>
+    <mergeCell ref="E145:E147"/>
+    <mergeCell ref="F145:F147"/>
+    <mergeCell ref="G145:G147"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="F154:F155"/>
+    <mergeCell ref="G154:G155"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="F158:F159"/>
+    <mergeCell ref="G158:G159"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="D162:D164"/>
+    <mergeCell ref="E162:E164"/>
+    <mergeCell ref="F162:F164"/>
+    <mergeCell ref="G162:G164"/>
+    <mergeCell ref="A171:A175"/>
+    <mergeCell ref="B171:B174"/>
+    <mergeCell ref="C171:C174"/>
+    <mergeCell ref="D171:D174"/>
+    <mergeCell ref="E171:E174"/>
+    <mergeCell ref="F171:F174"/>
+    <mergeCell ref="G171:G174"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="C178:G178"/>
+    <mergeCell ref="I178:I179"/>
+    <mergeCell ref="J178:N178"/>
+    <mergeCell ref="A180:A183"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="C180:C182"/>
+    <mergeCell ref="D180:D182"/>
+    <mergeCell ref="E180:E182"/>
+    <mergeCell ref="F180:F182"/>
+    <mergeCell ref="G180:G182"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="D189:D190"/>
+    <mergeCell ref="E189:E190"/>
+    <mergeCell ref="F189:F190"/>
+    <mergeCell ref="G189:G190"/>
+    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="G193:G194"/>
+    <mergeCell ref="A197:A200"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="C197:C199"/>
+    <mergeCell ref="D197:D199"/>
+    <mergeCell ref="E197:E199"/>
+    <mergeCell ref="F197:F199"/>
+    <mergeCell ref="G197:G199"/>
+    <mergeCell ref="A206:A210"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="D206:D209"/>
+    <mergeCell ref="E206:E209"/>
+    <mergeCell ref="F206:F209"/>
+    <mergeCell ref="G206:G209"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>

--- a/03. Satprokar Work/01. Satprokar Primary Work/Summary-02.xlsx
+++ b/03. Satprokar Work/01. Satprokar Primary Work/Summary-02.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="36">
   <si>
     <t xml:space="preserve">ক্রঃ নং </t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t xml:space="preserve">আগস্ট -২০২৪ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">সেপ্টেম্বর -২০২৪ </t>
   </si>
 </sst>
 </file>
@@ -261,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -428,6 +431,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -491,10 +512,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -777,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N210"/>
+  <dimension ref="A1:N245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H180" sqref="H180"/>
+    <sheetView tabSelected="1" topLeftCell="A228" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M222" sqref="M222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -797,40 +818,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="M1" s="76" t="s">
+      <c r="M1" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="76"/>
+      <c r="N1" s="82"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="74" t="s">
+      <c r="A3" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
@@ -847,7 +868,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="74"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="1" t="s">
         <v>5</v>
       </c>
@@ -865,26 +886,26 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="77">
+      <c r="A5" s="84">
         <v>1</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="77">
+      <c r="C5" s="84">
         <v>378</v>
       </c>
-      <c r="D5" s="77">
+      <c r="D5" s="84">
         <v>8874</v>
       </c>
-      <c r="E5" s="77">
+      <c r="E5" s="84">
         <f>SUM(C5:D7)</f>
         <v>9252</v>
       </c>
-      <c r="F5" s="77">
+      <c r="F5" s="84">
         <v>8142</v>
       </c>
-      <c r="G5" s="77">
+      <c r="G5" s="84">
         <f>SUM(E5-F5)</f>
         <v>1110</v>
       </c>
@@ -911,13 +932,13 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="1"/>
       <c r="I6" s="3" t="s">
         <v>11</v>
@@ -941,13 +962,13 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="74"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
       <c r="H7" s="1"/>
       <c r="I7" s="3" t="s">
         <v>12</v>
@@ -971,7 +992,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1167,17 +1188,17 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="77">
+      <c r="A14" s="84">
         <v>5</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
       <c r="H14" s="1"/>
       <c r="I14" s="3" t="s">
         <v>14</v>
@@ -1201,13 +1222,13 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
       <c r="H15" s="1"/>
       <c r="I15" s="3" t="s">
         <v>11</v>
@@ -1231,7 +1252,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
@@ -1282,17 +1303,17 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="77">
+      <c r="A18" s="84">
         <v>6</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
       <c r="H18" s="1"/>
       <c r="I18" s="3" t="s">
         <v>14</v>
@@ -1316,13 +1337,13 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
       <c r="H19" s="1"/>
       <c r="I19" s="3" t="s">
         <v>11</v>
@@ -1346,7 +1367,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="5" t="s">
         <v>13</v>
       </c>
@@ -1397,17 +1418,17 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="77">
+      <c r="A22" s="84">
         <v>7</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
       <c r="H22" s="1"/>
       <c r="I22" s="6" t="s">
         <v>14</v>
@@ -1431,13 +1452,13 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="74"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
       <c r="H23" s="1"/>
       <c r="I23" s="6" t="s">
         <v>15</v>
@@ -1461,13 +1482,13 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="74"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
       <c r="H24" s="1"/>
       <c r="I24" s="6" t="s">
         <v>11</v>
@@ -1491,7 +1512,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="74"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="7" t="s">
         <v>13</v>
       </c>
@@ -1660,13 +1681,13 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="68"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
       <c r="H31" s="1"/>
       <c r="I31" s="6" t="s">
         <v>15</v>
@@ -1693,13 +1714,13 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
       <c r="H32" s="1"/>
       <c r="I32" s="6" t="s">
         <v>11</v>
@@ -1726,13 +1747,13 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
-      <c r="B33" s="69"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
       <c r="H33" s="1"/>
       <c r="I33" s="6" t="s">
         <v>14</v>
@@ -1759,13 +1780,13 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
       <c r="H34" s="1"/>
       <c r="I34" s="3" t="s">
         <v>12</v>
@@ -1792,7 +1813,7 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="70"/>
+      <c r="A35" s="76"/>
       <c r="B35" s="5" t="s">
         <v>17</v>
       </c>
@@ -1842,40 +1863,40 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="M36" s="76" t="s">
+      <c r="M36" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="N36" s="76"/>
+      <c r="N36" s="82"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="54" t="s">
+      <c r="A38" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="54" t="s">
+      <c r="C38" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
       <c r="H38" s="15"/>
-      <c r="I38" s="54" t="s">
+      <c r="I38" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="J38" s="54" t="s">
+      <c r="J38" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="60"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
       <c r="C39" s="15" t="s">
         <v>5</v>
       </c>
@@ -1892,7 +1913,7 @@
         <v>9</v>
       </c>
       <c r="H39" s="15"/>
-      <c r="I39" s="54"/>
+      <c r="I39" s="60"/>
       <c r="J39" s="15" t="s">
         <v>5</v>
       </c>
@@ -1910,27 +1931,27 @@
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="53">
+      <c r="A40" s="59">
         <v>1</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="77">
+      <c r="C40" s="84">
         <f>G5</f>
         <v>1110</v>
       </c>
-      <c r="D40" s="53">
+      <c r="D40" s="59">
         <v>6314</v>
       </c>
-      <c r="E40" s="77">
+      <c r="E40" s="84">
         <f>SUM(C40:D42)</f>
         <v>7424</v>
       </c>
-      <c r="F40" s="53">
+      <c r="F40" s="59">
         <v>7265</v>
       </c>
-      <c r="G40" s="77">
+      <c r="G40" s="84">
         <f>SUM(E40-F40)</f>
         <v>159</v>
       </c>
@@ -1958,13 +1979,13 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="74"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="80"/>
       <c r="H41" s="1"/>
       <c r="I41" s="3" t="s">
         <v>11</v>
@@ -1989,13 +2010,13 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="74"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="80"/>
       <c r="H42" s="1"/>
       <c r="I42" s="3" t="s">
         <v>12</v>
@@ -2020,7 +2041,7 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="12" t="s">
         <v>13</v>
       </c>
@@ -2220,17 +2241,17 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" s="53">
+      <c r="A49" s="59">
         <v>5</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="74"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="74"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="80"/>
       <c r="H49" s="1"/>
       <c r="I49" s="3" t="s">
         <v>14</v>
@@ -2255,13 +2276,13 @@
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
-      <c r="B50" s="55"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="74"/>
+      <c r="A50" s="59"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="80"/>
       <c r="H50" s="1"/>
       <c r="I50" s="3" t="s">
         <v>11</v>
@@ -2286,7 +2307,7 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="12" t="s">
         <v>13</v>
       </c>
@@ -2337,17 +2358,17 @@
       <c r="N52" s="23"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" s="53">
+      <c r="A53" s="59">
         <v>6</v>
       </c>
-      <c r="B53" s="55" t="s">
+      <c r="B53" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="74"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="74"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="80"/>
       <c r="H53" s="1"/>
       <c r="I53" s="3" t="s">
         <v>14</v>
@@ -2372,13 +2393,13 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" s="54"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="74"/>
+      <c r="A54" s="60"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="80"/>
       <c r="H54" s="1"/>
       <c r="I54" s="3" t="s">
         <v>11</v>
@@ -2403,7 +2424,7 @@
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" s="54"/>
+      <c r="A55" s="60"/>
       <c r="B55" s="12" t="s">
         <v>13</v>
       </c>
@@ -2454,17 +2475,17 @@
       <c r="N56" s="23"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" s="53">
+      <c r="A57" s="59">
         <v>7</v>
       </c>
-      <c r="B57" s="55" t="s">
+      <c r="B57" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="74"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="74"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="80"/>
       <c r="H57" s="1"/>
       <c r="I57" s="6" t="s">
         <v>14</v>
@@ -2489,13 +2510,13 @@
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" s="54"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="74"/>
+      <c r="A58" s="60"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="80"/>
       <c r="H58" s="1"/>
       <c r="I58" s="6" t="s">
         <v>15</v>
@@ -2520,13 +2541,13 @@
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" s="54"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="74"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="80"/>
       <c r="H59" s="1"/>
       <c r="I59" s="6" t="s">
         <v>11</v>
@@ -2551,7 +2572,7 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" s="54"/>
+      <c r="A60" s="60"/>
       <c r="B60" s="17" t="s">
         <v>13</v>
       </c>
@@ -2723,13 +2744,13 @@
       <c r="N65" s="23"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66" s="65"/>
-      <c r="B66" s="68"/>
-      <c r="C66" s="68"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="65"/>
-      <c r="G66" s="68"/>
+      <c r="A66" s="71"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="74"/>
       <c r="H66" s="1"/>
       <c r="I66" s="6" t="s">
         <v>15</v>
@@ -2756,13 +2777,13 @@
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67" s="66"/>
-      <c r="B67" s="69"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="69"/>
+      <c r="A67" s="72"/>
+      <c r="B67" s="75"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="72"/>
+      <c r="G67" s="75"/>
       <c r="H67" s="1"/>
       <c r="I67" s="6" t="s">
         <v>11</v>
@@ -2789,13 +2810,13 @@
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68" s="66"/>
-      <c r="B68" s="69"/>
-      <c r="C68" s="69"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="69"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="69"/>
+      <c r="A68" s="72"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="75"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="75"/>
+      <c r="F68" s="72"/>
+      <c r="G68" s="75"/>
       <c r="H68" s="1"/>
       <c r="I68" s="6" t="s">
         <v>14</v>
@@ -2822,13 +2843,13 @@
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69" s="66"/>
-      <c r="B69" s="70"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="70"/>
+      <c r="A69" s="72"/>
+      <c r="B69" s="76"/>
+      <c r="C69" s="76"/>
+      <c r="D69" s="73"/>
+      <c r="E69" s="76"/>
+      <c r="F69" s="73"/>
+      <c r="G69" s="76"/>
       <c r="H69" s="1"/>
       <c r="I69" s="3" t="s">
         <v>12</v>
@@ -2855,7 +2876,7 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70" s="67"/>
+      <c r="A70" s="73"/>
       <c r="B70" s="12" t="s">
         <v>17</v>
       </c>
@@ -2905,40 +2926,40 @@
       </c>
     </row>
     <row r="71" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="M71" s="76" t="s">
+      <c r="M71" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="N71" s="76"/>
+      <c r="N71" s="82"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="54" t="s">
+      <c r="A73" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="54" t="s">
+      <c r="C73" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="54"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="60"/>
       <c r="H73" s="18"/>
-      <c r="I73" s="54" t="s">
+      <c r="I73" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="J73" s="54" t="s">
+      <c r="J73" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="K73" s="54"/>
-      <c r="L73" s="54"/>
-      <c r="M73" s="54"/>
-      <c r="N73" s="54"/>
+      <c r="K73" s="60"/>
+      <c r="L73" s="60"/>
+      <c r="M73" s="60"/>
+      <c r="N73" s="60"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74" s="54"/>
-      <c r="B74" s="54"/>
+      <c r="A74" s="60"/>
+      <c r="B74" s="60"/>
       <c r="C74" s="18" t="s">
         <v>5</v>
       </c>
@@ -2955,7 +2976,7 @@
         <v>9</v>
       </c>
       <c r="H74" s="18"/>
-      <c r="I74" s="54"/>
+      <c r="I74" s="60"/>
       <c r="J74" s="18" t="s">
         <v>5</v>
       </c>
@@ -2973,28 +2994,28 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75" s="53">
+      <c r="A75" s="59">
         <v>1</v>
       </c>
-      <c r="B75" s="55" t="s">
+      <c r="B75" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="56">
+      <c r="C75" s="62">
         <f>G40</f>
         <v>159</v>
       </c>
-      <c r="D75" s="59">
+      <c r="D75" s="65">
         <v>5109</v>
       </c>
-      <c r="E75" s="56">
+      <c r="E75" s="62">
         <f>SUM(C75:D77)</f>
         <v>5268</v>
       </c>
-      <c r="F75" s="62">
+      <c r="F75" s="68">
         <f>SUM(E75-G75)</f>
         <v>4746</v>
       </c>
-      <c r="G75" s="59">
+      <c r="G75" s="65">
         <v>522</v>
       </c>
       <c r="H75" s="9"/>
@@ -3021,13 +3042,13 @@
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76" s="54"/>
-      <c r="B76" s="55"/>
-      <c r="C76" s="57"/>
-      <c r="D76" s="60"/>
-      <c r="E76" s="57"/>
-      <c r="F76" s="63"/>
-      <c r="G76" s="60"/>
+      <c r="A76" s="60"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="63"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="63"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="66"/>
       <c r="H76" s="9"/>
       <c r="I76" s="11" t="s">
         <v>11</v>
@@ -3052,13 +3073,13 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A77" s="54"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="58"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="58"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="61"/>
+      <c r="A77" s="60"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="64"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="67"/>
       <c r="H77" s="9"/>
       <c r="I77" s="11" t="s">
         <v>12</v>
@@ -3083,7 +3104,7 @@
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A78" s="54"/>
+      <c r="A78" s="60"/>
       <c r="B78" s="12" t="s">
         <v>13</v>
       </c>
@@ -3283,17 +3304,17 @@
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A84" s="53">
+      <c r="A84" s="59">
         <v>5</v>
       </c>
-      <c r="B84" s="55" t="s">
+      <c r="B84" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C84" s="74"/>
-      <c r="D84" s="54"/>
-      <c r="E84" s="74"/>
-      <c r="F84" s="75"/>
-      <c r="G84" s="54"/>
+      <c r="C84" s="80"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="80"/>
+      <c r="F84" s="81"/>
+      <c r="G84" s="60"/>
       <c r="H84" s="9"/>
       <c r="I84" s="11" t="s">
         <v>14</v>
@@ -3318,13 +3339,13 @@
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A85" s="53"/>
-      <c r="B85" s="55"/>
-      <c r="C85" s="74"/>
-      <c r="D85" s="54"/>
-      <c r="E85" s="74"/>
-      <c r="F85" s="75"/>
-      <c r="G85" s="54"/>
+      <c r="A85" s="59"/>
+      <c r="B85" s="61"/>
+      <c r="C85" s="80"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="80"/>
+      <c r="F85" s="81"/>
+      <c r="G85" s="60"/>
       <c r="H85" s="9"/>
       <c r="I85" s="11" t="s">
         <v>11</v>
@@ -3349,7 +3370,7 @@
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A86" s="53"/>
+      <c r="A86" s="59"/>
       <c r="B86" s="12" t="s">
         <v>13</v>
       </c>
@@ -3400,17 +3421,17 @@
       <c r="N87" s="23"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A88" s="53">
+      <c r="A88" s="59">
         <v>6</v>
       </c>
-      <c r="B88" s="55" t="s">
+      <c r="B88" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C88" s="74"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="74"/>
-      <c r="F88" s="75"/>
-      <c r="G88" s="54"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="80"/>
+      <c r="F88" s="81"/>
+      <c r="G88" s="60"/>
       <c r="H88" s="9"/>
       <c r="I88" s="11" t="s">
         <v>14</v>
@@ -3435,13 +3456,13 @@
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A89" s="54"/>
-      <c r="B89" s="55"/>
-      <c r="C89" s="74"/>
-      <c r="D89" s="54"/>
-      <c r="E89" s="74"/>
-      <c r="F89" s="75"/>
-      <c r="G89" s="54"/>
+      <c r="A89" s="60"/>
+      <c r="B89" s="61"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="60"/>
+      <c r="E89" s="80"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="60"/>
       <c r="H89" s="9"/>
       <c r="I89" s="11" t="s">
         <v>11</v>
@@ -3466,7 +3487,7 @@
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A90" s="54"/>
+      <c r="A90" s="60"/>
       <c r="B90" s="12" t="s">
         <v>13</v>
       </c>
@@ -3517,27 +3538,27 @@
       <c r="N91" s="23"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A92" s="53">
+      <c r="A92" s="59">
         <v>7</v>
       </c>
-      <c r="B92" s="55" t="s">
+      <c r="B92" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C92" s="78" t="s">
+      <c r="C92" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="D92" s="59">
+      <c r="D92" s="65">
         <v>930</v>
       </c>
-      <c r="E92" s="56">
+      <c r="E92" s="62">
         <f>SUM(C92:D94)</f>
         <v>930</v>
       </c>
-      <c r="F92" s="62">
+      <c r="F92" s="68">
         <f>SUM(E92-G92)</f>
         <v>0</v>
       </c>
-      <c r="G92" s="59">
+      <c r="G92" s="65">
         <v>930</v>
       </c>
       <c r="H92" s="9"/>
@@ -3564,13 +3585,13 @@
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A93" s="54"/>
-      <c r="B93" s="55"/>
-      <c r="C93" s="78"/>
-      <c r="D93" s="60"/>
-      <c r="E93" s="57"/>
-      <c r="F93" s="63"/>
-      <c r="G93" s="60"/>
+      <c r="A93" s="60"/>
+      <c r="B93" s="61"/>
+      <c r="C93" s="83"/>
+      <c r="D93" s="66"/>
+      <c r="E93" s="63"/>
+      <c r="F93" s="69"/>
+      <c r="G93" s="66"/>
       <c r="H93" s="9"/>
       <c r="I93" s="6" t="s">
         <v>15</v>
@@ -3595,13 +3616,13 @@
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A94" s="54"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="78"/>
-      <c r="D94" s="61"/>
-      <c r="E94" s="58"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="61"/>
+      <c r="A94" s="60"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="83"/>
+      <c r="D94" s="67"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="70"/>
+      <c r="G94" s="67"/>
       <c r="H94" s="9"/>
       <c r="I94" s="6" t="s">
         <v>11</v>
@@ -3626,7 +3647,7 @@
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A95" s="54"/>
+      <c r="A95" s="60"/>
       <c r="B95" s="17" t="s">
         <v>13</v>
       </c>
@@ -3810,13 +3831,13 @@
       <c r="N100" s="23"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A101" s="65"/>
-      <c r="B101" s="68"/>
-      <c r="C101" s="68"/>
-      <c r="D101" s="65"/>
-      <c r="E101" s="68"/>
-      <c r="F101" s="71"/>
-      <c r="G101" s="65"/>
+      <c r="A101" s="71"/>
+      <c r="B101" s="74"/>
+      <c r="C101" s="74"/>
+      <c r="D101" s="71"/>
+      <c r="E101" s="74"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="71"/>
       <c r="H101" s="9"/>
       <c r="I101" s="6" t="s">
         <v>15</v>
@@ -3843,13 +3864,13 @@
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A102" s="66"/>
-      <c r="B102" s="69"/>
-      <c r="C102" s="69"/>
-      <c r="D102" s="66"/>
-      <c r="E102" s="69"/>
-      <c r="F102" s="72"/>
-      <c r="G102" s="66"/>
+      <c r="A102" s="72"/>
+      <c r="B102" s="75"/>
+      <c r="C102" s="75"/>
+      <c r="D102" s="72"/>
+      <c r="E102" s="75"/>
+      <c r="F102" s="78"/>
+      <c r="G102" s="72"/>
       <c r="H102" s="9"/>
       <c r="I102" s="6" t="s">
         <v>11</v>
@@ -3876,13 +3897,13 @@
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A103" s="66"/>
-      <c r="B103" s="69"/>
-      <c r="C103" s="69"/>
-      <c r="D103" s="66"/>
-      <c r="E103" s="69"/>
-      <c r="F103" s="72"/>
-      <c r="G103" s="66"/>
+      <c r="A103" s="72"/>
+      <c r="B103" s="75"/>
+      <c r="C103" s="75"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="75"/>
+      <c r="F103" s="78"/>
+      <c r="G103" s="72"/>
       <c r="H103" s="9"/>
       <c r="I103" s="6" t="s">
         <v>14</v>
@@ -3909,13 +3930,13 @@
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A104" s="66"/>
-      <c r="B104" s="70"/>
-      <c r="C104" s="70"/>
-      <c r="D104" s="67"/>
-      <c r="E104" s="70"/>
-      <c r="F104" s="73"/>
-      <c r="G104" s="67"/>
+      <c r="A104" s="72"/>
+      <c r="B104" s="76"/>
+      <c r="C104" s="76"/>
+      <c r="D104" s="73"/>
+      <c r="E104" s="76"/>
+      <c r="F104" s="79"/>
+      <c r="G104" s="73"/>
       <c r="H104" s="9"/>
       <c r="I104" s="11" t="s">
         <v>12</v>
@@ -3942,7 +3963,7 @@
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A105" s="67"/>
+      <c r="A105" s="73"/>
       <c r="B105" s="12" t="s">
         <v>17</v>
       </c>
@@ -3992,40 +4013,40 @@
       </c>
     </row>
     <row r="106" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="M106" s="76" t="s">
+      <c r="M106" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="N106" s="76"/>
+      <c r="N106" s="82"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A108" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108" s="54" t="s">
+      <c r="A108" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C108" s="54" t="s">
+      <c r="C108" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D108" s="54"/>
-      <c r="E108" s="54"/>
-      <c r="F108" s="54"/>
-      <c r="G108" s="54"/>
+      <c r="D108" s="60"/>
+      <c r="E108" s="60"/>
+      <c r="F108" s="60"/>
+      <c r="G108" s="60"/>
       <c r="H108" s="28"/>
-      <c r="I108" s="54" t="s">
+      <c r="I108" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="J108" s="54" t="s">
+      <c r="J108" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="K108" s="54"/>
-      <c r="L108" s="54"/>
-      <c r="M108" s="54"/>
-      <c r="N108" s="54"/>
+      <c r="K108" s="60"/>
+      <c r="L108" s="60"/>
+      <c r="M108" s="60"/>
+      <c r="N108" s="60"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A109" s="54"/>
-      <c r="B109" s="54"/>
+      <c r="A109" s="60"/>
+      <c r="B109" s="60"/>
       <c r="C109" s="28" t="s">
         <v>5</v>
       </c>
@@ -4042,7 +4063,7 @@
         <v>9</v>
       </c>
       <c r="H109" s="28"/>
-      <c r="I109" s="54"/>
+      <c r="I109" s="60"/>
       <c r="J109" s="28" t="s">
         <v>5</v>
       </c>
@@ -4060,28 +4081,28 @@
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A110" s="53">
+      <c r="A110" s="59">
         <v>1</v>
       </c>
-      <c r="B110" s="55" t="s">
+      <c r="B110" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C110" s="56">
+      <c r="C110" s="62">
         <f>G75</f>
         <v>522</v>
       </c>
-      <c r="D110" s="59">
+      <c r="D110" s="65">
         <v>7514</v>
       </c>
-      <c r="E110" s="56">
+      <c r="E110" s="62">
         <f>SUM(C110:D112)</f>
         <v>8036</v>
       </c>
-      <c r="F110" s="62">
+      <c r="F110" s="68">
         <f>SUM(E110-G110)</f>
         <v>7771</v>
       </c>
-      <c r="G110" s="59">
+      <c r="G110" s="65">
         <v>265</v>
       </c>
       <c r="H110" s="31"/>
@@ -4108,13 +4129,13 @@
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A111" s="54"/>
-      <c r="B111" s="55"/>
-      <c r="C111" s="57"/>
-      <c r="D111" s="60"/>
-      <c r="E111" s="57"/>
-      <c r="F111" s="63"/>
-      <c r="G111" s="60"/>
+      <c r="A111" s="60"/>
+      <c r="B111" s="61"/>
+      <c r="C111" s="63"/>
+      <c r="D111" s="66"/>
+      <c r="E111" s="63"/>
+      <c r="F111" s="69"/>
+      <c r="G111" s="66"/>
       <c r="H111" s="31"/>
       <c r="I111" s="30" t="s">
         <v>11</v>
@@ -4139,13 +4160,13 @@
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A112" s="54"/>
-      <c r="B112" s="55"/>
-      <c r="C112" s="58"/>
-      <c r="D112" s="61"/>
-      <c r="E112" s="58"/>
-      <c r="F112" s="64"/>
-      <c r="G112" s="61"/>
+      <c r="A112" s="60"/>
+      <c r="B112" s="61"/>
+      <c r="C112" s="64"/>
+      <c r="D112" s="67"/>
+      <c r="E112" s="64"/>
+      <c r="F112" s="70"/>
+      <c r="G112" s="67"/>
       <c r="H112" s="31"/>
       <c r="I112" s="30" t="s">
         <v>12</v>
@@ -4170,7 +4191,7 @@
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A113" s="54"/>
+      <c r="A113" s="60"/>
       <c r="B113" s="12" t="s">
         <v>13</v>
       </c>
@@ -4370,17 +4391,17 @@
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A119" s="53">
+      <c r="A119" s="59">
         <v>5</v>
       </c>
-      <c r="B119" s="55" t="s">
+      <c r="B119" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C119" s="74"/>
-      <c r="D119" s="54"/>
-      <c r="E119" s="74"/>
-      <c r="F119" s="75"/>
-      <c r="G119" s="54"/>
+      <c r="C119" s="80"/>
+      <c r="D119" s="60"/>
+      <c r="E119" s="80"/>
+      <c r="F119" s="81"/>
+      <c r="G119" s="60"/>
       <c r="H119" s="31"/>
       <c r="I119" s="30" t="s">
         <v>14</v>
@@ -4405,13 +4426,13 @@
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A120" s="53"/>
-      <c r="B120" s="55"/>
-      <c r="C120" s="74"/>
-      <c r="D120" s="54"/>
-      <c r="E120" s="74"/>
-      <c r="F120" s="75"/>
-      <c r="G120" s="54"/>
+      <c r="A120" s="59"/>
+      <c r="B120" s="61"/>
+      <c r="C120" s="80"/>
+      <c r="D120" s="60"/>
+      <c r="E120" s="80"/>
+      <c r="F120" s="81"/>
+      <c r="G120" s="60"/>
       <c r="H120" s="31"/>
       <c r="I120" s="30" t="s">
         <v>11</v>
@@ -4436,7 +4457,7 @@
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A121" s="53"/>
+      <c r="A121" s="59"/>
       <c r="B121" s="12" t="s">
         <v>13</v>
       </c>
@@ -4487,17 +4508,17 @@
       <c r="N122" s="28"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A123" s="53">
+      <c r="A123" s="59">
         <v>6</v>
       </c>
-      <c r="B123" s="55" t="s">
+      <c r="B123" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C123" s="74"/>
-      <c r="D123" s="54"/>
-      <c r="E123" s="74"/>
-      <c r="F123" s="75"/>
-      <c r="G123" s="54"/>
+      <c r="C123" s="80"/>
+      <c r="D123" s="60"/>
+      <c r="E123" s="80"/>
+      <c r="F123" s="81"/>
+      <c r="G123" s="60"/>
       <c r="H123" s="31"/>
       <c r="I123" s="30" t="s">
         <v>14</v>
@@ -4522,13 +4543,13 @@
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A124" s="54"/>
-      <c r="B124" s="55"/>
-      <c r="C124" s="74"/>
-      <c r="D124" s="54"/>
-      <c r="E124" s="74"/>
-      <c r="F124" s="75"/>
-      <c r="G124" s="54"/>
+      <c r="A124" s="60"/>
+      <c r="B124" s="61"/>
+      <c r="C124" s="80"/>
+      <c r="D124" s="60"/>
+      <c r="E124" s="80"/>
+      <c r="F124" s="81"/>
+      <c r="G124" s="60"/>
       <c r="H124" s="31"/>
       <c r="I124" s="30" t="s">
         <v>11</v>
@@ -4553,7 +4574,7 @@
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A125" s="54"/>
+      <c r="A125" s="60"/>
       <c r="B125" s="12" t="s">
         <v>13</v>
       </c>
@@ -4604,28 +4625,28 @@
       <c r="N126" s="28"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A127" s="53">
+      <c r="A127" s="59">
         <v>7</v>
       </c>
-      <c r="B127" s="55" t="s">
+      <c r="B127" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C127" s="56">
+      <c r="C127" s="62">
         <f t="shared" ref="C127" si="89">G92</f>
         <v>930</v>
       </c>
-      <c r="D127" s="59">
+      <c r="D127" s="65">
         <v>297</v>
       </c>
-      <c r="E127" s="56">
+      <c r="E127" s="62">
         <f t="shared" ref="E127" si="90">SUM(C127:D127)</f>
         <v>1227</v>
       </c>
-      <c r="F127" s="62">
+      <c r="F127" s="68">
         <f t="shared" ref="F127" si="91">SUM(E127-G127)</f>
         <v>293</v>
       </c>
-      <c r="G127" s="59">
+      <c r="G127" s="65">
         <v>934</v>
       </c>
       <c r="H127" s="31"/>
@@ -4652,13 +4673,13 @@
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A128" s="54"/>
-      <c r="B128" s="55"/>
-      <c r="C128" s="57"/>
-      <c r="D128" s="60"/>
-      <c r="E128" s="57"/>
-      <c r="F128" s="63"/>
-      <c r="G128" s="60"/>
+      <c r="A128" s="60"/>
+      <c r="B128" s="61"/>
+      <c r="C128" s="63"/>
+      <c r="D128" s="66"/>
+      <c r="E128" s="63"/>
+      <c r="F128" s="69"/>
+      <c r="G128" s="66"/>
       <c r="H128" s="31"/>
       <c r="I128" s="6" t="s">
         <v>15</v>
@@ -4683,13 +4704,13 @@
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A129" s="54"/>
-      <c r="B129" s="55"/>
-      <c r="C129" s="58"/>
-      <c r="D129" s="61"/>
-      <c r="E129" s="58"/>
-      <c r="F129" s="64"/>
-      <c r="G129" s="61"/>
+      <c r="A129" s="60"/>
+      <c r="B129" s="61"/>
+      <c r="C129" s="64"/>
+      <c r="D129" s="67"/>
+      <c r="E129" s="64"/>
+      <c r="F129" s="70"/>
+      <c r="G129" s="67"/>
       <c r="H129" s="31"/>
       <c r="I129" s="6" t="s">
         <v>11</v>
@@ -4714,7 +4735,7 @@
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A130" s="54"/>
+      <c r="A130" s="60"/>
       <c r="B130" s="17" t="s">
         <v>13</v>
       </c>
@@ -4901,13 +4922,13 @@
       <c r="N135" s="28"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A136" s="65"/>
-      <c r="B136" s="68"/>
-      <c r="C136" s="68"/>
-      <c r="D136" s="65"/>
-      <c r="E136" s="68"/>
-      <c r="F136" s="71"/>
-      <c r="G136" s="65"/>
+      <c r="A136" s="71"/>
+      <c r="B136" s="74"/>
+      <c r="C136" s="74"/>
+      <c r="D136" s="71"/>
+      <c r="E136" s="74"/>
+      <c r="F136" s="77"/>
+      <c r="G136" s="71"/>
       <c r="H136" s="31"/>
       <c r="I136" s="33" t="s">
         <v>15</v>
@@ -4934,13 +4955,13 @@
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A137" s="66"/>
-      <c r="B137" s="69"/>
-      <c r="C137" s="69"/>
-      <c r="D137" s="66"/>
-      <c r="E137" s="69"/>
-      <c r="F137" s="72"/>
-      <c r="G137" s="66"/>
+      <c r="A137" s="72"/>
+      <c r="B137" s="75"/>
+      <c r="C137" s="75"/>
+      <c r="D137" s="72"/>
+      <c r="E137" s="75"/>
+      <c r="F137" s="78"/>
+      <c r="G137" s="72"/>
       <c r="H137" s="31"/>
       <c r="I137" s="33" t="s">
         <v>11</v>
@@ -4967,13 +4988,13 @@
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A138" s="66"/>
-      <c r="B138" s="69"/>
-      <c r="C138" s="69"/>
-      <c r="D138" s="66"/>
-      <c r="E138" s="69"/>
-      <c r="F138" s="72"/>
-      <c r="G138" s="66"/>
+      <c r="A138" s="72"/>
+      <c r="B138" s="75"/>
+      <c r="C138" s="75"/>
+      <c r="D138" s="72"/>
+      <c r="E138" s="75"/>
+      <c r="F138" s="78"/>
+      <c r="G138" s="72"/>
       <c r="H138" s="31"/>
       <c r="I138" s="33" t="s">
         <v>14</v>
@@ -5000,13 +5021,13 @@
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A139" s="66"/>
-      <c r="B139" s="70"/>
-      <c r="C139" s="70"/>
-      <c r="D139" s="67"/>
-      <c r="E139" s="70"/>
-      <c r="F139" s="73"/>
-      <c r="G139" s="67"/>
+      <c r="A139" s="72"/>
+      <c r="B139" s="76"/>
+      <c r="C139" s="76"/>
+      <c r="D139" s="73"/>
+      <c r="E139" s="76"/>
+      <c r="F139" s="79"/>
+      <c r="G139" s="73"/>
       <c r="H139" s="31"/>
       <c r="I139" s="37" t="s">
         <v>12</v>
@@ -5033,7 +5054,7 @@
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A140" s="67"/>
+      <c r="A140" s="73"/>
       <c r="B140" s="12" t="s">
         <v>17</v>
       </c>
@@ -5083,40 +5104,40 @@
       </c>
     </row>
     <row r="141" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="M141" s="76" t="s">
+      <c r="M141" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="N141" s="76"/>
+      <c r="N141" s="82"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A143" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B143" s="54" t="s">
+      <c r="A143" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C143" s="54" t="s">
+      <c r="C143" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D143" s="54"/>
-      <c r="E143" s="54"/>
-      <c r="F143" s="54"/>
-      <c r="G143" s="54"/>
+      <c r="D143" s="60"/>
+      <c r="E143" s="60"/>
+      <c r="F143" s="60"/>
+      <c r="G143" s="60"/>
       <c r="H143" s="41"/>
-      <c r="I143" s="54" t="s">
+      <c r="I143" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="J143" s="54" t="s">
+      <c r="J143" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="K143" s="54"/>
-      <c r="L143" s="54"/>
-      <c r="M143" s="54"/>
-      <c r="N143" s="54"/>
+      <c r="K143" s="60"/>
+      <c r="L143" s="60"/>
+      <c r="M143" s="60"/>
+      <c r="N143" s="60"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A144" s="54"/>
-      <c r="B144" s="54"/>
+      <c r="A144" s="60"/>
+      <c r="B144" s="60"/>
       <c r="C144" s="41" t="s">
         <v>5</v>
       </c>
@@ -5133,7 +5154,7 @@
         <v>9</v>
       </c>
       <c r="H144" s="41"/>
-      <c r="I144" s="54"/>
+      <c r="I144" s="60"/>
       <c r="J144" s="41" t="s">
         <v>5</v>
       </c>
@@ -5151,28 +5172,28 @@
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A145" s="53">
+      <c r="A145" s="59">
         <v>1</v>
       </c>
-      <c r="B145" s="55" t="s">
+      <c r="B145" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C145" s="56">
+      <c r="C145" s="62">
         <f>G110</f>
         <v>265</v>
       </c>
-      <c r="D145" s="59">
+      <c r="D145" s="65">
         <v>5254</v>
       </c>
-      <c r="E145" s="56">
+      <c r="E145" s="62">
         <f>SUM(C145:D147)</f>
         <v>5519</v>
       </c>
-      <c r="F145" s="62">
+      <c r="F145" s="68">
         <f>SUM(E145-G145)</f>
         <v>4881</v>
       </c>
-      <c r="G145" s="59">
+      <c r="G145" s="65">
         <v>638</v>
       </c>
       <c r="H145" s="39"/>
@@ -5199,13 +5220,13 @@
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A146" s="54"/>
-      <c r="B146" s="55"/>
-      <c r="C146" s="57"/>
-      <c r="D146" s="60"/>
-      <c r="E146" s="57"/>
-      <c r="F146" s="63"/>
-      <c r="G146" s="60"/>
+      <c r="A146" s="60"/>
+      <c r="B146" s="61"/>
+      <c r="C146" s="63"/>
+      <c r="D146" s="66"/>
+      <c r="E146" s="63"/>
+      <c r="F146" s="69"/>
+      <c r="G146" s="66"/>
       <c r="H146" s="39"/>
       <c r="I146" s="40" t="s">
         <v>11</v>
@@ -5230,13 +5251,13 @@
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A147" s="54"/>
-      <c r="B147" s="55"/>
-      <c r="C147" s="58"/>
-      <c r="D147" s="61"/>
-      <c r="E147" s="58"/>
-      <c r="F147" s="64"/>
-      <c r="G147" s="61"/>
+      <c r="A147" s="60"/>
+      <c r="B147" s="61"/>
+      <c r="C147" s="64"/>
+      <c r="D147" s="67"/>
+      <c r="E147" s="64"/>
+      <c r="F147" s="70"/>
+      <c r="G147" s="67"/>
       <c r="H147" s="39"/>
       <c r="I147" s="40" t="s">
         <v>12</v>
@@ -5261,7 +5282,7 @@
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A148" s="54"/>
+      <c r="A148" s="60"/>
       <c r="B148" s="44" t="s">
         <v>13</v>
       </c>
@@ -5461,17 +5482,17 @@
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A154" s="53">
+      <c r="A154" s="59">
         <v>5</v>
       </c>
-      <c r="B154" s="55" t="s">
+      <c r="B154" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C154" s="74"/>
-      <c r="D154" s="54"/>
-      <c r="E154" s="74"/>
-      <c r="F154" s="75"/>
-      <c r="G154" s="54"/>
+      <c r="C154" s="80"/>
+      <c r="D154" s="60"/>
+      <c r="E154" s="80"/>
+      <c r="F154" s="81"/>
+      <c r="G154" s="60"/>
       <c r="H154" s="39"/>
       <c r="I154" s="40" t="s">
         <v>14</v>
@@ -5496,13 +5517,13 @@
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A155" s="53"/>
-      <c r="B155" s="55"/>
-      <c r="C155" s="74"/>
-      <c r="D155" s="54"/>
-      <c r="E155" s="74"/>
-      <c r="F155" s="75"/>
-      <c r="G155" s="54"/>
+      <c r="A155" s="59"/>
+      <c r="B155" s="61"/>
+      <c r="C155" s="80"/>
+      <c r="D155" s="60"/>
+      <c r="E155" s="80"/>
+      <c r="F155" s="81"/>
+      <c r="G155" s="60"/>
       <c r="H155" s="39"/>
       <c r="I155" s="40" t="s">
         <v>11</v>
@@ -5527,7 +5548,7 @@
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A156" s="53"/>
+      <c r="A156" s="59"/>
       <c r="B156" s="44" t="s">
         <v>13</v>
       </c>
@@ -5578,17 +5599,17 @@
       <c r="N157" s="41"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A158" s="53">
+      <c r="A158" s="59">
         <v>6</v>
       </c>
-      <c r="B158" s="55" t="s">
+      <c r="B158" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C158" s="74"/>
-      <c r="D158" s="54"/>
-      <c r="E158" s="74"/>
-      <c r="F158" s="75"/>
-      <c r="G158" s="54"/>
+      <c r="C158" s="80"/>
+      <c r="D158" s="60"/>
+      <c r="E158" s="80"/>
+      <c r="F158" s="81"/>
+      <c r="G158" s="60"/>
       <c r="H158" s="39"/>
       <c r="I158" s="40" t="s">
         <v>14</v>
@@ -5613,13 +5634,13 @@
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A159" s="54"/>
-      <c r="B159" s="55"/>
-      <c r="C159" s="74"/>
-      <c r="D159" s="54"/>
-      <c r="E159" s="74"/>
-      <c r="F159" s="75"/>
-      <c r="G159" s="54"/>
+      <c r="A159" s="60"/>
+      <c r="B159" s="61"/>
+      <c r="C159" s="80"/>
+      <c r="D159" s="60"/>
+      <c r="E159" s="80"/>
+      <c r="F159" s="81"/>
+      <c r="G159" s="60"/>
       <c r="H159" s="39"/>
       <c r="I159" s="40" t="s">
         <v>11</v>
@@ -5644,7 +5665,7 @@
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A160" s="54"/>
+      <c r="A160" s="60"/>
       <c r="B160" s="44" t="s">
         <v>13</v>
       </c>
@@ -5695,28 +5716,28 @@
       <c r="N161" s="41"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A162" s="53">
+      <c r="A162" s="59">
         <v>7</v>
       </c>
-      <c r="B162" s="55" t="s">
+      <c r="B162" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C162" s="56">
+      <c r="C162" s="62">
         <f t="shared" ref="C162" si="118">G127</f>
         <v>934</v>
       </c>
-      <c r="D162" s="59">
+      <c r="D162" s="65">
         <v>229</v>
       </c>
-      <c r="E162" s="56">
+      <c r="E162" s="62">
         <f t="shared" ref="E162" si="119">SUM(C162:D162)</f>
         <v>1163</v>
       </c>
-      <c r="F162" s="62">
+      <c r="F162" s="68">
         <f t="shared" ref="F162" si="120">SUM(E162-G162)</f>
         <v>637</v>
       </c>
-      <c r="G162" s="59">
+      <c r="G162" s="65">
         <v>526</v>
       </c>
       <c r="H162" s="39"/>
@@ -5743,13 +5764,13 @@
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A163" s="54"/>
-      <c r="B163" s="55"/>
-      <c r="C163" s="57"/>
-      <c r="D163" s="60"/>
-      <c r="E163" s="57"/>
-      <c r="F163" s="63"/>
-      <c r="G163" s="60"/>
+      <c r="A163" s="60"/>
+      <c r="B163" s="61"/>
+      <c r="C163" s="63"/>
+      <c r="D163" s="66"/>
+      <c r="E163" s="63"/>
+      <c r="F163" s="69"/>
+      <c r="G163" s="66"/>
       <c r="H163" s="39"/>
       <c r="I163" s="6" t="s">
         <v>15</v>
@@ -5774,13 +5795,13 @@
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A164" s="54"/>
-      <c r="B164" s="55"/>
-      <c r="C164" s="58"/>
-      <c r="D164" s="61"/>
-      <c r="E164" s="58"/>
-      <c r="F164" s="64"/>
-      <c r="G164" s="61"/>
+      <c r="A164" s="60"/>
+      <c r="B164" s="61"/>
+      <c r="C164" s="64"/>
+      <c r="D164" s="67"/>
+      <c r="E164" s="64"/>
+      <c r="F164" s="70"/>
+      <c r="G164" s="67"/>
       <c r="H164" s="39"/>
       <c r="I164" s="6" t="s">
         <v>11</v>
@@ -5805,7 +5826,7 @@
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A165" s="54"/>
+      <c r="A165" s="60"/>
       <c r="B165" s="46" t="s">
         <v>13</v>
       </c>
@@ -5992,13 +6013,13 @@
       <c r="N170" s="41"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A171" s="65"/>
-      <c r="B171" s="68"/>
-      <c r="C171" s="68"/>
-      <c r="D171" s="65"/>
-      <c r="E171" s="68"/>
-      <c r="F171" s="71"/>
-      <c r="G171" s="65"/>
+      <c r="A171" s="71"/>
+      <c r="B171" s="74"/>
+      <c r="C171" s="74"/>
+      <c r="D171" s="71"/>
+      <c r="E171" s="74"/>
+      <c r="F171" s="77"/>
+      <c r="G171" s="71"/>
       <c r="H171" s="39"/>
       <c r="I171" s="33" t="s">
         <v>15</v>
@@ -6025,13 +6046,13 @@
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A172" s="66"/>
-      <c r="B172" s="69"/>
-      <c r="C172" s="69"/>
-      <c r="D172" s="66"/>
-      <c r="E172" s="69"/>
-      <c r="F172" s="72"/>
-      <c r="G172" s="66"/>
+      <c r="A172" s="72"/>
+      <c r="B172" s="75"/>
+      <c r="C172" s="75"/>
+      <c r="D172" s="72"/>
+      <c r="E172" s="75"/>
+      <c r="F172" s="78"/>
+      <c r="G172" s="72"/>
       <c r="H172" s="39"/>
       <c r="I172" s="33" t="s">
         <v>11</v>
@@ -6058,13 +6079,13 @@
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A173" s="66"/>
-      <c r="B173" s="69"/>
-      <c r="C173" s="69"/>
-      <c r="D173" s="66"/>
-      <c r="E173" s="69"/>
-      <c r="F173" s="72"/>
-      <c r="G173" s="66"/>
+      <c r="A173" s="72"/>
+      <c r="B173" s="75"/>
+      <c r="C173" s="75"/>
+      <c r="D173" s="72"/>
+      <c r="E173" s="75"/>
+      <c r="F173" s="78"/>
+      <c r="G173" s="72"/>
       <c r="H173" s="39"/>
       <c r="I173" s="33" t="s">
         <v>14</v>
@@ -6091,13 +6112,13 @@
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A174" s="66"/>
-      <c r="B174" s="70"/>
-      <c r="C174" s="70"/>
-      <c r="D174" s="67"/>
-      <c r="E174" s="70"/>
-      <c r="F174" s="73"/>
-      <c r="G174" s="67"/>
+      <c r="A174" s="72"/>
+      <c r="B174" s="76"/>
+      <c r="C174" s="76"/>
+      <c r="D174" s="73"/>
+      <c r="E174" s="76"/>
+      <c r="F174" s="79"/>
+      <c r="G174" s="73"/>
       <c r="H174" s="39"/>
       <c r="I174" s="37" t="s">
         <v>12</v>
@@ -6124,7 +6145,7 @@
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A175" s="67"/>
+      <c r="A175" s="73"/>
       <c r="B175" s="44" t="s">
         <v>17</v>
       </c>
@@ -6174,40 +6195,40 @@
       </c>
     </row>
     <row r="176" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="M176" s="76" t="s">
+      <c r="M176" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="N176" s="76"/>
+      <c r="N176" s="82"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A178" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B178" s="54" t="s">
+      <c r="A178" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B178" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C178" s="54" t="s">
+      <c r="C178" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D178" s="54"/>
-      <c r="E178" s="54"/>
-      <c r="F178" s="54"/>
-      <c r="G178" s="54"/>
+      <c r="D178" s="60"/>
+      <c r="E178" s="60"/>
+      <c r="F178" s="60"/>
+      <c r="G178" s="60"/>
       <c r="H178" s="48"/>
-      <c r="I178" s="54" t="s">
+      <c r="I178" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="J178" s="54" t="s">
+      <c r="J178" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="K178" s="54"/>
-      <c r="L178" s="54"/>
-      <c r="M178" s="54"/>
-      <c r="N178" s="54"/>
+      <c r="K178" s="60"/>
+      <c r="L178" s="60"/>
+      <c r="M178" s="60"/>
+      <c r="N178" s="60"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A179" s="54"/>
-      <c r="B179" s="54"/>
+      <c r="A179" s="60"/>
+      <c r="B179" s="60"/>
       <c r="C179" s="48" t="s">
         <v>5</v>
       </c>
@@ -6224,7 +6245,7 @@
         <v>9</v>
       </c>
       <c r="H179" s="48"/>
-      <c r="I179" s="54"/>
+      <c r="I179" s="60"/>
       <c r="J179" s="48" t="s">
         <v>5</v>
       </c>
@@ -6242,28 +6263,28 @@
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A180" s="53">
+      <c r="A180" s="59">
         <v>1</v>
       </c>
-      <c r="B180" s="55" t="s">
+      <c r="B180" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="C180" s="56">
+      <c r="C180" s="62">
         <f>G145</f>
         <v>638</v>
       </c>
-      <c r="D180" s="59">
+      <c r="D180" s="65">
         <v>6757</v>
       </c>
-      <c r="E180" s="56">
+      <c r="E180" s="62">
         <f>SUM(C180:D182)</f>
         <v>7395</v>
       </c>
-      <c r="F180" s="62">
+      <c r="F180" s="68">
         <f>SUM(E180-G180)</f>
         <v>7167</v>
       </c>
-      <c r="G180" s="59">
+      <c r="G180" s="65">
         <v>228</v>
       </c>
       <c r="H180" s="50"/>
@@ -6275,28 +6296,28 @@
         <v>3953</v>
       </c>
       <c r="K180" s="47">
-        <v>8026</v>
+        <v>7854</v>
       </c>
       <c r="L180" s="52">
         <f>SUM(J180:K180)</f>
-        <v>11979</v>
+        <v>11807</v>
       </c>
       <c r="M180" s="26">
         <f>SUM(L180-N180)</f>
         <v>7127</v>
       </c>
       <c r="N180" s="47">
-        <v>4852</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A181" s="54"/>
-      <c r="B181" s="55"/>
-      <c r="C181" s="57"/>
-      <c r="D181" s="60"/>
-      <c r="E181" s="57"/>
-      <c r="F181" s="63"/>
-      <c r="G181" s="60"/>
+      <c r="A181" s="60"/>
+      <c r="B181" s="61"/>
+      <c r="C181" s="63"/>
+      <c r="D181" s="66"/>
+      <c r="E181" s="63"/>
+      <c r="F181" s="69"/>
+      <c r="G181" s="66"/>
       <c r="H181" s="50"/>
       <c r="I181" s="49" t="s">
         <v>11</v>
@@ -6306,28 +6327,28 @@
         <v>254</v>
       </c>
       <c r="K181" s="47">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="L181" s="52">
         <f t="shared" ref="L181:L182" si="133">SUM(J181:K181)</f>
-        <v>254</v>
+        <v>426</v>
       </c>
       <c r="M181" s="26">
         <f t="shared" ref="M181:M182" si="134">SUM(L181-N181)</f>
         <v>83</v>
       </c>
       <c r="N181" s="47">
-        <v>171</v>
+        <v>343</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A182" s="54"/>
-      <c r="B182" s="55"/>
-      <c r="C182" s="58"/>
-      <c r="D182" s="61"/>
-      <c r="E182" s="58"/>
-      <c r="F182" s="64"/>
-      <c r="G182" s="61"/>
+      <c r="A182" s="60"/>
+      <c r="B182" s="61"/>
+      <c r="C182" s="64"/>
+      <c r="D182" s="67"/>
+      <c r="E182" s="64"/>
+      <c r="F182" s="70"/>
+      <c r="G182" s="67"/>
       <c r="H182" s="50"/>
       <c r="I182" s="49" t="s">
         <v>12</v>
@@ -6352,7 +6373,7 @@
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A183" s="54"/>
+      <c r="A183" s="60"/>
       <c r="B183" s="44" t="s">
         <v>13</v>
       </c>
@@ -6552,17 +6573,17 @@
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A189" s="53">
+      <c r="A189" s="59">
         <v>5</v>
       </c>
-      <c r="B189" s="55" t="s">
+      <c r="B189" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C189" s="74"/>
-      <c r="D189" s="54"/>
-      <c r="E189" s="74"/>
-      <c r="F189" s="75"/>
-      <c r="G189" s="54"/>
+      <c r="C189" s="80"/>
+      <c r="D189" s="60"/>
+      <c r="E189" s="80"/>
+      <c r="F189" s="81"/>
+      <c r="G189" s="60"/>
       <c r="H189" s="50"/>
       <c r="I189" s="49" t="s">
         <v>14</v>
@@ -6587,13 +6608,13 @@
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A190" s="53"/>
-      <c r="B190" s="55"/>
-      <c r="C190" s="74"/>
-      <c r="D190" s="54"/>
-      <c r="E190" s="74"/>
-      <c r="F190" s="75"/>
-      <c r="G190" s="54"/>
+      <c r="A190" s="59"/>
+      <c r="B190" s="61"/>
+      <c r="C190" s="80"/>
+      <c r="D190" s="60"/>
+      <c r="E190" s="80"/>
+      <c r="F190" s="81"/>
+      <c r="G190" s="60"/>
       <c r="H190" s="50"/>
       <c r="I190" s="49" t="s">
         <v>11</v>
@@ -6618,7 +6639,7 @@
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A191" s="53"/>
+      <c r="A191" s="59"/>
       <c r="B191" s="44" t="s">
         <v>13</v>
       </c>
@@ -6669,17 +6690,17 @@
       <c r="N192" s="48"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A193" s="53">
+      <c r="A193" s="59">
         <v>6</v>
       </c>
-      <c r="B193" s="55" t="s">
+      <c r="B193" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C193" s="74"/>
-      <c r="D193" s="54"/>
-      <c r="E193" s="74"/>
-      <c r="F193" s="75"/>
-      <c r="G193" s="54"/>
+      <c r="C193" s="80"/>
+      <c r="D193" s="60"/>
+      <c r="E193" s="80"/>
+      <c r="F193" s="81"/>
+      <c r="G193" s="60"/>
       <c r="H193" s="50"/>
       <c r="I193" s="49" t="s">
         <v>14</v>
@@ -6704,13 +6725,13 @@
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A194" s="54"/>
-      <c r="B194" s="55"/>
-      <c r="C194" s="74"/>
-      <c r="D194" s="54"/>
-      <c r="E194" s="74"/>
-      <c r="F194" s="75"/>
-      <c r="G194" s="54"/>
+      <c r="A194" s="60"/>
+      <c r="B194" s="61"/>
+      <c r="C194" s="80"/>
+      <c r="D194" s="60"/>
+      <c r="E194" s="80"/>
+      <c r="F194" s="81"/>
+      <c r="G194" s="60"/>
       <c r="H194" s="50"/>
       <c r="I194" s="49" t="s">
         <v>11</v>
@@ -6735,7 +6756,7 @@
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A195" s="54"/>
+      <c r="A195" s="60"/>
       <c r="B195" s="44" t="s">
         <v>13</v>
       </c>
@@ -6786,28 +6807,28 @@
       <c r="N196" s="48"/>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A197" s="53">
+      <c r="A197" s="59">
         <v>7</v>
       </c>
-      <c r="B197" s="55" t="s">
+      <c r="B197" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C197" s="56">
+      <c r="C197" s="62">
         <f t="shared" ref="C197" si="147">G162</f>
         <v>526</v>
       </c>
-      <c r="D197" s="59">
-        <v>0</v>
-      </c>
-      <c r="E197" s="56">
+      <c r="D197" s="65">
+        <v>0</v>
+      </c>
+      <c r="E197" s="62">
         <f t="shared" ref="E197" si="148">SUM(C197:D197)</f>
         <v>526</v>
       </c>
-      <c r="F197" s="62">
+      <c r="F197" s="68">
         <f t="shared" ref="F197" si="149">SUM(E197-G197)</f>
         <v>526</v>
       </c>
-      <c r="G197" s="59">
+      <c r="G197" s="65">
         <v>0</v>
       </c>
       <c r="H197" s="50"/>
@@ -6834,13 +6855,13 @@
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A198" s="54"/>
-      <c r="B198" s="55"/>
-      <c r="C198" s="57"/>
-      <c r="D198" s="60"/>
-      <c r="E198" s="57"/>
-      <c r="F198" s="63"/>
-      <c r="G198" s="60"/>
+      <c r="A198" s="60"/>
+      <c r="B198" s="61"/>
+      <c r="C198" s="63"/>
+      <c r="D198" s="66"/>
+      <c r="E198" s="63"/>
+      <c r="F198" s="69"/>
+      <c r="G198" s="66"/>
       <c r="H198" s="50"/>
       <c r="I198" s="6" t="s">
         <v>15</v>
@@ -6865,13 +6886,13 @@
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A199" s="54"/>
-      <c r="B199" s="55"/>
-      <c r="C199" s="58"/>
-      <c r="D199" s="61"/>
-      <c r="E199" s="58"/>
-      <c r="F199" s="64"/>
-      <c r="G199" s="61"/>
+      <c r="A199" s="60"/>
+      <c r="B199" s="61"/>
+      <c r="C199" s="64"/>
+      <c r="D199" s="67"/>
+      <c r="E199" s="64"/>
+      <c r="F199" s="70"/>
+      <c r="G199" s="67"/>
       <c r="H199" s="50"/>
       <c r="I199" s="6" t="s">
         <v>11</v>
@@ -6896,7 +6917,7 @@
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A200" s="54"/>
+      <c r="A200" s="60"/>
       <c r="B200" s="46" t="s">
         <v>13</v>
       </c>
@@ -7083,13 +7104,13 @@
       <c r="N205" s="48"/>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A206" s="65"/>
-      <c r="B206" s="68"/>
-      <c r="C206" s="68"/>
-      <c r="D206" s="65"/>
-      <c r="E206" s="68"/>
-      <c r="F206" s="71"/>
-      <c r="G206" s="65"/>
+      <c r="A206" s="71"/>
+      <c r="B206" s="74"/>
+      <c r="C206" s="74"/>
+      <c r="D206" s="71"/>
+      <c r="E206" s="74"/>
+      <c r="F206" s="77"/>
+      <c r="G206" s="71"/>
       <c r="H206" s="50"/>
       <c r="I206" s="33" t="s">
         <v>15</v>
@@ -7100,11 +7121,11 @@
       </c>
       <c r="K206" s="35">
         <f>SUM(K180+K198+K204)</f>
-        <v>8026</v>
+        <v>7854</v>
       </c>
       <c r="L206" s="34">
         <f>SUM(L180+L198+L204)</f>
-        <v>11979</v>
+        <v>11807</v>
       </c>
       <c r="M206" s="36">
         <f>SUM(M180+M198+M204)</f>
@@ -7112,17 +7133,17 @@
       </c>
       <c r="N206" s="35">
         <f>SUM(N180+N198+N204)</f>
-        <v>4852</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A207" s="66"/>
-      <c r="B207" s="69"/>
-      <c r="C207" s="69"/>
-      <c r="D207" s="66"/>
-      <c r="E207" s="69"/>
-      <c r="F207" s="72"/>
-      <c r="G207" s="66"/>
+      <c r="A207" s="72"/>
+      <c r="B207" s="75"/>
+      <c r="C207" s="75"/>
+      <c r="D207" s="72"/>
+      <c r="E207" s="75"/>
+      <c r="F207" s="78"/>
+      <c r="G207" s="72"/>
       <c r="H207" s="50"/>
       <c r="I207" s="33" t="s">
         <v>11</v>
@@ -7133,11 +7154,11 @@
       </c>
       <c r="K207" s="35">
         <f t="shared" ref="K207:N207" si="157">SUM(K181+K190+K194+K199)</f>
-        <v>2045</v>
+        <v>2217</v>
       </c>
       <c r="L207" s="34">
         <f t="shared" si="157"/>
-        <v>4775</v>
+        <v>4947</v>
       </c>
       <c r="M207" s="36">
         <f t="shared" si="157"/>
@@ -7145,17 +7166,17 @@
       </c>
       <c r="N207" s="35">
         <f t="shared" si="157"/>
-        <v>3557</v>
+        <v>3729</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A208" s="66"/>
-      <c r="B208" s="69"/>
-      <c r="C208" s="69"/>
-      <c r="D208" s="66"/>
-      <c r="E208" s="69"/>
-      <c r="F208" s="72"/>
-      <c r="G208" s="66"/>
+      <c r="A208" s="72"/>
+      <c r="B208" s="75"/>
+      <c r="C208" s="75"/>
+      <c r="D208" s="72"/>
+      <c r="E208" s="75"/>
+      <c r="F208" s="78"/>
+      <c r="G208" s="72"/>
       <c r="H208" s="50"/>
       <c r="I208" s="33" t="s">
         <v>14</v>
@@ -7182,13 +7203,13 @@
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A209" s="66"/>
-      <c r="B209" s="70"/>
-      <c r="C209" s="70"/>
-      <c r="D209" s="67"/>
-      <c r="E209" s="70"/>
-      <c r="F209" s="73"/>
-      <c r="G209" s="67"/>
+      <c r="A209" s="72"/>
+      <c r="B209" s="76"/>
+      <c r="C209" s="76"/>
+      <c r="D209" s="73"/>
+      <c r="E209" s="76"/>
+      <c r="F209" s="79"/>
+      <c r="G209" s="73"/>
       <c r="H209" s="50"/>
       <c r="I209" s="37" t="s">
         <v>12</v>
@@ -7215,7 +7236,7 @@
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A210" s="67"/>
+      <c r="A210" s="73"/>
       <c r="B210" s="44" t="s">
         <v>17</v>
       </c>
@@ -7264,125 +7285,1245 @@
         <v>10624</v>
       </c>
     </row>
+    <row r="211" spans="1:14" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="M211" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="N211" s="82"/>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A213" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B213" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C213" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D213" s="60"/>
+      <c r="E213" s="60"/>
+      <c r="F213" s="60"/>
+      <c r="G213" s="60"/>
+      <c r="H213" s="54"/>
+      <c r="I213" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="J213" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="K213" s="60"/>
+      <c r="L213" s="60"/>
+      <c r="M213" s="60"/>
+      <c r="N213" s="60"/>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A214" s="60"/>
+      <c r="B214" s="60"/>
+      <c r="C214" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D214" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E214" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F214" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="G214" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="H214" s="54"/>
+      <c r="I214" s="60"/>
+      <c r="J214" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="K214" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="L214" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="M214" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="N214" s="54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A215" s="59">
+        <v>1</v>
+      </c>
+      <c r="B215" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C215" s="62">
+        <f>G180</f>
+        <v>228</v>
+      </c>
+      <c r="D215" s="65">
+        <v>7611</v>
+      </c>
+      <c r="E215" s="62">
+        <f>SUM(C215:D217)</f>
+        <v>7839</v>
+      </c>
+      <c r="F215" s="68">
+        <f>SUM(E215-G215)</f>
+        <v>6957</v>
+      </c>
+      <c r="G215" s="65">
+        <v>882</v>
+      </c>
+      <c r="H215" s="56"/>
+      <c r="I215" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="J215" s="58">
+        <f>N180</f>
+        <v>4680</v>
+      </c>
+      <c r="K215" s="53">
+        <v>5040</v>
+      </c>
+      <c r="L215" s="58">
+        <f>SUM(J215:K215)</f>
+        <v>9720</v>
+      </c>
+      <c r="M215" s="26">
+        <f>SUM(L215-N215)</f>
+        <v>5249</v>
+      </c>
+      <c r="N215" s="53">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A216" s="60"/>
+      <c r="B216" s="61"/>
+      <c r="C216" s="63"/>
+      <c r="D216" s="66"/>
+      <c r="E216" s="63"/>
+      <c r="F216" s="69"/>
+      <c r="G216" s="66"/>
+      <c r="H216" s="56"/>
+      <c r="I216" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="J216" s="58">
+        <f t="shared" ref="J216:J217" si="161">N181</f>
+        <v>343</v>
+      </c>
+      <c r="K216" s="53">
+        <v>0</v>
+      </c>
+      <c r="L216" s="58">
+        <f t="shared" ref="L216:L217" si="162">SUM(J216:K216)</f>
+        <v>343</v>
+      </c>
+      <c r="M216" s="26">
+        <f t="shared" ref="M216:M217" si="163">SUM(L216-N216)</f>
+        <v>173</v>
+      </c>
+      <c r="N216" s="53">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A217" s="60"/>
+      <c r="B217" s="61"/>
+      <c r="C217" s="64"/>
+      <c r="D217" s="67"/>
+      <c r="E217" s="64"/>
+      <c r="F217" s="70"/>
+      <c r="G217" s="67"/>
+      <c r="H217" s="56"/>
+      <c r="I217" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J217" s="58">
+        <f t="shared" si="161"/>
+        <v>466</v>
+      </c>
+      <c r="K217" s="53">
+        <v>0</v>
+      </c>
+      <c r="L217" s="58">
+        <f t="shared" si="162"/>
+        <v>466</v>
+      </c>
+      <c r="M217" s="26">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+      <c r="N217" s="53">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A218" s="60"/>
+      <c r="B218" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C218" s="35">
+        <f>SUM(C215)</f>
+        <v>228</v>
+      </c>
+      <c r="D218" s="35">
+        <f t="shared" ref="D218:G218" si="164">SUM(D215)</f>
+        <v>7611</v>
+      </c>
+      <c r="E218" s="35">
+        <f t="shared" si="164"/>
+        <v>7839</v>
+      </c>
+      <c r="F218" s="35">
+        <f t="shared" si="164"/>
+        <v>6957</v>
+      </c>
+      <c r="G218" s="35">
+        <f t="shared" si="164"/>
+        <v>882</v>
+      </c>
+      <c r="H218" s="45"/>
+      <c r="I218" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J218" s="35">
+        <f>SUM(J215:J217)</f>
+        <v>5489</v>
+      </c>
+      <c r="K218" s="35">
+        <f t="shared" ref="K218:N218" si="165">SUM(K215:K217)</f>
+        <v>5040</v>
+      </c>
+      <c r="L218" s="35">
+        <f t="shared" si="165"/>
+        <v>10529</v>
+      </c>
+      <c r="M218" s="35">
+        <f t="shared" si="165"/>
+        <v>5422</v>
+      </c>
+      <c r="N218" s="35">
+        <f t="shared" si="165"/>
+        <v>5107</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="54"/>
+      <c r="B219" s="56"/>
+      <c r="C219" s="56"/>
+      <c r="D219" s="54"/>
+      <c r="E219" s="56"/>
+      <c r="F219" s="57"/>
+      <c r="G219" s="54"/>
+      <c r="H219" s="56"/>
+      <c r="I219" s="56"/>
+      <c r="J219" s="56"/>
+      <c r="K219" s="54"/>
+      <c r="L219" s="56"/>
+      <c r="M219" s="57"/>
+      <c r="N219" s="54"/>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A220" s="53">
+        <v>2</v>
+      </c>
+      <c r="B220" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C220" s="56"/>
+      <c r="D220" s="54"/>
+      <c r="E220" s="56"/>
+      <c r="F220" s="57"/>
+      <c r="G220" s="54"/>
+      <c r="H220" s="56"/>
+      <c r="I220" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J220" s="58">
+        <f t="shared" ref="J220:J225" si="166">N185</f>
+        <v>639</v>
+      </c>
+      <c r="K220" s="53">
+        <v>520</v>
+      </c>
+      <c r="L220" s="58">
+        <f t="shared" ref="L220:L225" si="167">SUM(J220:K220)</f>
+        <v>1159</v>
+      </c>
+      <c r="M220" s="26">
+        <f t="shared" ref="M220:M222" si="168">SUM(L220-N220)</f>
+        <v>444</v>
+      </c>
+      <c r="N220" s="53">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A221" s="53">
+        <v>3</v>
+      </c>
+      <c r="B221" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C221" s="56"/>
+      <c r="D221" s="54"/>
+      <c r="E221" s="56"/>
+      <c r="F221" s="57"/>
+      <c r="G221" s="54"/>
+      <c r="H221" s="56"/>
+      <c r="I221" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J221" s="58">
+        <f t="shared" si="166"/>
+        <v>215</v>
+      </c>
+      <c r="K221" s="53">
+        <v>382</v>
+      </c>
+      <c r="L221" s="58">
+        <f t="shared" si="167"/>
+        <v>597</v>
+      </c>
+      <c r="M221" s="26">
+        <f t="shared" si="168"/>
+        <v>324</v>
+      </c>
+      <c r="N221" s="53">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A222" s="53">
+        <v>4</v>
+      </c>
+      <c r="B222" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C222" s="56"/>
+      <c r="D222" s="54"/>
+      <c r="E222" s="56"/>
+      <c r="F222" s="57"/>
+      <c r="G222" s="54"/>
+      <c r="H222" s="56"/>
+      <c r="I222" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J222" s="58">
+        <f t="shared" si="166"/>
+        <v>171</v>
+      </c>
+      <c r="K222" s="53">
+        <v>319</v>
+      </c>
+      <c r="L222" s="58">
+        <f t="shared" si="167"/>
+        <v>490</v>
+      </c>
+      <c r="M222" s="26">
+        <f t="shared" si="168"/>
+        <v>293</v>
+      </c>
+      <c r="N222" s="53">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="53"/>
+      <c r="B223" s="55"/>
+      <c r="C223" s="56"/>
+      <c r="D223" s="54"/>
+      <c r="E223" s="56"/>
+      <c r="F223" s="57"/>
+      <c r="G223" s="54"/>
+      <c r="H223" s="56"/>
+      <c r="I223" s="55"/>
+      <c r="J223" s="58">
+        <f t="shared" si="166"/>
+        <v>4785</v>
+      </c>
+      <c r="K223" s="53">
+        <v>10637</v>
+      </c>
+      <c r="L223" s="58">
+        <f t="shared" si="167"/>
+        <v>15422</v>
+      </c>
+      <c r="M223" s="26">
+        <v>10271</v>
+      </c>
+      <c r="N223" s="53">
+        <f t="shared" ref="N223" si="169">SUM(L223-M223)</f>
+        <v>5151</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A224" s="59">
+        <v>5</v>
+      </c>
+      <c r="B224" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C224" s="80"/>
+      <c r="D224" s="60"/>
+      <c r="E224" s="80"/>
+      <c r="F224" s="81"/>
+      <c r="G224" s="60"/>
+      <c r="H224" s="56"/>
+      <c r="I224" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J224" s="58">
+        <f t="shared" si="166"/>
+        <v>168</v>
+      </c>
+      <c r="K224" s="53">
+        <v>354</v>
+      </c>
+      <c r="L224" s="58">
+        <f t="shared" si="167"/>
+        <v>522</v>
+      </c>
+      <c r="M224" s="26">
+        <f t="shared" ref="M224:M225" si="170">SUM(L224-N224)</f>
+        <v>302</v>
+      </c>
+      <c r="N224" s="53">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A225" s="59"/>
+      <c r="B225" s="61"/>
+      <c r="C225" s="80"/>
+      <c r="D225" s="60"/>
+      <c r="E225" s="80"/>
+      <c r="F225" s="81"/>
+      <c r="G225" s="60"/>
+      <c r="H225" s="56"/>
+      <c r="I225" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="J225" s="58">
+        <f t="shared" si="166"/>
+        <v>1</v>
+      </c>
+      <c r="K225" s="53">
+        <v>0</v>
+      </c>
+      <c r="L225" s="58">
+        <f t="shared" si="167"/>
+        <v>1</v>
+      </c>
+      <c r="M225" s="26">
+        <f t="shared" si="170"/>
+        <v>0</v>
+      </c>
+      <c r="N225" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A226" s="59"/>
+      <c r="B226" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C226" s="45"/>
+      <c r="D226" s="45"/>
+      <c r="E226" s="45"/>
+      <c r="F226" s="45"/>
+      <c r="G226" s="45"/>
+      <c r="H226" s="45"/>
+      <c r="I226" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J226" s="35">
+        <f>SUM(J224:J225)</f>
+        <v>169</v>
+      </c>
+      <c r="K226" s="35">
+        <f t="shared" ref="K226:N226" si="171">SUM(K224:K225)</f>
+        <v>354</v>
+      </c>
+      <c r="L226" s="35">
+        <f t="shared" si="171"/>
+        <v>523</v>
+      </c>
+      <c r="M226" s="35">
+        <f t="shared" si="171"/>
+        <v>302</v>
+      </c>
+      <c r="N226" s="35">
+        <f t="shared" si="171"/>
+        <v>221</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="54"/>
+      <c r="B227" s="56"/>
+      <c r="C227" s="56"/>
+      <c r="D227" s="54"/>
+      <c r="E227" s="56"/>
+      <c r="F227" s="57"/>
+      <c r="G227" s="54"/>
+      <c r="H227" s="56"/>
+      <c r="I227" s="56"/>
+      <c r="J227" s="56"/>
+      <c r="K227" s="54"/>
+      <c r="L227" s="56"/>
+      <c r="M227" s="57"/>
+      <c r="N227" s="54"/>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A228" s="59">
+        <v>6</v>
+      </c>
+      <c r="B228" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C228" s="80"/>
+      <c r="D228" s="60"/>
+      <c r="E228" s="80"/>
+      <c r="F228" s="81"/>
+      <c r="G228" s="60"/>
+      <c r="H228" s="56"/>
+      <c r="I228" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J228" s="58">
+        <f t="shared" ref="J228:J229" si="172">N193</f>
+        <v>19</v>
+      </c>
+      <c r="K228" s="53">
+        <v>0</v>
+      </c>
+      <c r="L228" s="58">
+        <f t="shared" ref="L228:L229" si="173">SUM(J228:K228)</f>
+        <v>19</v>
+      </c>
+      <c r="M228" s="26">
+        <f t="shared" ref="M228:M229" si="174">SUM(L228-N228)</f>
+        <v>0</v>
+      </c>
+      <c r="N228" s="53">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A229" s="60"/>
+      <c r="B229" s="61"/>
+      <c r="C229" s="80"/>
+      <c r="D229" s="60"/>
+      <c r="E229" s="80"/>
+      <c r="F229" s="81"/>
+      <c r="G229" s="60"/>
+      <c r="H229" s="56"/>
+      <c r="I229" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="J229" s="58">
+        <f t="shared" si="172"/>
+        <v>31</v>
+      </c>
+      <c r="K229" s="53">
+        <v>3052</v>
+      </c>
+      <c r="L229" s="58">
+        <f t="shared" si="173"/>
+        <v>3083</v>
+      </c>
+      <c r="M229" s="26">
+        <f t="shared" si="174"/>
+        <v>2895</v>
+      </c>
+      <c r="N229" s="53">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A230" s="60"/>
+      <c r="B230" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C230" s="45"/>
+      <c r="D230" s="45"/>
+      <c r="E230" s="45"/>
+      <c r="F230" s="45"/>
+      <c r="G230" s="45"/>
+      <c r="H230" s="45"/>
+      <c r="I230" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="J230" s="35">
+        <f>SUM(J228:J229)</f>
+        <v>50</v>
+      </c>
+      <c r="K230" s="35">
+        <f t="shared" ref="K230:N230" si="175">SUM(K228:K229)</f>
+        <v>3052</v>
+      </c>
+      <c r="L230" s="35">
+        <f t="shared" si="175"/>
+        <v>3102</v>
+      </c>
+      <c r="M230" s="35">
+        <f t="shared" si="175"/>
+        <v>2895</v>
+      </c>
+      <c r="N230" s="35">
+        <f t="shared" si="175"/>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="54"/>
+      <c r="B231" s="56"/>
+      <c r="C231" s="56"/>
+      <c r="D231" s="54"/>
+      <c r="E231" s="56"/>
+      <c r="F231" s="57"/>
+      <c r="G231" s="54"/>
+      <c r="H231" s="56"/>
+      <c r="I231" s="56"/>
+      <c r="J231" s="56"/>
+      <c r="K231" s="54"/>
+      <c r="L231" s="56"/>
+      <c r="M231" s="57"/>
+      <c r="N231" s="54"/>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A232" s="59">
+        <v>7</v>
+      </c>
+      <c r="B232" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C232" s="62">
+        <f t="shared" ref="C232" si="176">G197</f>
+        <v>0</v>
+      </c>
+      <c r="D232" s="65">
+        <v>0</v>
+      </c>
+      <c r="E232" s="62">
+        <f t="shared" ref="E232" si="177">SUM(C232:D232)</f>
+        <v>0</v>
+      </c>
+      <c r="F232" s="68">
+        <f t="shared" ref="F232" si="178">SUM(E232-G232)</f>
+        <v>0</v>
+      </c>
+      <c r="G232" s="65">
+        <v>0</v>
+      </c>
+      <c r="H232" s="56"/>
+      <c r="I232" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J232" s="58">
+        <f t="shared" ref="J232:J234" si="179">N197</f>
+        <v>1</v>
+      </c>
+      <c r="K232" s="53">
+        <v>0</v>
+      </c>
+      <c r="L232" s="58">
+        <f t="shared" ref="L232:L234" si="180">SUM(J232:K232)</f>
+        <v>1</v>
+      </c>
+      <c r="M232" s="26">
+        <f t="shared" ref="M232:M234" si="181">SUM(L232-N232)</f>
+        <v>0</v>
+      </c>
+      <c r="N232" s="53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A233" s="60"/>
+      <c r="B233" s="61"/>
+      <c r="C233" s="63"/>
+      <c r="D233" s="66"/>
+      <c r="E233" s="63"/>
+      <c r="F233" s="69"/>
+      <c r="G233" s="66"/>
+      <c r="H233" s="56"/>
+      <c r="I233" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J233" s="58">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+      <c r="K233" s="53">
+        <v>0</v>
+      </c>
+      <c r="L233" s="58">
+        <f t="shared" si="180"/>
+        <v>0</v>
+      </c>
+      <c r="M233" s="26">
+        <f t="shared" si="181"/>
+        <v>0</v>
+      </c>
+      <c r="N233" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A234" s="60"/>
+      <c r="B234" s="61"/>
+      <c r="C234" s="64"/>
+      <c r="D234" s="67"/>
+      <c r="E234" s="64"/>
+      <c r="F234" s="70"/>
+      <c r="G234" s="67"/>
+      <c r="H234" s="56"/>
+      <c r="I234" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J234" s="58">
+        <f t="shared" si="179"/>
+        <v>3354</v>
+      </c>
+      <c r="K234" s="53">
+        <v>2477</v>
+      </c>
+      <c r="L234" s="58">
+        <f t="shared" si="180"/>
+        <v>5831</v>
+      </c>
+      <c r="M234" s="26">
+        <f t="shared" si="181"/>
+        <v>4144</v>
+      </c>
+      <c r="N234" s="53">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A235" s="60"/>
+      <c r="B235" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C235" s="35">
+        <f>SUM(C232)</f>
+        <v>0</v>
+      </c>
+      <c r="D235" s="35">
+        <f>SUM(D232)</f>
+        <v>0</v>
+      </c>
+      <c r="E235" s="35">
+        <f>SUM(E232)</f>
+        <v>0</v>
+      </c>
+      <c r="F235" s="35">
+        <f>SUM(F232)</f>
+        <v>0</v>
+      </c>
+      <c r="G235" s="35">
+        <f>SUM(G232)</f>
+        <v>0</v>
+      </c>
+      <c r="H235" s="45"/>
+      <c r="I235" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="J235" s="35">
+        <f>SUM(J232:J234)</f>
+        <v>3355</v>
+      </c>
+      <c r="K235" s="35">
+        <f t="shared" ref="K235:N235" si="182">SUM(K232:K234)</f>
+        <v>2477</v>
+      </c>
+      <c r="L235" s="35">
+        <f t="shared" si="182"/>
+        <v>5832</v>
+      </c>
+      <c r="M235" s="35">
+        <f t="shared" si="182"/>
+        <v>4144</v>
+      </c>
+      <c r="N235" s="35">
+        <f t="shared" si="182"/>
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="54"/>
+      <c r="B236" s="56"/>
+      <c r="C236" s="56"/>
+      <c r="D236" s="54"/>
+      <c r="E236" s="56"/>
+      <c r="F236" s="57"/>
+      <c r="G236" s="54"/>
+      <c r="H236" s="56"/>
+      <c r="I236" s="56"/>
+      <c r="J236" s="56"/>
+      <c r="K236" s="54"/>
+      <c r="L236" s="56"/>
+      <c r="M236" s="57"/>
+      <c r="N236" s="54"/>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A237" s="53">
+        <v>8</v>
+      </c>
+      <c r="B237" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C237" s="56"/>
+      <c r="D237" s="54"/>
+      <c r="E237" s="56"/>
+      <c r="F237" s="57"/>
+      <c r="G237" s="54"/>
+      <c r="H237" s="56"/>
+      <c r="I237" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J237" s="58">
+        <f t="shared" ref="J237:J239" si="183">N202</f>
+        <v>313</v>
+      </c>
+      <c r="K237" s="53">
+        <v>530</v>
+      </c>
+      <c r="L237" s="58">
+        <f t="shared" ref="L237:L239" si="184">SUM(J237:K237)</f>
+        <v>843</v>
+      </c>
+      <c r="M237" s="26">
+        <f t="shared" ref="M237:M239" si="185">SUM(L237-N237)</f>
+        <v>477</v>
+      </c>
+      <c r="N237" s="53">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A238" s="53">
+        <v>9</v>
+      </c>
+      <c r="B238" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C238" s="56"/>
+      <c r="D238" s="54"/>
+      <c r="E238" s="56"/>
+      <c r="F238" s="57"/>
+      <c r="G238" s="54"/>
+      <c r="H238" s="56"/>
+      <c r="I238" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J238" s="58">
+        <f t="shared" si="183"/>
+        <v>223</v>
+      </c>
+      <c r="K238" s="53">
+        <v>606</v>
+      </c>
+      <c r="L238" s="58">
+        <f t="shared" si="184"/>
+        <v>829</v>
+      </c>
+      <c r="M238" s="26">
+        <f t="shared" si="185"/>
+        <v>491</v>
+      </c>
+      <c r="N238" s="53">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A239" s="53">
+        <v>10</v>
+      </c>
+      <c r="B239" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="C239" s="56"/>
+      <c r="D239" s="54"/>
+      <c r="E239" s="56"/>
+      <c r="F239" s="57"/>
+      <c r="G239" s="54"/>
+      <c r="H239" s="56"/>
+      <c r="I239" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J239" s="58">
+        <f t="shared" si="183"/>
+        <v>0</v>
+      </c>
+      <c r="K239" s="53">
+        <v>0</v>
+      </c>
+      <c r="L239" s="58">
+        <f t="shared" si="184"/>
+        <v>0</v>
+      </c>
+      <c r="M239" s="26">
+        <f t="shared" si="185"/>
+        <v>0</v>
+      </c>
+      <c r="N239" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" ht="0.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="53"/>
+      <c r="B240" s="55"/>
+      <c r="C240" s="56"/>
+      <c r="D240" s="54"/>
+      <c r="E240" s="56"/>
+      <c r="F240" s="57"/>
+      <c r="G240" s="54"/>
+      <c r="H240" s="56"/>
+      <c r="I240" s="8"/>
+      <c r="J240" s="56"/>
+      <c r="K240" s="54"/>
+      <c r="L240" s="56"/>
+      <c r="M240" s="57"/>
+      <c r="N240" s="54"/>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A241" s="71"/>
+      <c r="B241" s="74"/>
+      <c r="C241" s="74"/>
+      <c r="D241" s="71"/>
+      <c r="E241" s="74"/>
+      <c r="F241" s="77"/>
+      <c r="G241" s="71"/>
+      <c r="H241" s="56"/>
+      <c r="I241" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J241" s="34">
+        <f>SUM(J215+J233+J239)</f>
+        <v>4680</v>
+      </c>
+      <c r="K241" s="35">
+        <f>SUM(K215+K233+K239)</f>
+        <v>5040</v>
+      </c>
+      <c r="L241" s="34">
+        <f>SUM(L215+L233+L239)</f>
+        <v>9720</v>
+      </c>
+      <c r="M241" s="36">
+        <f>SUM(M215+M233+M239)</f>
+        <v>5249</v>
+      </c>
+      <c r="N241" s="35">
+        <f>SUM(N215+N233+N239)</f>
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A242" s="72"/>
+      <c r="B242" s="75"/>
+      <c r="C242" s="75"/>
+      <c r="D242" s="72"/>
+      <c r="E242" s="75"/>
+      <c r="F242" s="78"/>
+      <c r="G242" s="72"/>
+      <c r="H242" s="56"/>
+      <c r="I242" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J242" s="34">
+        <f>SUM(J216+J225+J229+J234)</f>
+        <v>3729</v>
+      </c>
+      <c r="K242" s="35">
+        <f t="shared" ref="K242:N242" si="186">SUM(K216+K225+K229+K234)</f>
+        <v>5529</v>
+      </c>
+      <c r="L242" s="34">
+        <f t="shared" si="186"/>
+        <v>9258</v>
+      </c>
+      <c r="M242" s="36">
+        <f t="shared" si="186"/>
+        <v>7212</v>
+      </c>
+      <c r="N242" s="35">
+        <f t="shared" si="186"/>
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A243" s="72"/>
+      <c r="B243" s="75"/>
+      <c r="C243" s="75"/>
+      <c r="D243" s="72"/>
+      <c r="E243" s="75"/>
+      <c r="F243" s="78"/>
+      <c r="G243" s="72"/>
+      <c r="H243" s="56"/>
+      <c r="I243" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="J243" s="34">
+        <f>SUM(J220+J221+J222+J224+J228+J232+J237+J238)</f>
+        <v>1749</v>
+      </c>
+      <c r="K243" s="35">
+        <f t="shared" ref="K243:N243" si="187">SUM(K220+K221+K222+K224+K228+K232+K237+K238)</f>
+        <v>2711</v>
+      </c>
+      <c r="L243" s="34">
+        <f t="shared" si="187"/>
+        <v>4460</v>
+      </c>
+      <c r="M243" s="36">
+        <f t="shared" si="187"/>
+        <v>2331</v>
+      </c>
+      <c r="N243" s="35">
+        <f t="shared" si="187"/>
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A244" s="72"/>
+      <c r="B244" s="76"/>
+      <c r="C244" s="76"/>
+      <c r="D244" s="73"/>
+      <c r="E244" s="76"/>
+      <c r="F244" s="79"/>
+      <c r="G244" s="73"/>
+      <c r="H244" s="56"/>
+      <c r="I244" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J244" s="34">
+        <f>SUM(J217)</f>
+        <v>466</v>
+      </c>
+      <c r="K244" s="35">
+        <f t="shared" ref="K244:N244" si="188">SUM(K217)</f>
+        <v>0</v>
+      </c>
+      <c r="L244" s="34">
+        <f t="shared" si="188"/>
+        <v>466</v>
+      </c>
+      <c r="M244" s="36">
+        <f t="shared" si="188"/>
+        <v>0</v>
+      </c>
+      <c r="N244" s="35">
+        <f t="shared" si="188"/>
+        <v>466</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A245" s="73"/>
+      <c r="B245" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C245" s="35">
+        <f>SUM(C218+C235)</f>
+        <v>228</v>
+      </c>
+      <c r="D245" s="35">
+        <f>SUM(D235+D218)</f>
+        <v>7611</v>
+      </c>
+      <c r="E245" s="35">
+        <f>SUM(E235+E218)</f>
+        <v>7839</v>
+      </c>
+      <c r="F245" s="35">
+        <f>SUM(F235+F218)</f>
+        <v>6957</v>
+      </c>
+      <c r="G245" s="35">
+        <f>SUM(G235+G218)</f>
+        <v>882</v>
+      </c>
+      <c r="H245" s="45"/>
+      <c r="I245" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J245" s="35">
+        <f>SUM(J241:J244)</f>
+        <v>10624</v>
+      </c>
+      <c r="K245" s="35">
+        <f t="shared" ref="K245:N245" si="189">SUM(K241:K244)</f>
+        <v>13280</v>
+      </c>
+      <c r="L245" s="35">
+        <f t="shared" si="189"/>
+        <v>23904</v>
+      </c>
+      <c r="M245" s="35">
+        <f t="shared" si="189"/>
+        <v>14792</v>
+      </c>
+      <c r="N245" s="35">
+        <f t="shared" si="189"/>
+        <v>9112</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="246">
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="D127:D129"/>
-    <mergeCell ref="E127:E129"/>
-    <mergeCell ref="F127:F129"/>
-    <mergeCell ref="G127:G129"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="B136:B139"/>
-    <mergeCell ref="C136:C139"/>
-    <mergeCell ref="D136:D139"/>
-    <mergeCell ref="E136:E139"/>
-    <mergeCell ref="F136:F139"/>
-    <mergeCell ref="G136:G139"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="F119:F120"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="A123:A125"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="F123:F124"/>
-    <mergeCell ref="G123:G124"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="I108:I109"/>
-    <mergeCell ref="J108:N108"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="F110:F112"/>
-    <mergeCell ref="G110:G112"/>
-    <mergeCell ref="F101:F104"/>
-    <mergeCell ref="G101:G104"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="E101:E104"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="A92:A95"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="F92:F94"/>
-    <mergeCell ref="G92:G94"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F75:F77"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="A84:A86"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:D77"/>
-    <mergeCell ref="E75:E77"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="I73:I74"/>
-    <mergeCell ref="J73:N73"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="A66:A70"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="F57:F59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E40:E42"/>
+  <mergeCells count="287">
+    <mergeCell ref="A232:A235"/>
+    <mergeCell ref="B232:B234"/>
+    <mergeCell ref="C232:C234"/>
+    <mergeCell ref="D232:D234"/>
+    <mergeCell ref="E232:E234"/>
+    <mergeCell ref="F232:F234"/>
+    <mergeCell ref="G232:G234"/>
+    <mergeCell ref="A241:A245"/>
+    <mergeCell ref="B241:B244"/>
+    <mergeCell ref="C241:C244"/>
+    <mergeCell ref="D241:D244"/>
+    <mergeCell ref="E241:E244"/>
+    <mergeCell ref="F241:F244"/>
+    <mergeCell ref="G241:G244"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="B224:B225"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="D224:D225"/>
+    <mergeCell ref="E224:E225"/>
+    <mergeCell ref="F224:F225"/>
+    <mergeCell ref="G224:G225"/>
+    <mergeCell ref="A228:A230"/>
+    <mergeCell ref="B228:B229"/>
+    <mergeCell ref="C228:C229"/>
+    <mergeCell ref="D228:D229"/>
+    <mergeCell ref="E228:E229"/>
+    <mergeCell ref="F228:F229"/>
+    <mergeCell ref="G228:G229"/>
+    <mergeCell ref="M211:N211"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="C213:G213"/>
+    <mergeCell ref="I213:I214"/>
+    <mergeCell ref="J213:N213"/>
+    <mergeCell ref="A215:A218"/>
+    <mergeCell ref="B215:B217"/>
+    <mergeCell ref="C215:C217"/>
+    <mergeCell ref="D215:D217"/>
+    <mergeCell ref="E215:E217"/>
+    <mergeCell ref="F215:F217"/>
+    <mergeCell ref="G215:G217"/>
+    <mergeCell ref="A197:A200"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="C197:C199"/>
+    <mergeCell ref="D197:D199"/>
+    <mergeCell ref="E197:E199"/>
+    <mergeCell ref="F197:F199"/>
+    <mergeCell ref="G197:G199"/>
+    <mergeCell ref="A206:A210"/>
+    <mergeCell ref="B206:B209"/>
+    <mergeCell ref="C206:C209"/>
+    <mergeCell ref="D206:D209"/>
+    <mergeCell ref="E206:E209"/>
+    <mergeCell ref="F206:F209"/>
+    <mergeCell ref="G206:G209"/>
+    <mergeCell ref="A189:A191"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="C189:C190"/>
+    <mergeCell ref="D189:D190"/>
+    <mergeCell ref="E189:E190"/>
+    <mergeCell ref="F189:F190"/>
+    <mergeCell ref="G189:G190"/>
+    <mergeCell ref="A193:A195"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="C193:C194"/>
+    <mergeCell ref="D193:D194"/>
+    <mergeCell ref="E193:E194"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="G193:G194"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="C178:G178"/>
+    <mergeCell ref="I178:I179"/>
+    <mergeCell ref="J178:N178"/>
+    <mergeCell ref="A180:A183"/>
+    <mergeCell ref="B180:B182"/>
+    <mergeCell ref="C180:C182"/>
+    <mergeCell ref="D180:D182"/>
+    <mergeCell ref="E180:E182"/>
+    <mergeCell ref="F180:F182"/>
+    <mergeCell ref="G180:G182"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="D162:D164"/>
+    <mergeCell ref="E162:E164"/>
+    <mergeCell ref="F162:F164"/>
+    <mergeCell ref="G162:G164"/>
+    <mergeCell ref="A171:A175"/>
+    <mergeCell ref="B171:B174"/>
+    <mergeCell ref="C171:C174"/>
+    <mergeCell ref="D171:D174"/>
+    <mergeCell ref="E171:E174"/>
+    <mergeCell ref="F171:F174"/>
+    <mergeCell ref="G171:G174"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="D154:D155"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="F154:F155"/>
+    <mergeCell ref="G154:G155"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="D158:D159"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="F158:F159"/>
+    <mergeCell ref="G158:G159"/>
+    <mergeCell ref="M141:N141"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="J143:N143"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="C145:C147"/>
+    <mergeCell ref="D145:D147"/>
+    <mergeCell ref="E145:E147"/>
+    <mergeCell ref="F145:F147"/>
+    <mergeCell ref="G145:G147"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="G31:G34"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="A38:A39"/>
@@ -7407,111 +8548,123 @@
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:D7"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="G31:G34"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="M141:N141"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:G143"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="J143:N143"/>
-    <mergeCell ref="A145:A148"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="C145:C147"/>
-    <mergeCell ref="D145:D147"/>
-    <mergeCell ref="E145:E147"/>
-    <mergeCell ref="F145:F147"/>
-    <mergeCell ref="G145:G147"/>
-    <mergeCell ref="A154:A156"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="D154:D155"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="F154:F155"/>
-    <mergeCell ref="G154:G155"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="D158:D159"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="F158:F159"/>
-    <mergeCell ref="G158:G159"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="D162:D164"/>
-    <mergeCell ref="E162:E164"/>
-    <mergeCell ref="F162:F164"/>
-    <mergeCell ref="G162:G164"/>
-    <mergeCell ref="A171:A175"/>
-    <mergeCell ref="B171:B174"/>
-    <mergeCell ref="C171:C174"/>
-    <mergeCell ref="D171:D174"/>
-    <mergeCell ref="E171:E174"/>
-    <mergeCell ref="F171:F174"/>
-    <mergeCell ref="G171:G174"/>
-    <mergeCell ref="M176:N176"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="C178:G178"/>
-    <mergeCell ref="I178:I179"/>
-    <mergeCell ref="J178:N178"/>
-    <mergeCell ref="A180:A183"/>
-    <mergeCell ref="B180:B182"/>
-    <mergeCell ref="C180:C182"/>
-    <mergeCell ref="D180:D182"/>
-    <mergeCell ref="E180:E182"/>
-    <mergeCell ref="F180:F182"/>
-    <mergeCell ref="G180:G182"/>
-    <mergeCell ref="A189:A191"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="C189:C190"/>
-    <mergeCell ref="D189:D190"/>
-    <mergeCell ref="E189:E190"/>
-    <mergeCell ref="F189:F190"/>
-    <mergeCell ref="G189:G190"/>
-    <mergeCell ref="A193:A195"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="C193:C194"/>
-    <mergeCell ref="D193:D194"/>
-    <mergeCell ref="E193:E194"/>
-    <mergeCell ref="F193:F194"/>
-    <mergeCell ref="G193:G194"/>
-    <mergeCell ref="A197:A200"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="C197:C199"/>
-    <mergeCell ref="D197:D199"/>
-    <mergeCell ref="E197:E199"/>
-    <mergeCell ref="F197:F199"/>
-    <mergeCell ref="G197:G199"/>
-    <mergeCell ref="A206:A210"/>
-    <mergeCell ref="B206:B209"/>
-    <mergeCell ref="C206:C209"/>
-    <mergeCell ref="D206:D209"/>
-    <mergeCell ref="E206:E209"/>
-    <mergeCell ref="F206:F209"/>
-    <mergeCell ref="G206:G209"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="F57:F59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="J73:N73"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="A66:A70"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="E75:E77"/>
+    <mergeCell ref="F101:F104"/>
+    <mergeCell ref="G101:G104"/>
+    <mergeCell ref="A101:A105"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="E101:E104"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="A92:A95"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="G92:G94"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="I108:I109"/>
+    <mergeCell ref="J108:N108"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="F110:F112"/>
+    <mergeCell ref="G110:G112"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="F119:F120"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="A123:A125"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G123:G124"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="D127:D129"/>
+    <mergeCell ref="E127:E129"/>
+    <mergeCell ref="F127:F129"/>
+    <mergeCell ref="G127:G129"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="B136:B139"/>
+    <mergeCell ref="C136:C139"/>
+    <mergeCell ref="D136:D139"/>
+    <mergeCell ref="E136:E139"/>
+    <mergeCell ref="F136:F139"/>
+    <mergeCell ref="G136:G139"/>
   </mergeCells>
   <pageMargins left="0.45" right="0.45" top="0.75" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
